--- a/BackTest/2019-10-17 BackTest CMT.xlsx
+++ b/BackTest/2019-10-17 BackTest CMT.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>1.5</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-23.07692307692312</v>
+      </c>
       <c r="L12" t="n">
         <v>20.56</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>1.800000000000001</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>14.28571428571421</v>
+      </c>
       <c r="L13" t="n">
         <v>20.56</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>1.899999999999999</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>28.5714285714285</v>
+      </c>
       <c r="L14" t="n">
         <v>20.59</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>1.999999999999996</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>20.0000000000001</v>
+      </c>
       <c r="L15" t="n">
         <v>20.62</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>2.299999999999997</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>33.33333333333346</v>
+      </c>
       <c r="L16" t="n">
         <v>20.68</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>2.399999999999999</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>17.64705882352946</v>
+      </c>
       <c r="L17" t="n">
         <v>20.73</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>2.699999999999999</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>17.64705882352946</v>
+      </c>
       <c r="L18" t="n">
         <v>20.73</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>2.799999999999997</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>11.11111111111129</v>
+      </c>
       <c r="L19" t="n">
         <v>20.75</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>3</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-17.64705882352946</v>
+      </c>
       <c r="L20" t="n">
         <v>20.75</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>3.600000000000001</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>23.8095238095238</v>
+      </c>
       <c r="L21" t="n">
         <v>20.78</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>3.700000000000003</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>15.78947368421055</v>
+      </c>
       <c r="L22" t="n">
         <v>20.84</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>4.000000000000004</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>-4.761904761904649</v>
       </c>
       <c r="L23" t="n">
         <v>20.84</v>
@@ -1466,7 +1488,7 @@
         <v>4.100000000000005</v>
       </c>
       <c r="K24" t="n">
-        <v>2.70270270270264</v>
+        <v>-4.76190476190481</v>
       </c>
       <c r="L24" t="n">
         <v>20.82</v>
@@ -1515,7 +1537,7 @@
         <v>4.100000000000005</v>
       </c>
       <c r="K25" t="n">
-        <v>5.555555555555528</v>
+        <v>-22.22222222222224</v>
       </c>
       <c r="L25" t="n">
         <v>20.81</v>
@@ -1564,7 +1586,7 @@
         <v>4.500000000000007</v>
       </c>
       <c r="K26" t="n">
-        <v>15.00000000000001</v>
+        <v>4.76190476190481</v>
       </c>
       <c r="L26" t="n">
         <v>20.81</v>
@@ -1613,7 +1635,7 @@
         <v>4.500000000000007</v>
       </c>
       <c r="K27" t="n">
-        <v>15.00000000000001</v>
+        <v>22.22222222222224</v>
       </c>
       <c r="L27" t="n">
         <v>20.82</v>
@@ -1662,7 +1684,7 @@
         <v>4.600000000000005</v>
       </c>
       <c r="K28" t="n">
-        <v>12.8205128205128</v>
+        <v>33.33333333333307</v>
       </c>
       <c r="L28" t="n">
         <v>20.87</v>
@@ -1711,7 +1733,7 @@
         <v>5.100000000000005</v>
       </c>
       <c r="K29" t="n">
-        <v>7.317073170731716</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L29" t="n">
         <v>20.88</v>
@@ -1760,7 +1782,7 @@
         <v>5.100000000000005</v>
       </c>
       <c r="K30" t="n">
-        <v>7.317073170731716</v>
+        <v>-20</v>
       </c>
       <c r="L30" t="n">
         <v>20.90999999999999</v>
@@ -1809,7 +1831,7 @@
         <v>5.200000000000006</v>
       </c>
       <c r="K31" t="n">
-        <v>2.564102564102597</v>
+        <v>-20</v>
       </c>
       <c r="L31" t="n">
         <v>20.88999999999999</v>
@@ -1860,7 +1882,7 @@
         <v>5.300000000000008</v>
       </c>
       <c r="K32" t="n">
-        <v>5.263157894736812</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="L32" t="n">
         <v>20.84999999999999</v>
@@ -1911,7 +1933,7 @@
         <v>5.400000000000009</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>7.692307692307776</v>
       </c>
       <c r="L33" t="n">
         <v>20.84999999999999</v>
@@ -1962,7 +1984,7 @@
         <v>5.400000000000009</v>
       </c>
       <c r="K34" t="n">
-        <v>-2.857142857142787</v>
+        <v>7.692307692307776</v>
       </c>
       <c r="L34" t="n">
         <v>20.86</v>
@@ -2013,7 +2035,7 @@
         <v>5.400000000000009</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L35" t="n">
         <v>20.87</v>
@@ -2064,7 +2086,7 @@
         <v>5.400000000000009</v>
       </c>
       <c r="K36" t="n">
-        <v>-9.677419354838696</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L36" t="n">
         <v>20.84</v>
@@ -2115,7 +2137,7 @@
         <v>5.400000000000009</v>
       </c>
       <c r="K37" t="n">
-        <v>-6.666666666666619</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L37" t="n">
         <v>20.81</v>
@@ -2166,7 +2188,7 @@
         <v>5.400000000000009</v>
       </c>
       <c r="K38" t="n">
-        <v>3.703703703703742</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L38" t="n">
         <v>20.77</v>
@@ -2217,7 +2239,7 @@
         <v>5.500000000000011</v>
       </c>
       <c r="K39" t="n">
-        <v>3.703703703703606</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>20.77</v>
@@ -2268,7 +2290,7 @@
         <v>5.600000000000009</v>
       </c>
       <c r="K40" t="n">
-        <v>7.692307692307776</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L40" t="n">
         <v>20.76000000000001</v>
@@ -2319,7 +2341,7 @@
         <v>5.600000000000009</v>
       </c>
       <c r="K41" t="n">
-        <v>-19.99999999999986</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L41" t="n">
         <v>20.74</v>
@@ -2370,7 +2392,7 @@
         <v>5.600000000000009</v>
       </c>
       <c r="K42" t="n">
-        <v>-26.31578947368413</v>
+        <v>-100</v>
       </c>
       <c r="L42" t="n">
         <v>20.73</v>
@@ -2421,7 +2443,7 @@
         <v>5.600000000000009</v>
       </c>
       <c r="K43" t="n">
-        <v>-12.49999999999992</v>
+        <v>-100</v>
       </c>
       <c r="L43" t="n">
         <v>20.71</v>
@@ -2472,7 +2494,7 @@
         <v>5.600000000000009</v>
       </c>
       <c r="K44" t="n">
-        <v>-6.666666666666508</v>
+        <v>-100</v>
       </c>
       <c r="L44" t="n">
         <v>20.69</v>
@@ -2523,7 +2545,7 @@
         <v>5.600000000000009</v>
       </c>
       <c r="K45" t="n">
-        <v>-6.666666666666508</v>
+        <v>-100</v>
       </c>
       <c r="L45" t="n">
         <v>20.67</v>
@@ -2574,7 +2596,7 @@
         <v>5.800000000000011</v>
       </c>
       <c r="K46" t="n">
-        <v>-53.84615384615389</v>
+        <v>-100</v>
       </c>
       <c r="L46" t="n">
         <v>20.63</v>
@@ -2625,7 +2647,7 @@
         <v>6.000000000000014</v>
       </c>
       <c r="K47" t="n">
-        <v>-33.33333333333318</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L47" t="n">
         <v>20.61</v>
@@ -2676,7 +2698,7 @@
         <v>6.200000000000014</v>
       </c>
       <c r="K48" t="n">
-        <v>-24.99999999999978</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L48" t="n">
         <v>20.61</v>
@@ -2727,7 +2749,7 @@
         <v>6.400000000000013</v>
       </c>
       <c r="K49" t="n">
-        <v>23.07692307692299</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L49" t="n">
         <v>20.64</v>
@@ -2778,7 +2800,7 @@
         <v>6.800000000000011</v>
       </c>
       <c r="K50" t="n">
-        <v>-5.882352941176324</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
         <v>20.64</v>
@@ -2829,7 +2851,7 @@
         <v>6.900000000000013</v>
       </c>
       <c r="K51" t="n">
-        <v>-17.64705882352939</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="L51" t="n">
         <v>20.63</v>
@@ -2880,7 +2902,7 @@
         <v>7.000000000000014</v>
       </c>
       <c r="K52" t="n">
-        <v>-17.64705882352939</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L52" t="n">
         <v>20.61</v>
@@ -2931,7 +2953,7 @@
         <v>7.300000000000015</v>
       </c>
       <c r="K53" t="n">
-        <v>-5.263157894736901</v>
+        <v>5.882352941176324</v>
       </c>
       <c r="L53" t="n">
         <v>20.62</v>
@@ -2982,7 +3004,7 @@
         <v>7.600000000000016</v>
       </c>
       <c r="K54" t="n">
-        <v>-18.18181818181823</v>
+        <v>-10.00000000000011</v>
       </c>
       <c r="L54" t="n">
         <v>20.6</v>
@@ -3033,7 +3055,7 @@
         <v>7.900000000000016</v>
       </c>
       <c r="K55" t="n">
-        <v>-4.000000000000045</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L55" t="n">
         <v>20.61</v>
@@ -3084,7 +3106,7 @@
         <v>8.000000000000014</v>
       </c>
       <c r="K56" t="n">
-        <v>-7.69230769230765</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
         <v>20.63</v>
@@ -3135,7 +3157,7 @@
         <v>8.400000000000013</v>
       </c>
       <c r="K57" t="n">
-        <v>6.666666666666635</v>
+        <v>9.090909090909062</v>
       </c>
       <c r="L57" t="n">
         <v>20.67</v>
@@ -3186,7 +3208,7 @@
         <v>8.500000000000014</v>
       </c>
       <c r="K58" t="n">
-        <v>3.22580645161283</v>
+        <v>-4.761904761904826</v>
       </c>
       <c r="L58" t="n">
         <v>20.68</v>
@@ -3237,7 +3259,7 @@
         <v>8.700000000000017</v>
       </c>
       <c r="K59" t="n">
-        <v>12.50000000000004</v>
+        <v>26.31578947368413</v>
       </c>
       <c r="L59" t="n">
         <v>20.69</v>
@@ -3288,7 +3310,7 @@
         <v>8.90000000000002</v>
       </c>
       <c r="K60" t="n">
-        <v>9.090909090908973</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L60" t="n">
         <v>20.72</v>
@@ -3339,7 +3361,7 @@
         <v>8.90000000000002</v>
       </c>
       <c r="K61" t="n">
-        <v>9.090909090908973</v>
+        <v>26.31578947368413</v>
       </c>
       <c r="L61" t="n">
         <v>20.76</v>
@@ -3390,7 +3412,7 @@
         <v>9.200000000000017</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>-5.263157894736723</v>
       </c>
       <c r="L62" t="n">
         <v>20.78</v>
@@ -3441,7 +3463,7 @@
         <v>9.700000000000017</v>
       </c>
       <c r="K63" t="n">
-        <v>12.19512195121949</v>
+        <v>33.33333333333345</v>
       </c>
       <c r="L63" t="n">
         <v>20.82</v>
@@ -3492,7 +3514,7 @@
         <v>9.90000000000002</v>
       </c>
       <c r="K64" t="n">
-        <v>6.976744186046427</v>
+        <v>9.999999999999947</v>
       </c>
       <c r="L64" t="n">
         <v>20.87</v>
@@ -3543,7 +3565,7 @@
         <v>9.90000000000002</v>
       </c>
       <c r="K65" t="n">
-        <v>6.976744186046427</v>
+        <v>15.78947368421033</v>
       </c>
       <c r="L65" t="n">
         <v>20.89</v>
@@ -3594,7 +3616,7 @@
         <v>9.90000000000002</v>
       </c>
       <c r="K66" t="n">
-        <v>12.19512195121949</v>
+        <v>-6.66666666666673</v>
       </c>
       <c r="L66" t="n">
         <v>20.92</v>
@@ -3645,7 +3667,7 @@
         <v>10.00000000000002</v>
       </c>
       <c r="K67" t="n">
-        <v>4.999999999999978</v>
+        <v>-6.666666666666508</v>
       </c>
       <c r="L67" t="n">
         <v>20.9</v>
@@ -3696,7 +3718,7 @@
         <v>10.00000000000002</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>-23.07692307692312</v>
       </c>
       <c r="L68" t="n">
         <v>20.89</v>
@@ -3747,7 +3769,7 @@
         <v>10.00000000000002</v>
       </c>
       <c r="K69" t="n">
-        <v>-5.555555555555528</v>
+        <v>-9.090909090908914</v>
       </c>
       <c r="L69" t="n">
         <v>20.86000000000001</v>
@@ -3798,7 +3820,7 @@
         <v>10.10000000000002</v>
       </c>
       <c r="K70" t="n">
-        <v>9.090909090908992</v>
+        <v>0</v>
       </c>
       <c r="L70" t="n">
         <v>20.86000000000001</v>
@@ -3849,7 +3871,7 @@
         <v>10.20000000000001</v>
       </c>
       <c r="K71" t="n">
-        <v>9.090909090909111</v>
+        <v>20</v>
       </c>
       <c r="L71" t="n">
         <v>20.85</v>
@@ -3900,7 +3922,7 @@
         <v>10.30000000000001</v>
       </c>
       <c r="K72" t="n">
-        <v>9.090909090909111</v>
+        <v>-66.66666666666727</v>
       </c>
       <c r="L72" t="n">
         <v>20.86000000000001</v>
@@ -3951,7 +3973,7 @@
         <v>10.50000000000001</v>
       </c>
       <c r="K73" t="n">
-        <v>6.24999999999998</v>
+        <v>0</v>
       </c>
       <c r="L73" t="n">
         <v>20.84000000000001</v>
@@ -4002,7 +4024,7 @@
         <v>10.60000000000001</v>
       </c>
       <c r="K74" t="n">
-        <v>13.33333333333342</v>
+        <v>-14.28571428571414</v>
       </c>
       <c r="L74" t="n">
         <v>20.83000000000001</v>
@@ -4053,7 +4075,7 @@
         <v>10.70000000000001</v>
       </c>
       <c r="K75" t="n">
-        <v>7.142857142857134</v>
+        <v>0</v>
       </c>
       <c r="L75" t="n">
         <v>20.83000000000001</v>
@@ -4104,7 +4126,7 @@
         <v>10.80000000000001</v>
       </c>
       <c r="K76" t="n">
-        <v>14.28571428571425</v>
+        <v>25.00000000000011</v>
       </c>
       <c r="L76" t="n">
         <v>20.84000000000001</v>
@@ -4155,7 +4177,7 @@
         <v>10.90000000000001</v>
       </c>
       <c r="K77" t="n">
-        <v>4.000000000000057</v>
+        <v>33.3333333333336</v>
       </c>
       <c r="L77" t="n">
         <v>20.87</v>
@@ -4206,7 +4228,7 @@
         <v>11.00000000000001</v>
       </c>
       <c r="K78" t="n">
-        <v>4.000000000000057</v>
+        <v>20</v>
       </c>
       <c r="L78" t="n">
         <v>20.89</v>
@@ -4257,7 +4279,7 @@
         <v>11.10000000000002</v>
       </c>
       <c r="K79" t="n">
-        <v>-8.333333333333456</v>
+        <v>0</v>
       </c>
       <c r="L79" t="n">
         <v>20.9</v>
@@ -4308,7 +4330,7 @@
         <v>11.10000000000002</v>
       </c>
       <c r="K80" t="n">
-        <v>0</v>
+        <v>11.11111111111085</v>
       </c>
       <c r="L80" t="n">
         <v>20.9</v>
@@ -4359,7 +4381,7 @@
         <v>11.10000000000002</v>
       </c>
       <c r="K81" t="n">
-        <v>0</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L81" t="n">
         <v>20.91</v>
@@ -4410,7 +4432,7 @@
         <v>11.30000000000002</v>
       </c>
       <c r="K82" t="n">
-        <v>23.8095238095238</v>
+        <v>25.00000000000022</v>
       </c>
       <c r="L82" t="n">
         <v>20.95</v>
@@ -4461,7 +4483,7 @@
         <v>11.50000000000002</v>
       </c>
       <c r="K83" t="n">
-        <v>-11.11111111111124</v>
+        <v>11.11111111111076</v>
       </c>
       <c r="L83" t="n">
         <v>20.95</v>
@@ -4512,7 +4534,7 @@
         <v>11.70000000000002</v>
       </c>
       <c r="K84" t="n">
-        <v>11.11111111111124</v>
+        <v>20</v>
       </c>
       <c r="L84" t="n">
         <v>20.98</v>
@@ -4563,7 +4585,7 @@
         <v>11.80000000000003</v>
       </c>
       <c r="K85" t="n">
-        <v>5.263157894736901</v>
+        <v>0</v>
       </c>
       <c r="L85" t="n">
         <v>20.99</v>
@@ -4614,7 +4636,7 @@
         <v>12.10000000000003</v>
       </c>
       <c r="K86" t="n">
-        <v>18.18181818181823</v>
+        <v>16.66666666666642</v>
       </c>
       <c r="L86" t="n">
         <v>21.02</v>
@@ -4665,7 +4687,7 @@
         <v>12.20000000000002</v>
       </c>
       <c r="K87" t="n">
-        <v>27.2727272727271</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L87" t="n">
         <v>21.05</v>
@@ -4716,7 +4738,7 @@
         <v>12.30000000000002</v>
       </c>
       <c r="K88" t="n">
-        <v>21.73913043478257</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L88" t="n">
         <v>21.08000000000001</v>
@@ -4767,7 +4789,7 @@
         <v>12.30000000000002</v>
       </c>
       <c r="K89" t="n">
-        <v>21.73913043478257</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L89" t="n">
         <v>21.12</v>
@@ -4818,7 +4840,7 @@
         <v>12.50000000000002</v>
       </c>
       <c r="K90" t="n">
-        <v>8.333333333333432</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L90" t="n">
         <v>21.14</v>
@@ -4869,7 +4891,7 @@
         <v>12.60000000000002</v>
       </c>
       <c r="K91" t="n">
-        <v>16.66666666666657</v>
+        <v>7.692307692307525</v>
       </c>
       <c r="L91" t="n">
         <v>21.17</v>
@@ -4920,7 +4942,7 @@
         <v>12.80000000000002</v>
       </c>
       <c r="K92" t="n">
-        <v>27.99999999999993</v>
+        <v>38.46153846153855</v>
       </c>
       <c r="L92" t="n">
         <v>21.2</v>
@@ -4971,7 +4993,7 @@
         <v>12.80000000000002</v>
       </c>
       <c r="K93" t="n">
-        <v>21.73913043478257</v>
+        <v>27.27272727272715</v>
       </c>
       <c r="L93" t="n">
         <v>21.25</v>
@@ -5022,7 +5044,7 @@
         <v>12.80000000000002</v>
       </c>
       <c r="K94" t="n">
-        <v>27.2727272727271</v>
+        <v>40.00000000000014</v>
       </c>
       <c r="L94" t="n">
         <v>21.28</v>
@@ -5073,7 +5095,7 @@
         <v>12.80000000000002</v>
       </c>
       <c r="K95" t="n">
-        <v>23.80952380952371</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L95" t="n">
         <v>21.32</v>
@@ -5124,7 +5146,7 @@
         <v>12.80000000000002</v>
       </c>
       <c r="K96" t="n">
-        <v>19.99999999999986</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
         <v>21.33000000000001</v>
@@ -5175,7 +5197,7 @@
         <v>13.10000000000002</v>
       </c>
       <c r="K97" t="n">
-        <v>0</v>
+        <v>-25.00000000000011</v>
       </c>
       <c r="L97" t="n">
         <v>21.3</v>
@@ -5226,7 +5248,7 @@
         <v>13.20000000000002</v>
       </c>
       <c r="K98" t="n">
-        <v>0</v>
+        <v>-33.3333333333336</v>
       </c>
       <c r="L98" t="n">
         <v>21.27</v>
@@ -5277,7 +5299,7 @@
         <v>13.20000000000002</v>
       </c>
       <c r="K99" t="n">
-        <v>4.761904761904826</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L99" t="n">
         <v>21.24</v>
@@ -5328,7 +5350,7 @@
         <v>13.30000000000002</v>
       </c>
       <c r="K100" t="n">
-        <v>9.090909090909207</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="L100" t="n">
         <v>21.24</v>
@@ -5379,7 +5401,7 @@
         <v>13.30000000000002</v>
       </c>
       <c r="K101" t="n">
-        <v>9.090909090909207</v>
+        <v>-59.99999999999943</v>
       </c>
       <c r="L101" t="n">
         <v>21.23</v>
@@ -5430,7 +5452,7 @@
         <v>13.30000000000002</v>
       </c>
       <c r="K102" t="n">
-        <v>0</v>
+        <v>-59.99999999999943</v>
       </c>
       <c r="L102" t="n">
         <v>21.2</v>
@@ -5481,7 +5503,7 @@
         <v>13.30000000000002</v>
       </c>
       <c r="K103" t="n">
-        <v>11.11111111111129</v>
+        <v>-59.99999999999943</v>
       </c>
       <c r="L103" t="n">
         <v>21.17</v>
@@ -5532,7 +5554,7 @@
         <v>13.30000000000002</v>
       </c>
       <c r="K104" t="n">
-        <v>0</v>
+        <v>-59.99999999999943</v>
       </c>
       <c r="L104" t="n">
         <v>21.14</v>
@@ -5583,7 +5605,7 @@
         <v>13.30000000000002</v>
       </c>
       <c r="K105" t="n">
-        <v>6.666666666666793</v>
+        <v>-59.99999999999943</v>
       </c>
       <c r="L105" t="n">
         <v>21.11</v>
@@ -5634,7 +5656,7 @@
         <v>13.50000000000002</v>
       </c>
       <c r="K106" t="n">
-        <v>0</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L106" t="n">
         <v>21.1</v>
@@ -5685,7 +5707,7 @@
         <v>13.50000000000002</v>
       </c>
       <c r="K107" t="n">
-        <v>-7.692307692307566</v>
+        <v>100</v>
       </c>
       <c r="L107" t="n">
         <v>21.12</v>
@@ -5736,7 +5758,7 @@
         <v>13.50000000000002</v>
       </c>
       <c r="K108" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L108" t="n">
         <v>21.15</v>
@@ -5787,7 +5809,7 @@
         <v>13.60000000000002</v>
       </c>
       <c r="K109" t="n">
-        <v>-7.692307692307819</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L109" t="n">
         <v>21.17</v>
@@ -5838,7 +5860,7 @@
         <v>13.60000000000002</v>
       </c>
       <c r="K110" t="n">
-        <v>9.090909090908914</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L110" t="n">
         <v>21.18</v>
@@ -5889,7 +5911,7 @@
         <v>13.70000000000002</v>
       </c>
       <c r="K111" t="n">
-        <v>9.090909090909207</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L111" t="n">
         <v>21.2</v>
@@ -5940,7 +5962,7 @@
         <v>13.70000000000002</v>
       </c>
       <c r="K112" t="n">
-        <v>-11.11111111111085</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L112" t="n">
         <v>21.22</v>
@@ -5991,7 +6013,7 @@
         <v>14.00000000000002</v>
       </c>
       <c r="K113" t="n">
-        <v>-33.33333333333314</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L113" t="n">
         <v>21.21</v>
@@ -6042,7 +6064,7 @@
         <v>14.10000000000002</v>
       </c>
       <c r="K114" t="n">
-        <v>-23.07692307692279</v>
+        <v>0</v>
       </c>
       <c r="L114" t="n">
         <v>21.21</v>
@@ -6093,7 +6115,7 @@
         <v>14.20000000000002</v>
       </c>
       <c r="K115" t="n">
-        <v>-28.57142857142835</v>
+        <v>-42.85714285714256</v>
       </c>
       <c r="L115" t="n">
         <v>21.2</v>
@@ -6144,7 +6166,7 @@
         <v>14.30000000000003</v>
       </c>
       <c r="K116" t="n">
-        <v>-19.99999999999972</v>
+        <v>-24.99999999999967</v>
       </c>
       <c r="L116" t="n">
         <v>21.18</v>
@@ -6195,7 +6217,7 @@
         <v>14.30000000000003</v>
       </c>
       <c r="K117" t="n">
-        <v>0</v>
+        <v>-24.99999999999967</v>
       </c>
       <c r="L117" t="n">
         <v>21.16</v>
@@ -6246,7 +6268,7 @@
         <v>14.40000000000003</v>
       </c>
       <c r="K118" t="n">
-        <v>0</v>
+        <v>-24.99999999999967</v>
       </c>
       <c r="L118" t="n">
         <v>21.13</v>
@@ -6297,7 +6319,7 @@
         <v>14.70000000000003</v>
       </c>
       <c r="K119" t="n">
-        <v>19.9999999999999</v>
+        <v>9.09090909090915</v>
       </c>
       <c r="L119" t="n">
         <v>21.14</v>
@@ -6348,7 +6370,7 @@
         <v>14.80000000000003</v>
       </c>
       <c r="K120" t="n">
-        <v>6.666666666666478</v>
+        <v>-9.09090909090915</v>
       </c>
       <c r="L120" t="n">
         <v>21.14</v>
@@ -6399,7 +6421,7 @@
         <v>14.90000000000003</v>
       </c>
       <c r="K121" t="n">
-        <v>0</v>
+        <v>-16.66666666666652</v>
       </c>
       <c r="L121" t="n">
         <v>21.12</v>
@@ -6450,7 +6472,7 @@
         <v>15.10000000000003</v>
       </c>
       <c r="K122" t="n">
-        <v>11.11111111111102</v>
+        <v>27.27272727272722</v>
       </c>
       <c r="L122" t="n">
         <v>21.12</v>
@@ -6552,7 +6574,7 @@
         <v>15.50000000000003</v>
       </c>
       <c r="K124" t="n">
-        <v>-9.090909090909179</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="L124" t="n">
         <v>21.11</v>
@@ -6603,7 +6625,7 @@
         <v>15.50000000000003</v>
       </c>
       <c r="K125" t="n">
-        <v>-9.090909090909179</v>
+        <v>-16.66666666666686</v>
       </c>
       <c r="L125" t="n">
         <v>21.1</v>
@@ -6654,7 +6676,7 @@
         <v>15.50000000000003</v>
       </c>
       <c r="K126" t="n">
-        <v>-20</v>
+        <v>-16.66666666666686</v>
       </c>
       <c r="L126" t="n">
         <v>21.08</v>
@@ -6705,7 +6727,7 @@
         <v>15.90000000000003</v>
       </c>
       <c r="K127" t="n">
-        <v>-33.33333333333324</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L127" t="n">
         <v>21.02</v>
@@ -6756,7 +6778,7 @@
         <v>16.30000000000003</v>
       </c>
       <c r="K128" t="n">
-        <v>-14.28571428571432</v>
+        <v>-25.00000000000017</v>
       </c>
       <c r="L128" t="n">
         <v>21.01</v>
@@ -6807,7 +6829,7 @@
         <v>16.30000000000003</v>
       </c>
       <c r="K129" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20.0000000000001</v>
       </c>
       <c r="L129" t="n">
         <v>20.97</v>
@@ -6858,7 +6880,7 @@
         <v>16.40000000000002</v>
       </c>
       <c r="K130" t="n">
-        <v>-14.28571428571421</v>
+        <v>-20.0000000000001</v>
       </c>
       <c r="L130" t="n">
         <v>20.93</v>
@@ -6909,7 +6931,7 @@
         <v>16.40000000000002</v>
       </c>
       <c r="K131" t="n">
-        <v>-18.5185185185185</v>
+        <v>-38.46153846153855</v>
       </c>
       <c r="L131" t="n">
         <v>20.90000000000001</v>
@@ -6960,7 +6982,7 @@
         <v>16.40000000000002</v>
       </c>
       <c r="K132" t="n">
-        <v>-18.5185185185185</v>
+        <v>-27.27272727272739</v>
       </c>
       <c r="L132" t="n">
         <v>20.85</v>
@@ -7011,7 +7033,7 @@
         <v>16.60000000000002</v>
       </c>
       <c r="K133" t="n">
-        <v>-15.38461538461532</v>
+        <v>-27.27272727272715</v>
       </c>
       <c r="L133" t="n">
         <v>20.8</v>
@@ -7062,7 +7084,7 @@
         <v>16.80000000000002</v>
       </c>
       <c r="K134" t="n">
-        <v>-11.11111111111114</v>
+        <v>-7.692307692307566</v>
       </c>
       <c r="L134" t="n">
         <v>20.79000000000001</v>
@@ -7113,7 +7135,7 @@
         <v>16.90000000000002</v>
       </c>
       <c r="K135" t="n">
-        <v>-11.11111111111114</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L135" t="n">
         <v>20.77</v>
@@ -7164,7 +7186,7 @@
         <v>17.10000000000002</v>
       </c>
       <c r="K136" t="n">
-        <v>-21.4285714285715</v>
+        <v>0</v>
       </c>
       <c r="L136" t="n">
         <v>20.73</v>
@@ -7215,7 +7237,7 @@
         <v>17.40000000000002</v>
       </c>
       <c r="K137" t="n">
-        <v>-9.67741935483874</v>
+        <v>-9.090909090908914</v>
       </c>
       <c r="L137" t="n">
         <v>20.76000000000001</v>
@@ -7266,7 +7288,7 @@
         <v>17.70000000000002</v>
       </c>
       <c r="K138" t="n">
-        <v>-15.15151515151517</v>
+        <v>-28.5714285714285</v>
       </c>
       <c r="L138" t="n">
         <v>20.72000000000001</v>
@@ -7317,7 +7339,7 @@
         <v>18.00000000000002</v>
       </c>
       <c r="K139" t="n">
-        <v>-15.15151515151517</v>
+        <v>0</v>
       </c>
       <c r="L139" t="n">
         <v>20.71</v>
@@ -7368,7 +7390,7 @@
         <v>18.00000000000002</v>
       </c>
       <c r="K140" t="n">
-        <v>-12.49999999999997</v>
+        <v>0</v>
       </c>
       <c r="L140" t="n">
         <v>20.71</v>
@@ -7419,7 +7441,7 @@
         <v>18.20000000000002</v>
       </c>
       <c r="K141" t="n">
-        <v>-15.15151515151517</v>
+        <v>-11.11111111111107</v>
       </c>
       <c r="L141" t="n">
         <v>20.69</v>
@@ -7470,7 +7492,7 @@
         <v>18.20000000000002</v>
       </c>
       <c r="K142" t="n">
-        <v>-22.58064516129032</v>
+        <v>0</v>
       </c>
       <c r="L142" t="n">
         <v>20.67</v>
@@ -7521,7 +7543,7 @@
         <v>18.40000000000002</v>
       </c>
       <c r="K143" t="n">
-        <v>-9.67741935483874</v>
+        <v>0</v>
       </c>
       <c r="L143" t="n">
         <v>20.69</v>
@@ -7572,7 +7594,7 @@
         <v>18.70000000000002</v>
       </c>
       <c r="K144" t="n">
-        <v>-12.49999999999997</v>
+        <v>-11.11111111111107</v>
       </c>
       <c r="L144" t="n">
         <v>20.66</v>
@@ -7623,7 +7645,7 @@
         <v>18.80000000000003</v>
       </c>
       <c r="K145" t="n">
-        <v>-15.15151515151517</v>
+        <v>-5.882352941176544</v>
       </c>
       <c r="L145" t="n">
         <v>20.63</v>
@@ -7674,7 +7696,7 @@
         <v>18.80000000000003</v>
       </c>
       <c r="K146" t="n">
-        <v>-15.15151515151517</v>
+        <v>-28.57142857142868</v>
       </c>
       <c r="L146" t="n">
         <v>20.62</v>
@@ -7725,7 +7747,7 @@
         <v>18.80000000000003</v>
       </c>
       <c r="K147" t="n">
-        <v>-3.448275862069016</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L147" t="n">
         <v>20.58000000000001</v>
@@ -7776,7 +7798,7 @@
         <v>18.80000000000003</v>
       </c>
       <c r="K148" t="n">
-        <v>-20</v>
+        <v>-50.00000000000022</v>
       </c>
       <c r="L148" t="n">
         <v>20.57</v>
@@ -7827,7 +7849,7 @@
         <v>19.10000000000003</v>
       </c>
       <c r="K149" t="n">
-        <v>-7.142857142857116</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L149" t="n">
         <v>20.56</v>
@@ -7878,7 +7900,7 @@
         <v>19.10000000000003</v>
       </c>
       <c r="K150" t="n">
-        <v>-3.703703703703753</v>
+        <v>11.11111111111085</v>
       </c>
       <c r="L150" t="n">
         <v>20.55</v>
@@ -7929,7 +7951,7 @@
         <v>19.40000000000003</v>
       </c>
       <c r="K151" t="n">
-        <v>-13.33333333333339</v>
+        <v>-16.66666666666686</v>
       </c>
       <c r="L151" t="n">
         <v>20.53</v>

--- a/BackTest/2019-10-17 BackTest CMT.xlsx
+++ b/BackTest/2019-10-17 BackTest CMT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S151"/>
+  <dimension ref="A1:M130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>closegap_abs_cumsum</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MA5</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BuyPrice</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>bprelay</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -483,17 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -523,20 +489,12 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.1999999999999993</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -568,18 +526,10 @@
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0.3999999999999986</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -609,20 +559,12 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -652,20 +594,12 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -695,20 +629,12 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -735,23 +661,21 @@
         <v>20.80166666666667</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.09999999999999787</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6999999999999993</v>
+        <v>20.5</v>
       </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -778,23 +702,21 @@
         <v>20.795</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2000000000000028</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>20.5</v>
       </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -821,23 +743,21 @@
         <v>20.78833333333334</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2000000000000028</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>20.4</v>
       </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -864,25 +784,21 @@
         <v>20.78833333333334</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0.09999999999999787</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1.300000000000001</v>
+        <v>20.7</v>
       </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>20.57</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -909,27 +825,21 @@
         <v>20.785</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1000000000000014</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="K12" t="n">
-        <v>-23.07692307692312</v>
-      </c>
-      <c r="L12" t="n">
-        <v>20.56</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -956,27 +866,21 @@
         <v>20.78666666666667</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.800000000000001</v>
-      </c>
-      <c r="K13" t="n">
-        <v>14.28571428571421</v>
-      </c>
-      <c r="L13" t="n">
-        <v>20.56</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1003,27 +907,21 @@
         <v>20.78666666666667</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2999999999999972</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1.899999999999999</v>
-      </c>
-      <c r="K14" t="n">
-        <v>28.5714285714285</v>
-      </c>
-      <c r="L14" t="n">
-        <v>20.59</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1050,27 +948,21 @@
         <v>20.78333333333333</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.999999999999996</v>
-      </c>
-      <c r="K15" t="n">
-        <v>20.0000000000001</v>
-      </c>
-      <c r="L15" t="n">
-        <v>20.62</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1100,24 +992,16 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2.299999999999997</v>
-      </c>
-      <c r="K16" t="n">
-        <v>33.33333333333346</v>
-      </c>
-      <c r="L16" t="n">
-        <v>20.68</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1147,24 +1031,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3999999999999986</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2.399999999999999</v>
-      </c>
-      <c r="K17" t="n">
-        <v>17.64705882352946</v>
-      </c>
-      <c r="L17" t="n">
-        <v>20.73</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1194,24 +1070,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.09999999999999787</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2.699999999999999</v>
-      </c>
-      <c r="K18" t="n">
-        <v>17.64705882352946</v>
-      </c>
-      <c r="L18" t="n">
-        <v>20.73</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1243,22 +1111,14 @@
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>2.799999999999997</v>
-      </c>
-      <c r="K19" t="n">
-        <v>11.11111111111129</v>
-      </c>
-      <c r="L19" t="n">
-        <v>20.75</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,24 +1148,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.2000000000000028</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3</v>
-      </c>
-      <c r="K20" t="n">
-        <v>-17.64705882352946</v>
-      </c>
-      <c r="L20" t="n">
-        <v>20.75</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1335,26 +1187,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3999999999999986</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3.600000000000001</v>
-      </c>
-      <c r="K21" t="n">
-        <v>23.8095238095238</v>
-      </c>
-      <c r="L21" t="n">
-        <v>20.78</v>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M21" t="n">
-        <v>20.675</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1384,26 +1226,16 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3.700000000000003</v>
-      </c>
-      <c r="K22" t="n">
-        <v>15.78947368421055</v>
-      </c>
-      <c r="L22" t="n">
-        <v>20.84</v>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M22" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1433,26 +1265,16 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J23" t="n">
-        <v>4.000000000000004</v>
-      </c>
-      <c r="K23" t="n">
-        <v>-4.761904761904649</v>
-      </c>
-      <c r="L23" t="n">
-        <v>20.84</v>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M23" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1482,26 +1304,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.09999999999999787</v>
-      </c>
-      <c r="J24" t="n">
-        <v>4.100000000000005</v>
-      </c>
-      <c r="K24" t="n">
-        <v>-4.76190476190481</v>
-      </c>
-      <c r="L24" t="n">
-        <v>20.82</v>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M24" t="n">
-        <v>20.705</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1531,26 +1343,16 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.09999999999999787</v>
-      </c>
-      <c r="J25" t="n">
-        <v>4.100000000000005</v>
-      </c>
-      <c r="K25" t="n">
-        <v>-22.22222222222224</v>
-      </c>
-      <c r="L25" t="n">
-        <v>20.81</v>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M25" t="n">
-        <v>20.715</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1580,26 +1382,16 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J26" t="n">
-        <v>4.500000000000007</v>
-      </c>
-      <c r="K26" t="n">
-        <v>4.76190476190481</v>
-      </c>
-      <c r="L26" t="n">
-        <v>20.81</v>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M26" t="n">
-        <v>20.745</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1629,26 +1421,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J27" t="n">
-        <v>4.500000000000007</v>
-      </c>
-      <c r="K27" t="n">
-        <v>22.22222222222224</v>
-      </c>
-      <c r="L27" t="n">
-        <v>20.82</v>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M27" t="n">
-        <v>20.775</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1678,26 +1460,16 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.5999999999999979</v>
-      </c>
-      <c r="J28" t="n">
-        <v>4.600000000000005</v>
-      </c>
-      <c r="K28" t="n">
-        <v>33.33333333333307</v>
-      </c>
-      <c r="L28" t="n">
-        <v>20.87</v>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M28" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1727,26 +1499,16 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.09999999999999787</v>
-      </c>
-      <c r="J29" t="n">
-        <v>5.100000000000005</v>
-      </c>
-      <c r="K29" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L29" t="n">
-        <v>20.88</v>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M29" t="n">
-        <v>20.815</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1776,26 +1538,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.09999999999999787</v>
-      </c>
-      <c r="J30" t="n">
-        <v>5.100000000000005</v>
-      </c>
-      <c r="K30" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L30" t="n">
-        <v>20.90999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M30" t="n">
-        <v>20.83</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1825,28 +1577,16 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J31" t="n">
-        <v>5.200000000000006</v>
-      </c>
-      <c r="K31" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L31" t="n">
-        <v>20.88999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M31" t="n">
-        <v>20.835</v>
-      </c>
-      <c r="N31" t="n">
-        <v>20.74666666666667</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1876,28 +1616,16 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.09999999999999787</v>
-      </c>
-      <c r="J32" t="n">
-        <v>5.300000000000008</v>
-      </c>
-      <c r="K32" t="n">
-        <v>-7.692307692307776</v>
-      </c>
-      <c r="L32" t="n">
-        <v>20.84999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M32" t="n">
-        <v>20.845</v>
-      </c>
-      <c r="N32" t="n">
-        <v>20.75</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1927,28 +1655,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J33" t="n">
-        <v>5.400000000000009</v>
-      </c>
-      <c r="K33" t="n">
-        <v>7.692307692307776</v>
-      </c>
-      <c r="L33" t="n">
-        <v>20.84999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M33" t="n">
-        <v>20.845</v>
-      </c>
-      <c r="N33" t="n">
-        <v>20.75</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1978,28 +1694,16 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J34" t="n">
-        <v>5.400000000000009</v>
-      </c>
-      <c r="K34" t="n">
-        <v>7.692307692307776</v>
-      </c>
-      <c r="L34" t="n">
-        <v>20.86</v>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M34" t="n">
-        <v>20.84</v>
-      </c>
-      <c r="N34" t="n">
-        <v>20.75666666666667</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2029,28 +1733,16 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J35" t="n">
-        <v>5.400000000000009</v>
-      </c>
-      <c r="K35" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L35" t="n">
-        <v>20.87</v>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M35" t="n">
-        <v>20.84</v>
-      </c>
-      <c r="N35" t="n">
-        <v>20.76666666666667</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2080,28 +1772,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J36" t="n">
-        <v>5.400000000000009</v>
-      </c>
-      <c r="K36" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L36" t="n">
-        <v>20.84</v>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M36" t="n">
-        <v>20.825</v>
-      </c>
-      <c r="N36" t="n">
-        <v>20.77666666666666</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2131,28 +1811,16 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J37" t="n">
-        <v>5.400000000000009</v>
-      </c>
-      <c r="K37" t="n">
-        <v>-49.99999999999956</v>
-      </c>
-      <c r="L37" t="n">
-        <v>20.81</v>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M37" t="n">
-        <v>20.815</v>
-      </c>
-      <c r="N37" t="n">
-        <v>20.78666666666667</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2182,28 +1850,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J38" t="n">
-        <v>5.400000000000009</v>
-      </c>
-      <c r="K38" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L38" t="n">
-        <v>20.77</v>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M38" t="n">
-        <v>20.82</v>
-      </c>
-      <c r="N38" t="n">
-        <v>20.79</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,28 +1889,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.09999999999999787</v>
-      </c>
-      <c r="J39" t="n">
-        <v>5.500000000000011</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>20.77</v>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M39" t="n">
-        <v>20.825</v>
-      </c>
-      <c r="N39" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2286,26 +1930,14 @@
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>5.600000000000009</v>
-      </c>
-      <c r="K40" t="n">
-        <v>-49.99999999999956</v>
-      </c>
-      <c r="L40" t="n">
-        <v>20.76000000000001</v>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M40" t="n">
-        <v>20.835</v>
-      </c>
-      <c r="N40" t="n">
-        <v>20.80666666666666</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2337,26 +1969,14 @@
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>5.600000000000009</v>
-      </c>
-      <c r="K41" t="n">
-        <v>-33.33333333333254</v>
-      </c>
-      <c r="L41" t="n">
-        <v>20.74</v>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M41" t="n">
-        <v>20.815</v>
-      </c>
-      <c r="N41" t="n">
-        <v>20.80333333333333</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2388,26 +2008,14 @@
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>5.600000000000009</v>
-      </c>
-      <c r="K42" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L42" t="n">
-        <v>20.73</v>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M42" t="n">
-        <v>20.79000000000001</v>
-      </c>
-      <c r="N42" t="n">
-        <v>20.80666666666666</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2439,26 +2047,14 @@
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>5.600000000000009</v>
-      </c>
-      <c r="K43" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L43" t="n">
-        <v>20.71</v>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M43" t="n">
-        <v>20.78000000000001</v>
-      </c>
-      <c r="N43" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,26 +2086,14 @@
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>5.600000000000009</v>
-      </c>
-      <c r="K44" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L44" t="n">
-        <v>20.69</v>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M44" t="n">
-        <v>20.77500000000001</v>
-      </c>
-      <c r="N44" t="n">
-        <v>20.79</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2541,26 +2125,14 @@
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>5.600000000000009</v>
-      </c>
-      <c r="K45" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L45" t="n">
-        <v>20.67</v>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M45" t="n">
-        <v>20.77000000000001</v>
-      </c>
-      <c r="N45" t="n">
-        <v>20.78333333333334</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2590,28 +2162,16 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>-0.2000000000000028</v>
-      </c>
-      <c r="J46" t="n">
-        <v>5.800000000000011</v>
-      </c>
-      <c r="K46" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L46" t="n">
-        <v>20.63</v>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M46" t="n">
-        <v>20.73500000000001</v>
-      </c>
-      <c r="N46" t="n">
-        <v>20.76</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2638,31 +2198,21 @@
         <v>20.71333333333332</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>6.000000000000014</v>
-      </c>
-      <c r="K47" t="n">
-        <v>-33.33333333333294</v>
-      </c>
-      <c r="L47" t="n">
-        <v>20.61</v>
+        <v>20.6</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M47" t="n">
-        <v>20.71000000000001</v>
-      </c>
-      <c r="N47" t="n">
-        <v>20.74666666666667</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2689,31 +2239,21 @@
         <v>20.71666666666665</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>6.200000000000014</v>
-      </c>
-      <c r="K48" t="n">
-        <v>14.28571428571443</v>
-      </c>
-      <c r="L48" t="n">
-        <v>20.61</v>
+        <v>20.8</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M48" t="n">
-        <v>20.69000000000001</v>
-      </c>
-      <c r="N48" t="n">
-        <v>20.75</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2740,31 +2280,21 @@
         <v>20.72333333333332</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>0.3999999999999986</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>6.400000000000013</v>
-      </c>
-      <c r="K49" t="n">
-        <v>49.99999999999956</v>
-      </c>
-      <c r="L49" t="n">
-        <v>20.64</v>
+        <v>20.8</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M49" t="n">
-        <v>20.70500000000001</v>
-      </c>
-      <c r="N49" t="n">
-        <v>20.76333333333333</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2796,26 +2326,14 @@
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>6.800000000000011</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0</v>
-      </c>
-      <c r="L50" t="n">
-        <v>20.64</v>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M50" t="n">
-        <v>20.70000000000001</v>
-      </c>
-      <c r="N50" t="n">
-        <v>20.77</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2845,28 +2363,16 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J51" t="n">
-        <v>6.900000000000013</v>
-      </c>
-      <c r="K51" t="n">
-        <v>-7.692307692307776</v>
-      </c>
-      <c r="L51" t="n">
-        <v>20.63</v>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M51" t="n">
-        <v>20.68500000000001</v>
-      </c>
-      <c r="N51" t="n">
-        <v>20.75333333333333</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2896,28 +2402,16 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>-0.2000000000000028</v>
-      </c>
-      <c r="J52" t="n">
-        <v>7.000000000000014</v>
-      </c>
-      <c r="K52" t="n">
-        <v>-14.28571428571443</v>
-      </c>
-      <c r="L52" t="n">
-        <v>20.61</v>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M52" t="n">
-        <v>20.67000000000001</v>
-      </c>
-      <c r="N52" t="n">
-        <v>20.73</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2944,31 +2438,21 @@
         <v>20.70999999999999</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>0.09999999999999787</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>7.300000000000015</v>
-      </c>
-      <c r="K53" t="n">
-        <v>5.882352941176324</v>
-      </c>
-      <c r="L53" t="n">
-        <v>20.62</v>
+        <v>20.7</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M53" t="n">
-        <v>20.66500000000001</v>
-      </c>
-      <c r="N53" t="n">
-        <v>20.72666666666667</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2995,31 +2479,21 @@
         <v>20.70499999999999</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>-0.2000000000000028</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>7.600000000000016</v>
-      </c>
-      <c r="K54" t="n">
-        <v>-10.00000000000011</v>
-      </c>
-      <c r="L54" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M54" t="n">
-        <v>20.64500000000001</v>
-      </c>
-      <c r="N54" t="n">
-        <v>20.71666666666667</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3046,31 +2520,21 @@
         <v>20.70499999999999</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>0.09999999999999787</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>7.900000000000016</v>
-      </c>
-      <c r="K55" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L55" t="n">
-        <v>20.61</v>
+        <v>20.7</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M55" t="n">
-        <v>20.64000000000001</v>
-      </c>
-      <c r="N55" t="n">
-        <v>20.71666666666667</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3097,31 +2561,21 @@
         <v>20.70333333333332</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>8.000000000000014</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0</v>
-      </c>
-      <c r="L56" t="n">
-        <v>20.63</v>
+        <v>20.6</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M56" t="n">
-        <v>20.63000000000001</v>
-      </c>
-      <c r="N56" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3148,31 +2602,21 @@
         <v>20.70833333333332</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>0.3999999999999986</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>8.400000000000013</v>
-      </c>
-      <c r="K57" t="n">
-        <v>9.090909090909062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>20.67</v>
+        <v>20.6</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M57" t="n">
-        <v>20.64000000000001</v>
-      </c>
-      <c r="N57" t="n">
-        <v>20.69666666666667</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3199,31 +2643,21 @@
         <v>20.71166666666666</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>0.2999999999999972</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>8.500000000000014</v>
-      </c>
-      <c r="K58" t="n">
-        <v>-4.761904761904826</v>
-      </c>
-      <c r="L58" t="n">
-        <v>20.68</v>
+        <v>21</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M58" t="n">
-        <v>20.645</v>
-      </c>
-      <c r="N58" t="n">
-        <v>20.68666666666666</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3253,28 +2687,16 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J59" t="n">
-        <v>8.700000000000017</v>
-      </c>
-      <c r="K59" t="n">
-        <v>26.31578947368413</v>
-      </c>
-      <c r="L59" t="n">
-        <v>20.69</v>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M59" t="n">
-        <v>20.66500000000001</v>
-      </c>
-      <c r="N59" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3304,28 +2726,16 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0.2999999999999972</v>
-      </c>
-      <c r="J60" t="n">
-        <v>8.90000000000002</v>
-      </c>
-      <c r="K60" t="n">
-        <v>19.99999999999986</v>
-      </c>
-      <c r="L60" t="n">
-        <v>20.72</v>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M60" t="n">
-        <v>20.68</v>
-      </c>
-      <c r="N60" t="n">
-        <v>20.70666666666666</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3355,28 +2765,16 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0.2999999999999972</v>
-      </c>
-      <c r="J61" t="n">
-        <v>8.90000000000002</v>
-      </c>
-      <c r="K61" t="n">
-        <v>26.31578947368413</v>
-      </c>
-      <c r="L61" t="n">
-        <v>20.76</v>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M61" t="n">
-        <v>20.695</v>
-      </c>
-      <c r="N61" t="n">
-        <v>20.70999999999999</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3408,26 +2806,14 @@
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>9.200000000000017</v>
-      </c>
-      <c r="K62" t="n">
-        <v>-5.263157894736723</v>
-      </c>
-      <c r="L62" t="n">
-        <v>20.78</v>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M62" t="n">
-        <v>20.695</v>
-      </c>
-      <c r="N62" t="n">
-        <v>20.70666666666666</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3457,30 +2843,16 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J63" t="n">
-        <v>9.700000000000017</v>
-      </c>
-      <c r="K63" t="n">
-        <v>33.33333333333345</v>
-      </c>
-      <c r="L63" t="n">
-        <v>20.82</v>
-      </c>
-      <c r="M63" t="n">
-        <v>20.72</v>
-      </c>
-      <c r="N63" t="n">
-        <v>20.71666666666666</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3508,28 +2880,12 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0.2999999999999972</v>
-      </c>
-      <c r="J64" t="n">
-        <v>9.90000000000002</v>
-      </c>
-      <c r="K64" t="n">
-        <v>9.999999999999947</v>
-      </c>
-      <c r="L64" t="n">
-        <v>20.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
-        <v>20.735</v>
-      </c>
-      <c r="N64" t="n">
-        <v>20.72</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3559,28 +2915,12 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0.2999999999999972</v>
-      </c>
-      <c r="J65" t="n">
-        <v>9.90000000000002</v>
-      </c>
-      <c r="K65" t="n">
-        <v>15.78947368421033</v>
-      </c>
-      <c r="L65" t="n">
-        <v>20.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
-        <v>20.75</v>
-      </c>
-      <c r="N65" t="n">
-        <v>20.72333333333333</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3610,28 +2950,12 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0.2999999999999972</v>
-      </c>
-      <c r="J66" t="n">
-        <v>9.90000000000002</v>
-      </c>
-      <c r="K66" t="n">
-        <v>-6.66666666666673</v>
-      </c>
-      <c r="L66" t="n">
-        <v>20.92</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
-        <v>20.775</v>
-      </c>
-      <c r="N66" t="n">
-        <v>20.72666666666667</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3661,28 +2985,12 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J67" t="n">
-        <v>10.00000000000002</v>
-      </c>
-      <c r="K67" t="n">
-        <v>-6.666666666666508</v>
-      </c>
-      <c r="L67" t="n">
-        <v>20.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
-        <v>20.785</v>
-      </c>
-      <c r="N67" t="n">
-        <v>20.72666666666667</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3712,28 +3020,12 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J68" t="n">
-        <v>10.00000000000002</v>
-      </c>
-      <c r="K68" t="n">
-        <v>-23.07692307692312</v>
-      </c>
-      <c r="L68" t="n">
-        <v>20.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
-        <v>20.785</v>
-      </c>
-      <c r="N68" t="n">
-        <v>20.72666666666667</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3763,28 +3055,12 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J69" t="n">
-        <v>10.00000000000002</v>
-      </c>
-      <c r="K69" t="n">
-        <v>-9.090909090908914</v>
-      </c>
-      <c r="L69" t="n">
-        <v>20.86000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
-        <v>20.775</v>
-      </c>
-      <c r="N69" t="n">
-        <v>20.73</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3814,28 +3090,12 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0.2999999999999972</v>
-      </c>
-      <c r="J70" t="n">
-        <v>10.10000000000002</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0</v>
-      </c>
-      <c r="L70" t="n">
-        <v>20.86000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
-        <v>20.79</v>
-      </c>
-      <c r="N70" t="n">
-        <v>20.73999999999999</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3865,28 +3125,12 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J71" t="n">
-        <v>10.20000000000001</v>
-      </c>
-      <c r="K71" t="n">
-        <v>20</v>
-      </c>
-      <c r="L71" t="n">
-        <v>20.85</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
-        <v>20.805</v>
-      </c>
-      <c r="N71" t="n">
-        <v>20.74666666666666</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3916,28 +3160,12 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0.09999999999999787</v>
-      </c>
-      <c r="J72" t="n">
-        <v>10.30000000000001</v>
-      </c>
-      <c r="K72" t="n">
-        <v>-66.66666666666727</v>
-      </c>
-      <c r="L72" t="n">
-        <v>20.86000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
-        <v>20.82</v>
-      </c>
-      <c r="N72" t="n">
-        <v>20.74999999999999</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3967,28 +3195,12 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0.2999999999999972</v>
-      </c>
-      <c r="J73" t="n">
-        <v>10.50000000000001</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0</v>
-      </c>
-      <c r="L73" t="n">
-        <v>20.84000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
-        <v>20.82999999999999</v>
-      </c>
-      <c r="N73" t="n">
-        <v>20.75999999999999</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,28 +3230,12 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J74" t="n">
-        <v>10.60000000000001</v>
-      </c>
-      <c r="K74" t="n">
-        <v>-14.28571428571414</v>
-      </c>
-      <c r="L74" t="n">
-        <v>20.83000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
-        <v>20.85</v>
-      </c>
-      <c r="N74" t="n">
-        <v>20.76666666666666</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,28 +3265,12 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0.2999999999999972</v>
-      </c>
-      <c r="J75" t="n">
-        <v>10.70000000000001</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0</v>
-      </c>
-      <c r="L75" t="n">
-        <v>20.83000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
-        <v>20.86</v>
-      </c>
-      <c r="N75" t="n">
-        <v>20.77666666666665</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4120,28 +3300,12 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0.3999999999999986</v>
-      </c>
-      <c r="J76" t="n">
-        <v>10.80000000000001</v>
-      </c>
-      <c r="K76" t="n">
-        <v>25.00000000000011</v>
-      </c>
-      <c r="L76" t="n">
-        <v>20.84000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
-        <v>20.88</v>
-      </c>
-      <c r="N76" t="n">
-        <v>20.79666666666666</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4171,28 +3335,12 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J77" t="n">
-        <v>10.90000000000001</v>
-      </c>
-      <c r="K77" t="n">
-        <v>33.3333333333336</v>
-      </c>
-      <c r="L77" t="n">
-        <v>20.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
-        <v>20.885</v>
-      </c>
-      <c r="N77" t="n">
-        <v>20.81333333333332</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4222,28 +3370,12 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0.3999999999999986</v>
-      </c>
-      <c r="J78" t="n">
-        <v>11.00000000000001</v>
-      </c>
-      <c r="K78" t="n">
-        <v>20</v>
-      </c>
-      <c r="L78" t="n">
-        <v>20.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
-        <v>20.89</v>
-      </c>
-      <c r="N78" t="n">
-        <v>20.81999999999999</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4273,28 +3405,12 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0.2999999999999972</v>
-      </c>
-      <c r="J79" t="n">
-        <v>11.10000000000002</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0</v>
-      </c>
-      <c r="L79" t="n">
-        <v>20.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
-        <v>20.88</v>
-      </c>
-      <c r="N79" t="n">
-        <v>20.81666666666666</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4324,28 +3440,12 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0.2999999999999972</v>
-      </c>
-      <c r="J80" t="n">
-        <v>11.10000000000002</v>
-      </c>
-      <c r="K80" t="n">
-        <v>11.11111111111085</v>
-      </c>
-      <c r="L80" t="n">
-        <v>20.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
-        <v>20.88</v>
-      </c>
-      <c r="N80" t="n">
-        <v>20.82666666666665</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4375,28 +3475,12 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0.2999999999999972</v>
-      </c>
-      <c r="J81" t="n">
-        <v>11.10000000000002</v>
-      </c>
-      <c r="K81" t="n">
-        <v>24.99999999999989</v>
-      </c>
-      <c r="L81" t="n">
-        <v>20.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
-        <v>20.88</v>
-      </c>
-      <c r="N81" t="n">
-        <v>20.83999999999999</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4426,28 +3510,12 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J82" t="n">
-        <v>11.30000000000002</v>
-      </c>
-      <c r="K82" t="n">
-        <v>25.00000000000022</v>
-      </c>
-      <c r="L82" t="n">
-        <v>20.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
-        <v>20.90499999999999</v>
-      </c>
-      <c r="N82" t="n">
-        <v>20.86333333333332</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4477,28 +3545,12 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0.2999999999999972</v>
-      </c>
-      <c r="J83" t="n">
-        <v>11.50000000000002</v>
-      </c>
-      <c r="K83" t="n">
-        <v>11.11111111111076</v>
-      </c>
-      <c r="L83" t="n">
-        <v>20.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
-        <v>20.89499999999999</v>
-      </c>
-      <c r="N83" t="n">
-        <v>20.86999999999999</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4528,28 +3580,12 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J84" t="n">
-        <v>11.70000000000002</v>
-      </c>
-      <c r="K84" t="n">
-        <v>20</v>
-      </c>
-      <c r="L84" t="n">
-        <v>20.98</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
-        <v>20.90499999999999</v>
-      </c>
-      <c r="N84" t="n">
-        <v>20.89333333333332</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4579,28 +3615,12 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0.3999999999999986</v>
-      </c>
-      <c r="J85" t="n">
-        <v>11.80000000000003</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0</v>
-      </c>
-      <c r="L85" t="n">
-        <v>20.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
-        <v>20.91</v>
-      </c>
-      <c r="N85" t="n">
-        <v>20.90333333333332</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4630,28 +3650,12 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0.6999999999999993</v>
-      </c>
-      <c r="J86" t="n">
-        <v>12.10000000000003</v>
-      </c>
-      <c r="K86" t="n">
-        <v>16.66666666666642</v>
-      </c>
-      <c r="L86" t="n">
-        <v>21.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
-        <v>20.93</v>
-      </c>
-      <c r="N86" t="n">
-        <v>20.92666666666665</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4681,28 +3685,12 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0.7999999999999972</v>
-      </c>
-      <c r="J87" t="n">
-        <v>12.20000000000002</v>
-      </c>
-      <c r="K87" t="n">
-        <v>33.33333333333294</v>
-      </c>
-      <c r="L87" t="n">
-        <v>21.05</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
-        <v>20.96</v>
-      </c>
-      <c r="N87" t="n">
-        <v>20.93999999999998</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4732,28 +3720,12 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0.6999999999999993</v>
-      </c>
-      <c r="J88" t="n">
-        <v>12.30000000000002</v>
-      </c>
-      <c r="K88" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L88" t="n">
-        <v>21.08000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
-        <v>20.985</v>
-      </c>
-      <c r="N88" t="n">
-        <v>20.95333333333332</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4783,28 +3755,12 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0.6999999999999993</v>
-      </c>
-      <c r="J89" t="n">
-        <v>12.30000000000002</v>
-      </c>
-      <c r="K89" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L89" t="n">
-        <v>21.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
-        <v>21.01</v>
-      </c>
-      <c r="N89" t="n">
-        <v>20.95999999999998</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4834,28 +3790,12 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J90" t="n">
-        <v>12.50000000000002</v>
-      </c>
-      <c r="K90" t="n">
-        <v>14.28571428571443</v>
-      </c>
-      <c r="L90" t="n">
-        <v>21.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
-        <v>21.02</v>
-      </c>
-      <c r="N90" t="n">
-        <v>20.96666666666665</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4885,28 +3825,12 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0.5999999999999979</v>
-      </c>
-      <c r="J91" t="n">
-        <v>12.60000000000002</v>
-      </c>
-      <c r="K91" t="n">
-        <v>7.692307692307525</v>
-      </c>
-      <c r="L91" t="n">
-        <v>21.17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
-        <v>21.04</v>
-      </c>
-      <c r="N91" t="n">
-        <v>20.97666666666665</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4936,28 +3860,12 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0.7999999999999972</v>
-      </c>
-      <c r="J92" t="n">
-        <v>12.80000000000002</v>
-      </c>
-      <c r="K92" t="n">
-        <v>38.46153846153855</v>
-      </c>
-      <c r="L92" t="n">
-        <v>21.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
-        <v>21.075</v>
-      </c>
-      <c r="N92" t="n">
-        <v>21.00333333333332</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4987,28 +3895,12 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0.7999999999999972</v>
-      </c>
-      <c r="J93" t="n">
-        <v>12.80000000000002</v>
-      </c>
-      <c r="K93" t="n">
-        <v>27.27272727272715</v>
-      </c>
-      <c r="L93" t="n">
-        <v>21.25</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="N93" t="n">
-        <v>21.01333333333331</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5038,28 +3930,12 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0.7999999999999972</v>
-      </c>
-      <c r="J94" t="n">
-        <v>12.80000000000002</v>
-      </c>
-      <c r="K94" t="n">
-        <v>40.00000000000014</v>
-      </c>
-      <c r="L94" t="n">
-        <v>21.28</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="N94" t="n">
-        <v>21.02999999999998</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5089,28 +3965,12 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0.7999999999999972</v>
-      </c>
-      <c r="J95" t="n">
-        <v>12.80000000000002</v>
-      </c>
-      <c r="K95" t="n">
-        <v>14.28571428571414</v>
-      </c>
-      <c r="L95" t="n">
-        <v>21.32</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
-        <v>21.15499999999999</v>
-      </c>
-      <c r="N95" t="n">
-        <v>21.04666666666665</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5140,28 +4000,12 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0.7999999999999972</v>
-      </c>
-      <c r="J96" t="n">
-        <v>12.80000000000002</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0</v>
-      </c>
-      <c r="L96" t="n">
-        <v>21.33000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
-        <v>21.17499999999999</v>
-      </c>
-      <c r="N96" t="n">
-        <v>21.06333333333331</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5191,28 +4035,12 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J97" t="n">
-        <v>13.10000000000002</v>
-      </c>
-      <c r="K97" t="n">
-        <v>-25.00000000000011</v>
-      </c>
-      <c r="L97" t="n">
-        <v>21.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
-        <v>21.17499999999999</v>
-      </c>
-      <c r="N97" t="n">
-        <v>21.07333333333332</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5242,28 +4070,12 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0.3999999999999986</v>
-      </c>
-      <c r="J98" t="n">
-        <v>13.20000000000002</v>
-      </c>
-      <c r="K98" t="n">
-        <v>-33.3333333333336</v>
-      </c>
-      <c r="L98" t="n">
-        <v>21.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
-        <v>21.17499999999999</v>
-      </c>
-      <c r="N98" t="n">
-        <v>21.07999999999998</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5293,28 +4105,12 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0.3999999999999986</v>
-      </c>
-      <c r="J99" t="n">
-        <v>13.20000000000002</v>
-      </c>
-      <c r="K99" t="n">
-        <v>-14.28571428571458</v>
-      </c>
-      <c r="L99" t="n">
-        <v>21.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
-        <v>21.18</v>
-      </c>
-      <c r="N99" t="n">
-        <v>21.08666666666665</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5344,28 +4140,12 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J100" t="n">
-        <v>13.30000000000002</v>
-      </c>
-      <c r="K100" t="n">
-        <v>-14.285714285714</v>
-      </c>
-      <c r="L100" t="n">
-        <v>21.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
-        <v>21.19</v>
-      </c>
-      <c r="N100" t="n">
-        <v>21.09333333333332</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5395,28 +4175,12 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J101" t="n">
-        <v>13.30000000000002</v>
-      </c>
-      <c r="K101" t="n">
-        <v>-59.99999999999943</v>
-      </c>
-      <c r="L101" t="n">
-        <v>21.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="N101" t="n">
-        <v>21.10333333333332</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5446,28 +4210,12 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J102" t="n">
-        <v>13.30000000000002</v>
-      </c>
-      <c r="K102" t="n">
-        <v>-59.99999999999943</v>
-      </c>
-      <c r="L102" t="n">
-        <v>21.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="N102" t="n">
-        <v>21.11666666666666</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5497,28 +4245,12 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J103" t="n">
-        <v>13.30000000000002</v>
-      </c>
-      <c r="K103" t="n">
-        <v>-59.99999999999943</v>
-      </c>
-      <c r="L103" t="n">
-        <v>21.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
-        <v>21.21</v>
-      </c>
-      <c r="N103" t="n">
-        <v>21.12333333333332</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5548,28 +4280,12 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J104" t="n">
-        <v>13.30000000000002</v>
-      </c>
-      <c r="K104" t="n">
-        <v>-59.99999999999943</v>
-      </c>
-      <c r="L104" t="n">
-        <v>21.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
-        <v>21.21</v>
-      </c>
-      <c r="N104" t="n">
-        <v>21.13333333333333</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5599,28 +4315,12 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J105" t="n">
-        <v>13.30000000000002</v>
-      </c>
-      <c r="K105" t="n">
-        <v>-59.99999999999943</v>
-      </c>
-      <c r="L105" t="n">
-        <v>21.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
-        <v>21.215</v>
-      </c>
-      <c r="N105" t="n">
-        <v>21.13999999999999</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5650,28 +4350,12 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0.6999999999999993</v>
-      </c>
-      <c r="J106" t="n">
-        <v>13.50000000000002</v>
-      </c>
-      <c r="K106" t="n">
-        <v>49.99999999999956</v>
-      </c>
-      <c r="L106" t="n">
-        <v>21.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
-        <v>21.215</v>
-      </c>
-      <c r="N106" t="n">
-        <v>21.14999999999999</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5701,28 +4385,12 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0.6999999999999993</v>
-      </c>
-      <c r="J107" t="n">
-        <v>13.50000000000002</v>
-      </c>
-      <c r="K107" t="n">
-        <v>100</v>
-      </c>
-      <c r="L107" t="n">
-        <v>21.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
-        <v>21.21</v>
-      </c>
-      <c r="N107" t="n">
-        <v>21.15666666666666</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5752,28 +4420,12 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0.6999999999999993</v>
-      </c>
-      <c r="J108" t="n">
-        <v>13.50000000000002</v>
-      </c>
-      <c r="K108" t="n">
-        <v>100</v>
-      </c>
-      <c r="L108" t="n">
-        <v>21.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
-        <v>21.21</v>
-      </c>
-      <c r="N108" t="n">
-        <v>21.16666666666665</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,28 +4455,12 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0.5999999999999979</v>
-      </c>
-      <c r="J109" t="n">
-        <v>13.60000000000002</v>
-      </c>
-      <c r="K109" t="n">
-        <v>33.33333333333254</v>
-      </c>
-      <c r="L109" t="n">
-        <v>21.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
-        <v>21.20500000000001</v>
-      </c>
-      <c r="N109" t="n">
-        <v>21.17666666666666</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5854,28 +4490,12 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0.5999999999999979</v>
-      </c>
-      <c r="J110" t="n">
-        <v>13.60000000000002</v>
-      </c>
-      <c r="K110" t="n">
-        <v>33.33333333333254</v>
-      </c>
-      <c r="L110" t="n">
-        <v>21.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
-        <v>21.21</v>
-      </c>
-      <c r="N110" t="n">
-        <v>21.18666666666666</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5905,28 +4525,12 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0.6999999999999993</v>
-      </c>
-      <c r="J111" t="n">
-        <v>13.70000000000002</v>
-      </c>
-      <c r="K111" t="n">
-        <v>49.99999999999956</v>
-      </c>
-      <c r="L111" t="n">
-        <v>21.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
-        <v>21.215</v>
-      </c>
-      <c r="N111" t="n">
-        <v>21.19999999999999</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5956,28 +4560,12 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0.6999999999999993</v>
-      </c>
-      <c r="J112" t="n">
-        <v>13.70000000000002</v>
-      </c>
-      <c r="K112" t="n">
-        <v>49.99999999999956</v>
-      </c>
-      <c r="L112" t="n">
-        <v>21.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
-        <v>21.21</v>
-      </c>
-      <c r="N112" t="n">
-        <v>21.20666666666666</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6007,28 +4595,12 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0.3999999999999986</v>
-      </c>
-      <c r="J113" t="n">
-        <v>14.00000000000002</v>
-      </c>
-      <c r="K113" t="n">
-        <v>-14.28571428571443</v>
-      </c>
-      <c r="L113" t="n">
-        <v>21.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
-        <v>21.19</v>
-      </c>
-      <c r="N113" t="n">
-        <v>21.20999999999999</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6058,28 +4630,12 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J114" t="n">
-        <v>14.10000000000002</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0</v>
-      </c>
-      <c r="L114" t="n">
-        <v>21.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
-        <v>21.17500000000001</v>
-      </c>
-      <c r="N114" t="n">
-        <v>21.20999999999999</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6109,28 +4665,12 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0.3999999999999986</v>
-      </c>
-      <c r="J115" t="n">
-        <v>14.20000000000002</v>
-      </c>
-      <c r="K115" t="n">
-        <v>-42.85714285714256</v>
-      </c>
-      <c r="L115" t="n">
-        <v>21.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
-        <v>21.15500000000001</v>
-      </c>
-      <c r="N115" t="n">
-        <v>21.20999999999999</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6160,28 +4700,12 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J116" t="n">
-        <v>14.30000000000003</v>
-      </c>
-      <c r="K116" t="n">
-        <v>-24.99999999999967</v>
-      </c>
-      <c r="L116" t="n">
-        <v>21.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
-        <v>21.14000000000001</v>
-      </c>
-      <c r="N116" t="n">
-        <v>21.20333333333333</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6211,28 +4735,12 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J117" t="n">
-        <v>14.30000000000003</v>
-      </c>
-      <c r="K117" t="n">
-        <v>-24.99999999999967</v>
-      </c>
-      <c r="L117" t="n">
-        <v>21.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
-        <v>21.14000000000001</v>
-      </c>
-      <c r="N117" t="n">
-        <v>21.19333333333333</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6262,28 +4770,12 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0.3999999999999986</v>
-      </c>
-      <c r="J118" t="n">
-        <v>14.40000000000003</v>
-      </c>
-      <c r="K118" t="n">
-        <v>-24.99999999999967</v>
-      </c>
-      <c r="L118" t="n">
-        <v>21.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
-        <v>21.14000000000001</v>
-      </c>
-      <c r="N118" t="n">
-        <v>21.18333333333333</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6313,28 +4805,12 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0.6999999999999993</v>
-      </c>
-      <c r="J119" t="n">
-        <v>14.70000000000003</v>
-      </c>
-      <c r="K119" t="n">
-        <v>9.09090909090915</v>
-      </c>
-      <c r="L119" t="n">
-        <v>21.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
-        <v>21.15500000000001</v>
-      </c>
-      <c r="N119" t="n">
-        <v>21.18333333333333</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6364,28 +4840,12 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0.5999999999999979</v>
-      </c>
-      <c r="J120" t="n">
-        <v>14.80000000000003</v>
-      </c>
-      <c r="K120" t="n">
-        <v>-9.09090909090915</v>
-      </c>
-      <c r="L120" t="n">
-        <v>21.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
-        <v>21.16000000000001</v>
-      </c>
-      <c r="N120" t="n">
-        <v>21.18666666666666</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6415,28 +4875,12 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J121" t="n">
-        <v>14.90000000000003</v>
-      </c>
-      <c r="K121" t="n">
-        <v>-16.66666666666652</v>
-      </c>
-      <c r="L121" t="n">
-        <v>21.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
-        <v>21.16000000000001</v>
-      </c>
-      <c r="N121" t="n">
-        <v>21.18333333333333</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6466,28 +4910,12 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>0.6999999999999993</v>
-      </c>
-      <c r="J122" t="n">
-        <v>15.10000000000003</v>
-      </c>
-      <c r="K122" t="n">
-        <v>27.27272727272722</v>
-      </c>
-      <c r="L122" t="n">
-        <v>21.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
-        <v>21.17000000000001</v>
-      </c>
-      <c r="N122" t="n">
-        <v>21.18</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6517,28 +4945,12 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J123" t="n">
-        <v>15.30000000000003</v>
-      </c>
-      <c r="K123" t="n">
-        <v>0</v>
-      </c>
-      <c r="L123" t="n">
-        <v>21.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
-        <v>21.17000000000001</v>
-      </c>
-      <c r="N123" t="n">
-        <v>21.17</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6568,28 +4980,12 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>0.2999999999999972</v>
-      </c>
-      <c r="J124" t="n">
-        <v>15.50000000000003</v>
-      </c>
-      <c r="K124" t="n">
-        <v>-7.692307692307776</v>
-      </c>
-      <c r="L124" t="n">
-        <v>21.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
-        <v>21.16000000000001</v>
-      </c>
-      <c r="N124" t="n">
-        <v>21.15333333333333</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6619,28 +5015,12 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>0.2999999999999972</v>
-      </c>
-      <c r="J125" t="n">
-        <v>15.50000000000003</v>
-      </c>
-      <c r="K125" t="n">
-        <v>-16.66666666666686</v>
-      </c>
-      <c r="L125" t="n">
-        <v>21.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
-        <v>21.15000000000001</v>
-      </c>
-      <c r="N125" t="n">
-        <v>21.13666666666666</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6670,28 +5050,12 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0.2999999999999972</v>
-      </c>
-      <c r="J126" t="n">
-        <v>15.50000000000003</v>
-      </c>
-      <c r="K126" t="n">
-        <v>-16.66666666666686</v>
-      </c>
-      <c r="L126" t="n">
-        <v>21.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="N126" t="n">
-        <v>21.12</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6721,28 +5085,12 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J127" t="n">
-        <v>15.90000000000003</v>
-      </c>
-      <c r="K127" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L127" t="n">
-        <v>21.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
-        <v>21.09</v>
-      </c>
-      <c r="N127" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6772,28 +5120,12 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>0.2999999999999972</v>
-      </c>
-      <c r="J128" t="n">
-        <v>16.30000000000003</v>
-      </c>
-      <c r="K128" t="n">
-        <v>-25.00000000000017</v>
-      </c>
-      <c r="L128" t="n">
-        <v>21.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
-        <v>21.07</v>
-      </c>
-      <c r="N128" t="n">
-        <v>21.09666666666666</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6823,28 +5155,12 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>0.2999999999999972</v>
-      </c>
-      <c r="J129" t="n">
-        <v>16.30000000000003</v>
-      </c>
-      <c r="K129" t="n">
-        <v>-20.0000000000001</v>
-      </c>
-      <c r="L129" t="n">
-        <v>20.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
-        <v>21.055</v>
-      </c>
-      <c r="N129" t="n">
-        <v>21.09333333333333</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6874,1099 +5190,12 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J130" t="n">
-        <v>16.40000000000002</v>
-      </c>
-      <c r="K130" t="n">
-        <v>-20.0000000000001</v>
-      </c>
-      <c r="L130" t="n">
-        <v>20.93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
-        <v>21.035</v>
-      </c>
-      <c r="N130" t="n">
-        <v>21.08333333333333</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="C131" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="D131" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="E131" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="F131" t="n">
-        <v>8470.769</v>
-      </c>
-      <c r="G131" t="n">
-        <v>21.08833333333333</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J131" t="n">
-        <v>16.40000000000002</v>
-      </c>
-      <c r="K131" t="n">
-        <v>-38.46153846153855</v>
-      </c>
-      <c r="L131" t="n">
-        <v>20.90000000000001</v>
-      </c>
-      <c r="M131" t="n">
-        <v>21.01</v>
-      </c>
-      <c r="N131" t="n">
-        <v>21.07333333333332</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="C132" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="D132" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="E132" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="F132" t="n">
-        <v>95043.4617</v>
-      </c>
-      <c r="G132" t="n">
-        <v>21.09</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J132" t="n">
-        <v>16.40000000000002</v>
-      </c>
-      <c r="K132" t="n">
-        <v>-27.27272727272739</v>
-      </c>
-      <c r="L132" t="n">
-        <v>20.85</v>
-      </c>
-      <c r="M132" t="n">
-        <v>20.985</v>
-      </c>
-      <c r="N132" t="n">
-        <v>21.06333333333332</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="C133" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="D133" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="E133" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="F133" t="n">
-        <v>10</v>
-      </c>
-      <c r="G133" t="n">
-        <v>21.08499999999999</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="n">
-        <v>16.60000000000002</v>
-      </c>
-      <c r="K133" t="n">
-        <v>-27.27272727272715</v>
-      </c>
-      <c r="L133" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="M133" t="n">
-        <v>20.965</v>
-      </c>
-      <c r="N133" t="n">
-        <v>21.04666666666666</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="C134" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="D134" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="E134" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="F134" t="n">
-        <v>10</v>
-      </c>
-      <c r="G134" t="n">
-        <v>21.08499999999999</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J134" t="n">
-        <v>16.80000000000002</v>
-      </c>
-      <c r="K134" t="n">
-        <v>-7.692307692307566</v>
-      </c>
-      <c r="L134" t="n">
-        <v>20.79000000000001</v>
-      </c>
-      <c r="M134" t="n">
-        <v>20.95</v>
-      </c>
-      <c r="N134" t="n">
-        <v>21.03666666666665</v>
-      </c>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="C135" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="D135" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="E135" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="F135" t="n">
-        <v>10</v>
-      </c>
-      <c r="G135" t="n">
-        <v>21.08166666666666</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0.09999999999999787</v>
-      </c>
-      <c r="J135" t="n">
-        <v>16.90000000000002</v>
-      </c>
-      <c r="K135" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L135" t="n">
-        <v>20.77</v>
-      </c>
-      <c r="M135" t="n">
-        <v>20.935</v>
-      </c>
-      <c r="N135" t="n">
-        <v>21.02333333333332</v>
-      </c>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="C136" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="D136" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="E136" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="F136" t="n">
-        <v>10</v>
-      </c>
-      <c r="G136" t="n">
-        <v>21.07333333333333</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J136" t="n">
-        <v>17.10000000000002</v>
-      </c>
-      <c r="K136" t="n">
-        <v>0</v>
-      </c>
-      <c r="L136" t="n">
-        <v>20.73</v>
-      </c>
-      <c r="M136" t="n">
-        <v>20.905</v>
-      </c>
-      <c r="N136" t="n">
-        <v>20.99666666666666</v>
-      </c>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="C137" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="D137" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="E137" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="F137" t="n">
-        <v>720</v>
-      </c>
-      <c r="G137" t="n">
-        <v>21.06833333333333</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J137" t="n">
-        <v>17.40000000000002</v>
-      </c>
-      <c r="K137" t="n">
-        <v>-9.090909090908914</v>
-      </c>
-      <c r="L137" t="n">
-        <v>20.76000000000001</v>
-      </c>
-      <c r="M137" t="n">
-        <v>20.89</v>
-      </c>
-      <c r="N137" t="n">
-        <v>20.97999999999999</v>
-      </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="C138" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="D138" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="E138" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="F138" t="n">
-        <v>10005.8406</v>
-      </c>
-      <c r="G138" t="n">
-        <v>21.06</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J138" t="n">
-        <v>17.70000000000002</v>
-      </c>
-      <c r="K138" t="n">
-        <v>-28.5714285714285</v>
-      </c>
-      <c r="L138" t="n">
-        <v>20.72000000000001</v>
-      </c>
-      <c r="M138" t="n">
-        <v>20.865</v>
-      </c>
-      <c r="N138" t="n">
-        <v>20.95333333333332</v>
-      </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="C139" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="D139" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="E139" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="F139" t="n">
-        <v>390</v>
-      </c>
-      <c r="G139" t="n">
-        <v>21.05833333333333</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J139" t="n">
-        <v>18.00000000000002</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0</v>
-      </c>
-      <c r="L139" t="n">
-        <v>20.71</v>
-      </c>
-      <c r="M139" t="n">
-        <v>20.84</v>
-      </c>
-      <c r="N139" t="n">
-        <v>20.93999999999999</v>
-      </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="C140" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="D140" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="E140" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="F140" t="n">
-        <v>30</v>
-      </c>
-      <c r="G140" t="n">
-        <v>21.05666666666666</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J140" t="n">
-        <v>18.00000000000002</v>
-      </c>
-      <c r="K140" t="n">
-        <v>0</v>
-      </c>
-      <c r="L140" t="n">
-        <v>20.71</v>
-      </c>
-      <c r="M140" t="n">
-        <v>20.82</v>
-      </c>
-      <c r="N140" t="n">
-        <v>20.92666666666665</v>
-      </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="C141" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="D141" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="E141" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="F141" t="n">
-        <v>10.0001</v>
-      </c>
-      <c r="G141" t="n">
-        <v>21.05166666666666</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="n">
-        <v>18.20000000000002</v>
-      </c>
-      <c r="K141" t="n">
-        <v>-11.11111111111107</v>
-      </c>
-      <c r="L141" t="n">
-        <v>20.69</v>
-      </c>
-      <c r="M141" t="n">
-        <v>20.795</v>
-      </c>
-      <c r="N141" t="n">
-        <v>20.90333333333332</v>
-      </c>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="C142" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="D142" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="E142" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="F142" t="n">
-        <v>6979.9999</v>
-      </c>
-      <c r="G142" t="n">
-        <v>21.04333333333332</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="n">
-        <v>18.20000000000002</v>
-      </c>
-      <c r="K142" t="n">
-        <v>0</v>
-      </c>
-      <c r="L142" t="n">
-        <v>20.67</v>
-      </c>
-      <c r="M142" t="n">
-        <v>20.76</v>
-      </c>
-      <c r="N142" t="n">
-        <v>20.87999999999999</v>
-      </c>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="C143" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="D143" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="E143" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="F143" t="n">
-        <v>10</v>
-      </c>
-      <c r="G143" t="n">
-        <v>21.04166666666665</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J143" t="n">
-        <v>18.40000000000002</v>
-      </c>
-      <c r="K143" t="n">
-        <v>0</v>
-      </c>
-      <c r="L143" t="n">
-        <v>20.69</v>
-      </c>
-      <c r="M143" t="n">
-        <v>20.745</v>
-      </c>
-      <c r="N143" t="n">
-        <v>20.87333333333332</v>
-      </c>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="C144" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="D144" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="E144" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="F144" t="n">
-        <v>46242.8302</v>
-      </c>
-      <c r="G144" t="n">
-        <v>21.03166666666665</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J144" t="n">
-        <v>18.70000000000002</v>
-      </c>
-      <c r="K144" t="n">
-        <v>-11.11111111111107</v>
-      </c>
-      <c r="L144" t="n">
-        <v>20.66</v>
-      </c>
-      <c r="M144" t="n">
-        <v>20.725</v>
-      </c>
-      <c r="N144" t="n">
-        <v>20.85333333333332</v>
-      </c>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="C145" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="D145" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="E145" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="F145" t="n">
-        <v>222</v>
-      </c>
-      <c r="G145" t="n">
-        <v>21.02166666666665</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>-0.2000000000000028</v>
-      </c>
-      <c r="J145" t="n">
-        <v>18.80000000000003</v>
-      </c>
-      <c r="K145" t="n">
-        <v>-5.882352941176544</v>
-      </c>
-      <c r="L145" t="n">
-        <v>20.63</v>
-      </c>
-      <c r="M145" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="N145" t="n">
-        <v>20.83333333333332</v>
-      </c>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
-      <c r="S145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="C146" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="D146" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="E146" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="F146" t="n">
-        <v>45701.1016</v>
-      </c>
-      <c r="G146" t="n">
-        <v>21.00666666666666</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>-0.2000000000000028</v>
-      </c>
-      <c r="J146" t="n">
-        <v>18.80000000000003</v>
-      </c>
-      <c r="K146" t="n">
-        <v>-28.57142857142868</v>
-      </c>
-      <c r="L146" t="n">
-        <v>20.62</v>
-      </c>
-      <c r="M146" t="n">
-        <v>20.675</v>
-      </c>
-      <c r="N146" t="n">
-        <v>20.80999999999998</v>
-      </c>
-      <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="C147" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="D147" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="E147" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="F147" t="n">
-        <v>25062.814</v>
-      </c>
-      <c r="G147" t="n">
-        <v>20.98999999999999</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>-0.2000000000000028</v>
-      </c>
-      <c r="J147" t="n">
-        <v>18.80000000000003</v>
-      </c>
-      <c r="K147" t="n">
-        <v>-9.090909090909207</v>
-      </c>
-      <c r="L147" t="n">
-        <v>20.58000000000001</v>
-      </c>
-      <c r="M147" t="n">
-        <v>20.67</v>
-      </c>
-      <c r="N147" t="n">
-        <v>20.78666666666665</v>
-      </c>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
-      <c r="S147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="C148" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="D148" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="E148" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="F148" t="n">
-        <v>56413.6845</v>
-      </c>
-      <c r="G148" t="n">
-        <v>20.97499999999999</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>-0.2000000000000028</v>
-      </c>
-      <c r="J148" t="n">
-        <v>18.80000000000003</v>
-      </c>
-      <c r="K148" t="n">
-        <v>-50.00000000000022</v>
-      </c>
-      <c r="L148" t="n">
-        <v>20.57</v>
-      </c>
-      <c r="M148" t="n">
-        <v>20.645</v>
-      </c>
-      <c r="N148" t="n">
-        <v>20.76666666666665</v>
-      </c>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
-      <c r="S148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="C149" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="D149" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="E149" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="F149" t="n">
-        <v>10</v>
-      </c>
-      <c r="G149" t="n">
-        <v>20.96499999999999</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0.09999999999999787</v>
-      </c>
-      <c r="J149" t="n">
-        <v>19.10000000000003</v>
-      </c>
-      <c r="K149" t="n">
-        <v>-9.090909090909207</v>
-      </c>
-      <c r="L149" t="n">
-        <v>20.56</v>
-      </c>
-      <c r="M149" t="n">
-        <v>20.635</v>
-      </c>
-      <c r="N149" t="n">
-        <v>20.74666666666665</v>
-      </c>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
-      <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
-      <c r="S149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="C150" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="D150" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="E150" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="F150" t="n">
-        <v>28</v>
-      </c>
-      <c r="G150" t="n">
-        <v>20.95833333333333</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0.09999999999999787</v>
-      </c>
-      <c r="J150" t="n">
-        <v>19.10000000000003</v>
-      </c>
-      <c r="K150" t="n">
-        <v>11.11111111111085</v>
-      </c>
-      <c r="L150" t="n">
-        <v>20.55</v>
-      </c>
-      <c r="M150" t="n">
-        <v>20.63</v>
-      </c>
-      <c r="N150" t="n">
-        <v>20.72999999999998</v>
-      </c>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr"/>
-      <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr"/>
-      <c r="S150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="C151" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="D151" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="E151" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="F151" t="n">
-        <v>30</v>
-      </c>
-      <c r="G151" t="n">
-        <v>20.945</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>-0.2000000000000028</v>
-      </c>
-      <c r="J151" t="n">
-        <v>19.40000000000003</v>
-      </c>
-      <c r="K151" t="n">
-        <v>-16.66666666666686</v>
-      </c>
-      <c r="L151" t="n">
-        <v>20.53</v>
-      </c>
-      <c r="M151" t="n">
-        <v>20.61</v>
-      </c>
-      <c r="N151" t="n">
-        <v>20.70666666666665</v>
-      </c>
-      <c r="O151" t="inlineStr"/>
-      <c r="P151" t="inlineStr"/>
-      <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr"/>
-      <c r="S151" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-17 BackTest CMT.xlsx
+++ b/BackTest/2019-10-17 BackTest CMT.xlsx
@@ -661,20 +661,14 @@
         <v>20.80166666666667</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>20.5</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -702,20 +696,14 @@
         <v>20.795</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>20.5</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -751,12 +739,10 @@
       <c r="J10" t="n">
         <v>20.4</v>
       </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -790,12 +776,14 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
+        <v>20.4</v>
+      </c>
+      <c r="K11" t="n">
+        <v>20.4</v>
+      </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M11" t="n">
@@ -831,12 +819,14 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
+        <v>20.7</v>
+      </c>
+      <c r="K12" t="n">
+        <v>20.4</v>
+      </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M12" t="n">
@@ -872,14 +862,12 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>20.5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -913,12 +901,14 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
+        <v>20.8</v>
+      </c>
+      <c r="K14" t="n">
+        <v>20.5</v>
+      </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M14" t="n">
@@ -954,12 +944,14 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
+        <v>20.9</v>
+      </c>
+      <c r="K15" t="n">
+        <v>20.5</v>
+      </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M15" t="n">
@@ -996,11 +988,7 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1035,11 +1023,7 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1074,11 +1058,7 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1113,11 +1093,7 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1152,11 +1128,7 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1191,11 +1163,7 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1230,11 +1198,7 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1269,11 +1233,7 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1308,11 +1268,7 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1347,11 +1303,7 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1386,11 +1338,7 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1425,11 +1373,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1464,11 +1408,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1503,11 +1443,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1542,11 +1478,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1581,11 +1513,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1620,11 +1548,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1659,11 +1583,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1698,11 +1618,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1737,11 +1653,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1776,11 +1688,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1815,11 +1723,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1854,11 +1758,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1893,11 +1793,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1932,11 +1828,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1971,11 +1863,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2010,11 +1898,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2049,11 +1933,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2088,11 +1968,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2127,11 +2003,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2166,11 +2038,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2198,20 +2066,14 @@
         <v>20.71333333333332</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>20.6</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2239,20 +2101,14 @@
         <v>20.71666666666665</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>20.8</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2280,20 +2136,14 @@
         <v>20.72333333333332</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>20.8</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2328,11 +2178,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2367,11 +2213,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2406,11 +2248,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2438,20 +2276,14 @@
         <v>20.70999999999999</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>20.7</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2479,20 +2311,14 @@
         <v>20.70499999999999</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>20.7</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2520,20 +2346,14 @@
         <v>20.70499999999999</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>20.7</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2561,20 +2381,14 @@
         <v>20.70333333333332</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>20.6</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2602,20 +2416,14 @@
         <v>20.70833333333332</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>20.6</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2643,20 +2451,14 @@
         <v>20.71166666666666</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>21</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2691,11 +2493,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2730,11 +2528,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2765,15 +2559,11 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2808,11 +2598,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2843,16 +2629,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2985,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -3125,7 +2909,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -3405,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3440,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3580,7 +3364,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3685,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3825,7 +3609,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -3895,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -3930,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -3965,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>

--- a/BackTest/2019-10-17 BackTest CMT.xlsx
+++ b/BackTest/2019-10-17 BackTest CMT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M130"/>
+  <dimension ref="A1:M131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="C2" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="D2" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="E2" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="F2" t="n">
-        <v>31.3942</v>
+        <v>725.4589</v>
       </c>
       <c r="G2" t="n">
-        <v>20.84333333333334</v>
+        <v>20.84833333333334</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>20.8</v>
       </c>
       <c r="C3" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="D3" t="n">
         <v>20.8</v>
       </c>
       <c r="E3" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="F3" t="n">
-        <v>487.6442307692308</v>
+        <v>31.3942</v>
       </c>
       <c r="G3" t="n">
-        <v>20.83666666666667</v>
+        <v>20.84333333333334</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="C4" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="D4" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="E4" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="F4" t="n">
-        <v>10010</v>
+        <v>487.6442307692308</v>
       </c>
       <c r="G4" t="n">
-        <v>20.82666666666666</v>
+        <v>20.83666666666667</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="C5" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="D5" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="E5" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="F5" t="n">
-        <v>30958.1902</v>
+        <v>10010</v>
       </c>
       <c r="G5" t="n">
-        <v>20.815</v>
+        <v>20.82666666666666</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>20.5</v>
       </c>
       <c r="F6" t="n">
-        <v>19.0439</v>
+        <v>30958.1902</v>
       </c>
       <c r="G6" t="n">
-        <v>20.81166666666666</v>
+        <v>20.815</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>20.5</v>
       </c>
       <c r="F7" t="n">
-        <v>490</v>
+        <v>19.0439</v>
       </c>
       <c r="G7" t="n">
-        <v>20.80833333333333</v>
+        <v>20.81166666666666</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -646,19 +646,19 @@
         <v>20.5</v>
       </c>
       <c r="C8" t="n">
-        <v>20.7</v>
+        <v>20.5</v>
       </c>
       <c r="D8" t="n">
-        <v>20.7</v>
+        <v>20.5</v>
       </c>
       <c r="E8" t="n">
         <v>20.5</v>
       </c>
       <c r="F8" t="n">
-        <v>1000.0001</v>
+        <v>490</v>
       </c>
       <c r="G8" t="n">
-        <v>20.80166666666667</v>
+        <v>20.80833333333333</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -681,19 +681,19 @@
         <v>20.5</v>
       </c>
       <c r="C9" t="n">
-        <v>20.4</v>
+        <v>20.7</v>
       </c>
       <c r="D9" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="E9" t="n">
         <v>20.5</v>
       </c>
-      <c r="E9" t="n">
-        <v>20.4</v>
-      </c>
       <c r="F9" t="n">
-        <v>36934.7297</v>
+        <v>1000.0001</v>
       </c>
       <c r="G9" t="n">
-        <v>20.795</v>
+        <v>20.80166666666667</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,35 +713,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="C10" t="n">
         <v>20.4</v>
       </c>
       <c r="D10" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="E10" t="n">
         <v>20.4</v>
       </c>
       <c r="F10" t="n">
-        <v>344.9652</v>
+        <v>36934.7297</v>
       </c>
       <c r="G10" t="n">
-        <v>20.78833333333334</v>
+        <v>20.795</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K10" t="n">
-        <v>20.4</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
@@ -752,40 +748,32 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>20.7</v>
+        <v>20.4</v>
       </c>
       <c r="C11" t="n">
-        <v>20.7</v>
+        <v>20.4</v>
       </c>
       <c r="D11" t="n">
-        <v>20.7</v>
+        <v>20.4</v>
       </c>
       <c r="E11" t="n">
-        <v>20.7</v>
+        <v>20.4</v>
       </c>
       <c r="F11" t="n">
-        <v>10030.91787439613</v>
+        <v>344.9652</v>
       </c>
       <c r="G11" t="n">
         <v>20.78833333333334</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K11" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -795,40 +783,32 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="C12" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="D12" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="E12" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="F12" t="n">
-        <v>16999.9999</v>
+        <v>10030.91787439613</v>
       </c>
       <c r="G12" t="n">
-        <v>20.785</v>
+        <v>20.78833333333334</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="K12" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -838,35 +818,31 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="C13" t="n">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="D13" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="E13" t="n">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="F13" t="n">
-        <v>924.6917692307692</v>
+        <v>16999.9999</v>
       </c>
       <c r="G13" t="n">
-        <v>20.78666666666667</v>
+        <v>20.785</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="K13" t="n">
-        <v>20.5</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
@@ -877,40 +853,32 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="C14" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="D14" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="E14" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="F14" t="n">
-        <v>16075.5857</v>
+        <v>924.6917692307692</v>
       </c>
       <c r="G14" t="n">
         <v>20.78666666666667</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K14" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -920,40 +888,32 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="C15" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="D15" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="E15" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="F15" t="n">
-        <v>118.2211</v>
+        <v>16075.5857</v>
       </c>
       <c r="G15" t="n">
-        <v>20.78333333333333</v>
+        <v>20.78666666666667</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="K15" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -966,19 +926,19 @@
         <v>20.8</v>
       </c>
       <c r="C16" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="D16" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="E16" t="n">
         <v>20.8</v>
       </c>
       <c r="F16" t="n">
-        <v>21392.4124</v>
+        <v>118.2211</v>
       </c>
       <c r="G16" t="n">
-        <v>20.78666666666667</v>
+        <v>20.78333333333333</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -998,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="C17" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="D17" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="E17" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="F17" t="n">
-        <v>26539.9523</v>
+        <v>21392.4124</v>
       </c>
       <c r="G17" t="n">
-        <v>20.78833333333333</v>
+        <v>20.78666666666667</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1033,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>20.7</v>
+        <v>21</v>
       </c>
       <c r="C18" t="n">
-        <v>20.7</v>
+        <v>21</v>
       </c>
       <c r="D18" t="n">
-        <v>20.7</v>
+        <v>21</v>
       </c>
       <c r="E18" t="n">
-        <v>20.7</v>
+        <v>21</v>
       </c>
       <c r="F18" t="n">
-        <v>6810</v>
+        <v>26539.9523</v>
       </c>
       <c r="G18" t="n">
-        <v>20.78166666666666</v>
+        <v>20.78833333333333</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1068,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="C19" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="D19" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="E19" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="F19" t="n">
-        <v>4135.452</v>
+        <v>6810</v>
       </c>
       <c r="G19" t="n">
-        <v>20.77833333333333</v>
+        <v>20.78166666666666</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1103,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="C20" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="D20" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="E20" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="F20" t="n">
-        <v>37759.548</v>
+        <v>4135.452</v>
       </c>
       <c r="G20" t="n">
-        <v>20.77166666666666</v>
+        <v>20.77833333333333</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1138,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>21</v>
+        <v>20.6</v>
       </c>
       <c r="C21" t="n">
-        <v>21</v>
+        <v>20.4</v>
       </c>
       <c r="D21" t="n">
-        <v>21</v>
+        <v>20.6</v>
       </c>
       <c r="E21" t="n">
-        <v>21</v>
+        <v>20.4</v>
       </c>
       <c r="F21" t="n">
-        <v>907.65</v>
+        <v>37759.548</v>
       </c>
       <c r="G21" t="n">
-        <v>20.775</v>
+        <v>20.77166666666666</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1173,19 +1133,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="D22" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="E22" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="F22" t="n">
-        <v>7000</v>
+        <v>907.65</v>
       </c>
       <c r="G22" t="n">
         <v>20.775</v>
@@ -1208,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="C23" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="D23" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="E23" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="F23" t="n">
-        <v>117.9255</v>
+        <v>7000</v>
       </c>
       <c r="G23" t="n">
-        <v>20.77666666666666</v>
+        <v>20.775</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1246,16 +1206,16 @@
         <v>20.8</v>
       </c>
       <c r="C24" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="D24" t="n">
         <v>20.8</v>
       </c>
       <c r="E24" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="F24" t="n">
-        <v>3745.9336</v>
+        <v>117.9255</v>
       </c>
       <c r="G24" t="n">
         <v>20.77666666666666</v>
@@ -1278,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="C25" t="n">
         <v>20.7</v>
       </c>
       <c r="D25" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="E25" t="n">
         <v>20.7</v>
       </c>
       <c r="F25" t="n">
-        <v>74.0664</v>
+        <v>3745.9336</v>
       </c>
       <c r="G25" t="n">
-        <v>20.77333333333333</v>
+        <v>20.77666666666666</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1313,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>21.1</v>
+        <v>20.7</v>
       </c>
       <c r="C26" t="n">
-        <v>21.1</v>
+        <v>20.7</v>
       </c>
       <c r="D26" t="n">
-        <v>21.1</v>
+        <v>20.7</v>
       </c>
       <c r="E26" t="n">
-        <v>21.1</v>
+        <v>20.7</v>
       </c>
       <c r="F26" t="n">
-        <v>947.8672985781991</v>
+        <v>74.0664</v>
       </c>
       <c r="G26" t="n">
-        <v>20.77666666666666</v>
+        <v>20.77333333333333</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1360,7 +1320,7 @@
         <v>21.1</v>
       </c>
       <c r="F27" t="n">
-        <v>6432.132701421801</v>
+        <v>947.8672985781991</v>
       </c>
       <c r="G27" t="n">
         <v>20.77666666666666</v>
@@ -1386,19 +1346,19 @@
         <v>21.1</v>
       </c>
       <c r="C28" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="D28" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="E28" t="n">
         <v>21.1</v>
       </c>
       <c r="F28" t="n">
-        <v>14877.5952</v>
+        <v>6432.132701421801</v>
       </c>
       <c r="G28" t="n">
-        <v>20.78166666666666</v>
+        <v>20.77666666666666</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1418,19 +1378,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="C29" t="n">
-        <v>20.7</v>
+        <v>21.2</v>
       </c>
       <c r="D29" t="n">
-        <v>20.8</v>
+        <v>21.2</v>
       </c>
       <c r="E29" t="n">
-        <v>20.7</v>
+        <v>21.1</v>
       </c>
       <c r="F29" t="n">
-        <v>7230.0001</v>
+        <v>14877.5952</v>
       </c>
       <c r="G29" t="n">
         <v>20.78166666666666</v>
@@ -1465,10 +1425,10 @@
         <v>20.7</v>
       </c>
       <c r="F30" t="n">
-        <v>3620.0001</v>
+        <v>7230.0001</v>
       </c>
       <c r="G30" t="n">
-        <v>20.775</v>
+        <v>20.78166666666666</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1491,16 +1451,16 @@
         <v>20.8</v>
       </c>
       <c r="C31" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="D31" t="n">
         <v>20.8</v>
       </c>
       <c r="E31" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="F31" t="n">
-        <v>10</v>
+        <v>3620.0001</v>
       </c>
       <c r="G31" t="n">
         <v>20.775</v>
@@ -1526,19 +1486,19 @@
         <v>20.8</v>
       </c>
       <c r="C32" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="D32" t="n">
         <v>20.8</v>
       </c>
       <c r="E32" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="F32" t="n">
-        <v>2518.7328</v>
+        <v>10</v>
       </c>
       <c r="G32" t="n">
-        <v>20.77333333333333</v>
+        <v>20.775</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1561,16 +1521,16 @@
         <v>20.8</v>
       </c>
       <c r="C33" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="D33" t="n">
         <v>20.8</v>
       </c>
       <c r="E33" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="F33" t="n">
-        <v>1810</v>
+        <v>2518.7328</v>
       </c>
       <c r="G33" t="n">
         <v>20.77333333333333</v>
@@ -1605,10 +1565,10 @@
         <v>20.8</v>
       </c>
       <c r="F34" t="n">
-        <v>4625.812</v>
+        <v>1810</v>
       </c>
       <c r="G34" t="n">
-        <v>20.77</v>
+        <v>20.77333333333333</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1640,19 +1600,23 @@
         <v>20.8</v>
       </c>
       <c r="F35" t="n">
-        <v>17.486</v>
+        <v>4625.812</v>
       </c>
       <c r="G35" t="n">
         <v>20.77</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K35" t="n">
+        <v>20.8</v>
+      </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
@@ -1675,7 +1639,7 @@
         <v>20.8</v>
       </c>
       <c r="F36" t="n">
-        <v>356.2851</v>
+        <v>17.486</v>
       </c>
       <c r="G36" t="n">
         <v>20.77</v>
@@ -1687,8 +1651,14 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1710,7 +1680,7 @@
         <v>20.8</v>
       </c>
       <c r="F37" t="n">
-        <v>362.4479</v>
+        <v>356.2851</v>
       </c>
       <c r="G37" t="n">
         <v>20.77</v>
@@ -1722,8 +1692,14 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1745,10 +1721,10 @@
         <v>20.8</v>
       </c>
       <c r="F38" t="n">
-        <v>4637.969</v>
+        <v>362.4479</v>
       </c>
       <c r="G38" t="n">
-        <v>20.765</v>
+        <v>20.77</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1768,22 +1744,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="C39" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="D39" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="E39" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="F39" t="n">
-        <v>731.6727</v>
+        <v>4637.969</v>
       </c>
       <c r="G39" t="n">
-        <v>20.76</v>
+        <v>20.765</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1803,22 +1779,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>20.6</v>
+        <v>20.9</v>
       </c>
       <c r="C40" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="D40" t="n">
-        <v>20.6</v>
+        <v>20.9</v>
       </c>
       <c r="E40" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="F40" t="n">
-        <v>10</v>
+        <v>731.6727</v>
       </c>
       <c r="G40" t="n">
-        <v>20.75333333333333</v>
+        <v>20.76</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1850,10 +1826,10 @@
         <v>20.6</v>
       </c>
       <c r="F41" t="n">
-        <v>6966.1147</v>
+        <v>10</v>
       </c>
       <c r="G41" t="n">
-        <v>20.74833333333333</v>
+        <v>20.75333333333333</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1885,10 +1861,10 @@
         <v>20.6</v>
       </c>
       <c r="F42" t="n">
-        <v>80</v>
+        <v>6966.1147</v>
       </c>
       <c r="G42" t="n">
-        <v>20.74333333333333</v>
+        <v>20.74833333333333</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1920,10 +1896,10 @@
         <v>20.6</v>
       </c>
       <c r="F43" t="n">
-        <v>4973.3055</v>
+        <v>80</v>
       </c>
       <c r="G43" t="n">
-        <v>20.73666666666666</v>
+        <v>20.74333333333333</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1943,22 +1919,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="C44" t="n">
         <v>20.6</v>
       </c>
       <c r="D44" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="E44" t="n">
         <v>20.6</v>
       </c>
       <c r="F44" t="n">
-        <v>12894.6046</v>
+        <v>4973.3055</v>
       </c>
       <c r="G44" t="n">
-        <v>20.72999999999999</v>
+        <v>20.73666666666666</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1978,22 +1954,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="C45" t="n">
         <v>20.6</v>
       </c>
       <c r="D45" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="E45" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="F45" t="n">
-        <v>17014.7092</v>
+        <v>12894.6046</v>
       </c>
       <c r="G45" t="n">
-        <v>20.72333333333332</v>
+        <v>20.72999999999999</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2016,19 +1992,19 @@
         <v>20.5</v>
       </c>
       <c r="C46" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="D46" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="E46" t="n">
         <v>20.5</v>
       </c>
-      <c r="E46" t="n">
-        <v>20.4</v>
-      </c>
       <c r="F46" t="n">
-        <v>12183.7298</v>
+        <v>17014.7092</v>
       </c>
       <c r="G46" t="n">
-        <v>20.71499999999999</v>
+        <v>20.72333333333332</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2048,22 +2024,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="C47" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="D47" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="E47" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="F47" t="n">
-        <v>30604.806</v>
+        <v>12183.7298</v>
       </c>
       <c r="G47" t="n">
-        <v>20.71333333333332</v>
+        <v>20.71499999999999</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2083,22 +2059,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="C48" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="D48" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="E48" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="F48" t="n">
-        <v>10</v>
+        <v>30604.806</v>
       </c>
       <c r="G48" t="n">
-        <v>20.71666666666665</v>
+        <v>20.71333333333332</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2121,28 +2097,32 @@
         <v>20.8</v>
       </c>
       <c r="C49" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="D49" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="E49" t="n">
         <v>20.8</v>
       </c>
       <c r="F49" t="n">
-        <v>43510.13455714285</v>
+        <v>10</v>
       </c>
       <c r="G49" t="n">
-        <v>20.72333333333332</v>
+        <v>20.71666666666665</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K49" t="n">
+        <v>20.6</v>
+      </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
@@ -2153,22 +2133,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="C50" t="n">
-        <v>20.6</v>
+        <v>21</v>
       </c>
       <c r="D50" t="n">
-        <v>20.7</v>
+        <v>21</v>
       </c>
       <c r="E50" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="F50" t="n">
-        <v>20000</v>
+        <v>43510.13455714285</v>
       </c>
       <c r="G50" t="n">
-        <v>20.71999999999998</v>
+        <v>20.72333333333332</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2177,8 +2157,14 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2188,22 +2174,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="C51" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="D51" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="E51" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="F51" t="n">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="G51" t="n">
-        <v>20.71499999999999</v>
+        <v>20.71999999999998</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2212,8 +2198,14 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2223,22 +2215,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="C52" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="D52" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="E52" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="F52" t="n">
-        <v>30</v>
+        <v>50000</v>
       </c>
       <c r="G52" t="n">
-        <v>20.71166666666666</v>
+        <v>20.71499999999999</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2247,8 +2239,14 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2258,22 +2256,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>20.7</v>
+        <v>20.4</v>
       </c>
       <c r="C53" t="n">
-        <v>20.7</v>
+        <v>20.4</v>
       </c>
       <c r="D53" t="n">
-        <v>20.7</v>
+        <v>20.4</v>
       </c>
       <c r="E53" t="n">
-        <v>20.7</v>
+        <v>20.4</v>
       </c>
       <c r="F53" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G53" t="n">
-        <v>20.70999999999999</v>
+        <v>20.71166666666666</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2282,8 +2280,14 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2296,19 +2300,19 @@
         <v>20.7</v>
       </c>
       <c r="C54" t="n">
-        <v>20.4</v>
+        <v>20.7</v>
       </c>
       <c r="D54" t="n">
         <v>20.7</v>
       </c>
       <c r="E54" t="n">
-        <v>20.4</v>
+        <v>20.7</v>
       </c>
       <c r="F54" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="G54" t="n">
-        <v>20.70499999999999</v>
+        <v>20.70999999999999</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2317,8 +2321,14 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2331,16 +2341,16 @@
         <v>20.7</v>
       </c>
       <c r="C55" t="n">
-        <v>20.7</v>
+        <v>20.4</v>
       </c>
       <c r="D55" t="n">
         <v>20.7</v>
       </c>
       <c r="E55" t="n">
-        <v>20.7</v>
+        <v>20.4</v>
       </c>
       <c r="F55" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>20.70499999999999</v>
@@ -2352,8 +2362,14 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2363,22 +2379,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="C56" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="D56" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="E56" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="F56" t="n">
-        <v>1755.1456</v>
+        <v>10</v>
       </c>
       <c r="G56" t="n">
-        <v>20.70333333333332</v>
+        <v>20.70499999999999</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2387,8 +2403,14 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2401,19 +2423,19 @@
         <v>20.6</v>
       </c>
       <c r="C57" t="n">
-        <v>21</v>
+        <v>20.6</v>
       </c>
       <c r="D57" t="n">
-        <v>21</v>
+        <v>20.6</v>
       </c>
       <c r="E57" t="n">
         <v>20.6</v>
       </c>
       <c r="F57" t="n">
-        <v>36319.5249</v>
+        <v>1755.1456</v>
       </c>
       <c r="G57" t="n">
-        <v>20.70833333333332</v>
+        <v>20.70333333333332</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2422,8 +2444,14 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2433,22 +2461,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>21</v>
+        <v>20.6</v>
       </c>
       <c r="C58" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="D58" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="E58" t="n">
-        <v>20.9</v>
+        <v>20.6</v>
       </c>
       <c r="F58" t="n">
-        <v>34010.0881</v>
+        <v>36319.5249</v>
       </c>
       <c r="G58" t="n">
-        <v>20.71166666666666</v>
+        <v>20.70833333333332</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2457,8 +2485,14 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2468,22 +2502,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="C59" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="D59" t="n">
         <v>21.1</v>
       </c>
       <c r="E59" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="F59" t="n">
-        <v>10</v>
+        <v>34010.0881</v>
       </c>
       <c r="G59" t="n">
-        <v>20.71999999999999</v>
+        <v>20.71166666666666</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2492,8 +2526,14 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2503,22 +2543,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="C60" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="D60" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="E60" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="F60" t="n">
-        <v>25000</v>
+        <v>10</v>
       </c>
       <c r="G60" t="n">
-        <v>20.72499999999999</v>
+        <v>20.71999999999999</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2527,8 +2567,14 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2550,20 +2596,26 @@
         <v>20.9</v>
       </c>
       <c r="F61" t="n">
-        <v>429.665</v>
+        <v>25000</v>
       </c>
       <c r="G61" t="n">
-        <v>20.72833333333333</v>
+        <v>20.72499999999999</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2573,19 +2625,19 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>20.6</v>
+        <v>20.9</v>
       </c>
       <c r="C62" t="n">
-        <v>20.6</v>
+        <v>20.9</v>
       </c>
       <c r="D62" t="n">
-        <v>20.6</v>
+        <v>20.9</v>
       </c>
       <c r="E62" t="n">
-        <v>20.6</v>
+        <v>20.9</v>
       </c>
       <c r="F62" t="n">
-        <v>10</v>
+        <v>429.665</v>
       </c>
       <c r="G62" t="n">
         <v>20.72833333333333</v>
@@ -2594,13 +2646,19 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M62" t="n">
-        <v>1</v>
+        <v>1.009563106796116</v>
       </c>
     </row>
     <row r="63">
@@ -2608,22 +2666,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>21.1</v>
+        <v>20.6</v>
       </c>
       <c r="C63" t="n">
-        <v>21.1</v>
+        <v>20.6</v>
       </c>
       <c r="D63" t="n">
-        <v>21.1</v>
+        <v>20.6</v>
       </c>
       <c r="E63" t="n">
-        <v>21.1</v>
+        <v>20.6</v>
       </c>
       <c r="F63" t="n">
         <v>10</v>
       </c>
       <c r="G63" t="n">
-        <v>20.73333333333333</v>
+        <v>20.72833333333333</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2643,22 +2701,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="C64" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="D64" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="E64" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="F64" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G64" t="n">
-        <v>20.73833333333333</v>
+        <v>20.73333333333333</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2678,22 +2736,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="C65" t="n">
         <v>20.9</v>
       </c>
       <c r="D65" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="E65" t="n">
         <v>20.9</v>
       </c>
       <c r="F65" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G65" t="n">
-        <v>20.745</v>
+        <v>20.73833333333333</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2725,10 +2783,10 @@
         <v>20.9</v>
       </c>
       <c r="F66" t="n">
-        <v>745.5389</v>
+        <v>50</v>
       </c>
       <c r="G66" t="n">
-        <v>20.75166666666667</v>
+        <v>20.745</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2748,22 +2806,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="C67" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="D67" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="E67" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="F67" t="n">
-        <v>16998.4107</v>
+        <v>745.5389</v>
       </c>
       <c r="G67" t="n">
-        <v>20.75666666666666</v>
+        <v>20.75166666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2795,10 +2853,10 @@
         <v>20.8</v>
       </c>
       <c r="F68" t="n">
-        <v>3001.5893</v>
+        <v>16998.4107</v>
       </c>
       <c r="G68" t="n">
-        <v>20.75833333333333</v>
+        <v>20.75666666666666</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2830,10 +2888,10 @@
         <v>20.8</v>
       </c>
       <c r="F69" t="n">
-        <v>50</v>
+        <v>3001.5893</v>
       </c>
       <c r="G69" t="n">
-        <v>20.76499999999999</v>
+        <v>20.75833333333333</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2853,31 +2911,35 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="C70" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="D70" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="E70" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="F70" t="n">
-        <v>19000</v>
+        <v>50</v>
       </c>
       <c r="G70" t="n">
-        <v>20.77333333333333</v>
+        <v>20.76499999999999</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K70" t="n">
+        <v>20.8</v>
+      </c>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
@@ -2888,32 +2950,40 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="C71" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="D71" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="E71" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="F71" t="n">
-        <v>52736.3914</v>
+        <v>19000</v>
       </c>
       <c r="G71" t="n">
-        <v>20.77499999999999</v>
+        <v>20.77333333333333</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K71" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2923,22 +2993,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="C72" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="D72" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="E72" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="F72" t="n">
-        <v>748.3150000000001</v>
+        <v>52736.3914</v>
       </c>
       <c r="G72" t="n">
-        <v>20.77833333333333</v>
+        <v>20.77499999999999</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2947,8 +3017,14 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2958,22 +3034,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="C73" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="D73" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="E73" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="F73" t="n">
-        <v>126.1278</v>
+        <v>748.3150000000001</v>
       </c>
       <c r="G73" t="n">
-        <v>20.77999999999999</v>
+        <v>20.77833333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2996,28 +3072,32 @@
         <v>20.8</v>
       </c>
       <c r="C74" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="D74" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="E74" t="n">
         <v>20.8</v>
       </c>
       <c r="F74" t="n">
-        <v>10</v>
+        <v>126.1278</v>
       </c>
       <c r="G74" t="n">
-        <v>20.77833333333333</v>
+        <v>20.77999999999999</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="K74" t="n">
+        <v>20.7</v>
+      </c>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
@@ -3028,32 +3108,40 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="C75" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="D75" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="E75" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="F75" t="n">
-        <v>271.5745</v>
+        <v>10</v>
       </c>
       <c r="G75" t="n">
-        <v>20.77999999999999</v>
+        <v>20.77833333333333</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K75" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3063,22 +3151,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="C76" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="D76" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="E76" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="F76" t="n">
-        <v>34817.6564</v>
+        <v>271.5745</v>
       </c>
       <c r="G76" t="n">
-        <v>20.77833333333333</v>
+        <v>20.77999999999999</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3087,8 +3175,14 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3101,19 +3195,19 @@
         <v>21</v>
       </c>
       <c r="C77" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="D77" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="E77" t="n">
         <v>21</v>
       </c>
       <c r="F77" t="n">
-        <v>6819.4848</v>
+        <v>34817.6564</v>
       </c>
       <c r="G77" t="n">
-        <v>20.77999999999999</v>
+        <v>20.77833333333333</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3136,19 +3230,19 @@
         <v>21</v>
       </c>
       <c r="C78" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="D78" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="E78" t="n">
         <v>21</v>
       </c>
       <c r="F78" t="n">
-        <v>48.0769</v>
+        <v>6819.4848</v>
       </c>
       <c r="G78" t="n">
-        <v>20.78499999999999</v>
+        <v>20.77999999999999</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3171,19 +3265,19 @@
         <v>21</v>
       </c>
       <c r="C79" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="D79" t="n">
         <v>21</v>
       </c>
       <c r="E79" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="F79" t="n">
-        <v>77843.5699</v>
+        <v>48.0769</v>
       </c>
       <c r="G79" t="n">
-        <v>20.79</v>
+        <v>20.78499999999999</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3203,22 +3297,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="C80" t="n">
         <v>20.9</v>
       </c>
       <c r="D80" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="E80" t="n">
         <v>20.9</v>
       </c>
       <c r="F80" t="n">
-        <v>31198.4722</v>
+        <v>77843.5699</v>
       </c>
       <c r="G80" t="n">
-        <v>20.79833333333333</v>
+        <v>20.79</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3250,10 +3344,10 @@
         <v>20.9</v>
       </c>
       <c r="F81" t="n">
-        <v>203705.6889</v>
+        <v>31198.4722</v>
       </c>
       <c r="G81" t="n">
-        <v>20.79666666666667</v>
+        <v>20.79833333333333</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3273,19 +3367,19 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="C82" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="D82" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="E82" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="F82" t="n">
-        <v>11</v>
+        <v>203705.6889</v>
       </c>
       <c r="G82" t="n">
         <v>20.79666666666667</v>
@@ -3308,22 +3402,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="C83" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="D83" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="E83" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="F83" t="n">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="G83" t="n">
-        <v>20.79833333333334</v>
+        <v>20.79666666666667</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3343,22 +3437,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="C84" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="D84" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="E84" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="F84" t="n">
-        <v>10947.0664</v>
+        <v>90</v>
       </c>
       <c r="G84" t="n">
-        <v>20.805</v>
+        <v>20.79833333333334</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3378,10 +3472,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="C85" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="D85" t="n">
         <v>21.1</v>
@@ -3390,10 +3484,10 @@
         <v>21</v>
       </c>
       <c r="F85" t="n">
-        <v>14085.9362</v>
+        <v>10947.0664</v>
       </c>
       <c r="G85" t="n">
-        <v>20.81</v>
+        <v>20.805</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3413,22 +3507,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="C86" t="n">
-        <v>21.3</v>
+        <v>21</v>
       </c>
       <c r="D86" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="E86" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="F86" t="n">
-        <v>33200</v>
+        <v>14085.9362</v>
       </c>
       <c r="G86" t="n">
-        <v>20.81333333333333</v>
+        <v>20.81</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3448,22 +3542,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="C87" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="D87" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="E87" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="F87" t="n">
-        <v>11</v>
+        <v>33200</v>
       </c>
       <c r="G87" t="n">
-        <v>20.81833333333334</v>
+        <v>20.81333333333333</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3483,22 +3577,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="C88" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="D88" t="n">
         <v>21.4</v>
       </c>
       <c r="E88" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="F88" t="n">
-        <v>12537.8215</v>
+        <v>11</v>
       </c>
       <c r="G88" t="n">
-        <v>20.82</v>
+        <v>20.81833333333334</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3518,22 +3612,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="C89" t="n">
         <v>21.3</v>
       </c>
       <c r="D89" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="E89" t="n">
         <v>21.3</v>
       </c>
-      <c r="E89" t="n">
-        <v>21.2</v>
-      </c>
       <c r="F89" t="n">
-        <v>2022</v>
+        <v>12537.8215</v>
       </c>
       <c r="G89" t="n">
-        <v>20.83</v>
+        <v>20.82</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3553,22 +3647,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="C90" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="D90" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="E90" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="F90" t="n">
-        <v>19349.0887</v>
+        <v>2022</v>
       </c>
       <c r="G90" t="n">
-        <v>20.83666666666666</v>
+        <v>20.83</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3588,22 +3682,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="C91" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="D91" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="E91" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="F91" t="n">
-        <v>30630.0945</v>
+        <v>19349.0887</v>
       </c>
       <c r="G91" t="n">
-        <v>20.84333333333333</v>
+        <v>20.83666666666666</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3626,19 +3720,19 @@
         <v>21.2</v>
       </c>
       <c r="C92" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="D92" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="E92" t="n">
         <v>21.2</v>
       </c>
       <c r="F92" t="n">
-        <v>140358.0301</v>
+        <v>30630.0945</v>
       </c>
       <c r="G92" t="n">
-        <v>20.855</v>
+        <v>20.84333333333333</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3658,7 +3752,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="C93" t="n">
         <v>21.4</v>
@@ -3667,13 +3761,13 @@
         <v>21.4</v>
       </c>
       <c r="E93" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="F93" t="n">
-        <v>15542.8309</v>
+        <v>140358.0301</v>
       </c>
       <c r="G93" t="n">
-        <v>20.865</v>
+        <v>20.855</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3693,28 +3787,28 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="C94" t="n">
         <v>21.4</v>
       </c>
       <c r="D94" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="E94" t="n">
         <v>21.3</v>
       </c>
       <c r="F94" t="n">
-        <v>12473.3359</v>
+        <v>15542.8309</v>
       </c>
       <c r="G94" t="n">
-        <v>20.875</v>
+        <v>20.865</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -3728,28 +3822,28 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="C95" t="n">
         <v>21.4</v>
       </c>
       <c r="D95" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="E95" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="F95" t="n">
-        <v>18693.5039</v>
+        <v>12473.3359</v>
       </c>
       <c r="G95" t="n">
-        <v>20.88500000000001</v>
+        <v>20.875</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -3763,7 +3857,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="C96" t="n">
         <v>21.4</v>
@@ -3772,19 +3866,19 @@
         <v>21.4</v>
       </c>
       <c r="E96" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="F96" t="n">
-        <v>158.9252</v>
+        <v>18693.5039</v>
       </c>
       <c r="G96" t="n">
-        <v>20.89500000000001</v>
+        <v>20.88500000000001</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -3798,22 +3892,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>21.1</v>
+        <v>21.4</v>
       </c>
       <c r="C97" t="n">
-        <v>21.1</v>
+        <v>21.4</v>
       </c>
       <c r="D97" t="n">
-        <v>21.1</v>
+        <v>21.4</v>
       </c>
       <c r="E97" t="n">
-        <v>21.1</v>
+        <v>21.4</v>
       </c>
       <c r="F97" t="n">
-        <v>768.2145</v>
+        <v>158.9252</v>
       </c>
       <c r="G97" t="n">
-        <v>20.90000000000001</v>
+        <v>20.89500000000001</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3833,22 +3927,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="C98" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="D98" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="E98" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="F98" t="n">
-        <v>2000</v>
+        <v>768.2145</v>
       </c>
       <c r="G98" t="n">
-        <v>20.90333333333334</v>
+        <v>20.90000000000001</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3874,16 +3968,16 @@
         <v>21</v>
       </c>
       <c r="D99" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="E99" t="n">
         <v>21</v>
       </c>
       <c r="F99" t="n">
-        <v>43086.7135</v>
+        <v>2000</v>
       </c>
       <c r="G99" t="n">
-        <v>20.90833333333334</v>
+        <v>20.90333333333334</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3903,22 +3997,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="C100" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="D100" t="n">
         <v>21.1</v>
       </c>
       <c r="E100" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="F100" t="n">
-        <v>7874.9777</v>
+        <v>43086.7135</v>
       </c>
       <c r="G100" t="n">
-        <v>20.91666666666667</v>
+        <v>20.90833333333334</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3950,10 +4044,10 @@
         <v>21.1</v>
       </c>
       <c r="F101" t="n">
-        <v>400</v>
+        <v>7874.9777</v>
       </c>
       <c r="G101" t="n">
-        <v>20.92500000000001</v>
+        <v>20.91666666666667</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3985,10 +4079,10 @@
         <v>21.1</v>
       </c>
       <c r="F102" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G102" t="n">
-        <v>20.93333333333334</v>
+        <v>20.92500000000001</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4020,10 +4114,10 @@
         <v>21.1</v>
       </c>
       <c r="F103" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G103" t="n">
-        <v>20.94166666666667</v>
+        <v>20.93333333333334</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4055,10 +4149,10 @@
         <v>21.1</v>
       </c>
       <c r="F104" t="n">
-        <v>3600</v>
+        <v>8000</v>
       </c>
       <c r="G104" t="n">
-        <v>20.95000000000001</v>
+        <v>20.94166666666667</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4090,10 +4184,10 @@
         <v>21.1</v>
       </c>
       <c r="F105" t="n">
-        <v>33000</v>
+        <v>3600</v>
       </c>
       <c r="G105" t="n">
-        <v>20.95833333333334</v>
+        <v>20.95000000000001</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4113,22 +4207,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="C106" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="D106" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="E106" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="F106" t="n">
-        <v>60</v>
+        <v>33000</v>
       </c>
       <c r="G106" t="n">
-        <v>20.97333333333334</v>
+        <v>20.95833333333334</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4163,7 +4257,7 @@
         <v>60</v>
       </c>
       <c r="G107" t="n">
-        <v>20.98500000000001</v>
+        <v>20.97333333333334</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4183,7 +4277,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="C108" t="n">
         <v>21.3</v>
@@ -4192,13 +4286,13 @@
         <v>21.3</v>
       </c>
       <c r="E108" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="F108" t="n">
-        <v>193.3802</v>
+        <v>60</v>
       </c>
       <c r="G108" t="n">
-        <v>20.99333333333334</v>
+        <v>20.98500000000001</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4218,22 +4312,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="C109" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="D109" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="E109" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="F109" t="n">
-        <v>10</v>
+        <v>193.3802</v>
       </c>
       <c r="G109" t="n">
-        <v>20.99666666666667</v>
+        <v>20.99333333333334</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4265,10 +4359,10 @@
         <v>21.2</v>
       </c>
       <c r="F110" t="n">
-        <v>8.181800000000001</v>
+        <v>10</v>
       </c>
       <c r="G110" t="n">
-        <v>21.00666666666667</v>
+        <v>20.99666666666667</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4288,22 +4382,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="C111" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="D111" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="E111" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="F111" t="n">
-        <v>10</v>
+        <v>8.181800000000001</v>
       </c>
       <c r="G111" t="n">
-        <v>21.02000000000001</v>
+        <v>21.00666666666667</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4323,7 +4417,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="C112" t="n">
         <v>21.3</v>
@@ -4332,13 +4426,13 @@
         <v>21.3</v>
       </c>
       <c r="E112" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="F112" t="n">
-        <v>60383.8045</v>
+        <v>10</v>
       </c>
       <c r="G112" t="n">
-        <v>21.03500000000001</v>
+        <v>21.02000000000001</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4361,19 +4455,19 @@
         <v>21.2</v>
       </c>
       <c r="C113" t="n">
-        <v>21</v>
+        <v>21.3</v>
       </c>
       <c r="D113" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E113" t="n">
         <v>21.2</v>
       </c>
-      <c r="E113" t="n">
-        <v>21</v>
-      </c>
       <c r="F113" t="n">
-        <v>135051.3179</v>
+        <v>60383.8045</v>
       </c>
       <c r="G113" t="n">
-        <v>21.04000000000001</v>
+        <v>21.03500000000001</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4393,22 +4487,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="C114" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="D114" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="E114" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="F114" t="n">
-        <v>390.4665</v>
+        <v>135051.3179</v>
       </c>
       <c r="G114" t="n">
-        <v>21.05166666666667</v>
+        <v>21.04000000000001</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4428,22 +4522,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>21</v>
+        <v>21.3</v>
       </c>
       <c r="C115" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="D115" t="n">
-        <v>21</v>
+        <v>21.3</v>
       </c>
       <c r="E115" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="F115" t="n">
-        <v>10</v>
+        <v>390.4665</v>
       </c>
       <c r="G115" t="n">
-        <v>21.05666666666667</v>
+        <v>21.05166666666667</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4463,22 +4557,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="C116" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="D116" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="E116" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="F116" t="n">
         <v>10</v>
       </c>
       <c r="G116" t="n">
-        <v>21.065</v>
+        <v>21.05666666666667</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4510,10 +4604,10 @@
         <v>21.1</v>
       </c>
       <c r="F117" t="n">
-        <v>27641.872</v>
+        <v>10</v>
       </c>
       <c r="G117" t="n">
-        <v>21.06666666666667</v>
+        <v>21.065</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4533,22 +4627,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="C118" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="D118" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="E118" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="F118" t="n">
-        <v>10</v>
+        <v>27641.872</v>
       </c>
       <c r="G118" t="n">
-        <v>21.06833333333333</v>
+        <v>21.06666666666667</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4568,22 +4662,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="C119" t="n">
-        <v>21.3</v>
+        <v>21</v>
       </c>
       <c r="D119" t="n">
-        <v>21.3</v>
+        <v>21</v>
       </c>
       <c r="E119" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="F119" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G119" t="n">
-        <v>21.07166666666667</v>
+        <v>21.06833333333333</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4606,19 +4700,19 @@
         <v>21.2</v>
       </c>
       <c r="C120" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="D120" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="E120" t="n">
         <v>21.2</v>
       </c>
       <c r="F120" t="n">
-        <v>1134.7094</v>
+        <v>100</v>
       </c>
       <c r="G120" t="n">
-        <v>21.07666666666666</v>
+        <v>21.07166666666667</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4638,22 +4732,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="C121" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="D121" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="E121" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="F121" t="n">
-        <v>36781.5443</v>
+        <v>1134.7094</v>
       </c>
       <c r="G121" t="n">
-        <v>21.07999999999999</v>
+        <v>21.07666666666666</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4673,22 +4767,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="C122" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="D122" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="E122" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="F122" t="n">
-        <v>79023.4433</v>
+        <v>36781.5443</v>
       </c>
       <c r="G122" t="n">
-        <v>21.09166666666666</v>
+        <v>21.07999999999999</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4708,10 +4802,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="C123" t="n">
         <v>21.3</v>
-      </c>
-      <c r="C123" t="n">
-        <v>21.1</v>
       </c>
       <c r="D123" t="n">
         <v>21.3</v>
@@ -4720,7 +4814,7 @@
         <v>21.1</v>
       </c>
       <c r="F123" t="n">
-        <v>5077.23</v>
+        <v>79023.4433</v>
       </c>
       <c r="G123" t="n">
         <v>21.09166666666666</v>
@@ -4743,19 +4837,19 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="C124" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="D124" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="E124" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="F124" t="n">
-        <v>83257.3511</v>
+        <v>5077.23</v>
       </c>
       <c r="G124" t="n">
         <v>21.09166666666666</v>
@@ -4778,19 +4872,19 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="C125" t="n">
         <v>20.9</v>
       </c>
       <c r="D125" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="E125" t="n">
         <v>20.9</v>
       </c>
       <c r="F125" t="n">
-        <v>40302.9266</v>
+        <v>83257.3511</v>
       </c>
       <c r="G125" t="n">
         <v>21.09166666666666</v>
@@ -4825,7 +4919,7 @@
         <v>20.9</v>
       </c>
       <c r="F126" t="n">
-        <v>86174.71400000001</v>
+        <v>40302.9266</v>
       </c>
       <c r="G126" t="n">
         <v>21.09166666666666</v>
@@ -4848,22 +4942,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="C127" t="n">
-        <v>20.5</v>
+        <v>20.9</v>
       </c>
       <c r="D127" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="E127" t="n">
-        <v>20.5</v>
+        <v>20.9</v>
       </c>
       <c r="F127" t="n">
-        <v>203689.5463</v>
+        <v>86174.71400000001</v>
       </c>
       <c r="G127" t="n">
-        <v>21.08666666666666</v>
+        <v>21.09166666666666</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4883,22 +4977,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="C128" t="n">
-        <v>20.9</v>
+        <v>20.5</v>
       </c>
       <c r="D128" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="E128" t="n">
-        <v>20.9</v>
+        <v>20.5</v>
       </c>
       <c r="F128" t="n">
-        <v>10</v>
+        <v>203689.5463</v>
       </c>
       <c r="G128" t="n">
-        <v>21.08833333333333</v>
+        <v>21.08666666666666</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4918,7 +5012,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="C129" t="n">
         <v>20.9</v>
@@ -4927,13 +5021,13 @@
         <v>20.9</v>
       </c>
       <c r="E129" t="n">
-        <v>20.5</v>
+        <v>20.9</v>
       </c>
       <c r="F129" t="n">
-        <v>42629.007</v>
+        <v>10</v>
       </c>
       <c r="G129" t="n">
-        <v>21.09</v>
+        <v>21.08833333333333</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4956,19 +5050,19 @@
         <v>20.8</v>
       </c>
       <c r="C130" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="D130" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="E130" t="n">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="F130" t="n">
-        <v>10</v>
+        <v>42629.007</v>
       </c>
       <c r="G130" t="n">
-        <v>21.08833333333333</v>
+        <v>21.09</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4983,6 +5077,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="C131" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="D131" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="E131" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="F131" t="n">
+        <v>10</v>
+      </c>
+      <c r="G131" t="n">
+        <v>21.08833333333333</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-17 BackTest CMT.xlsx
+++ b/BackTest/2019-10-17 BackTest CMT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M131"/>
+  <dimension ref="A1:N141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>725.4589</v>
       </c>
       <c r="G2" t="n">
+        <v>20.68666666666667</v>
+      </c>
+      <c r="H2" t="n">
         <v>20.84833333333334</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>31.3942</v>
       </c>
       <c r="G3" t="n">
+        <v>20.68000000000001</v>
+      </c>
+      <c r="H3" t="n">
         <v>20.84333333333334</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>487.6442307692308</v>
       </c>
       <c r="G4" t="n">
+        <v>20.69333333333334</v>
+      </c>
+      <c r="H4" t="n">
         <v>20.83666666666667</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>10010</v>
       </c>
       <c r="G5" t="n">
+        <v>20.69333333333334</v>
+      </c>
+      <c r="H5" t="n">
         <v>20.82666666666666</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>30958.1902</v>
       </c>
       <c r="G6" t="n">
+        <v>20.67333333333334</v>
+      </c>
+      <c r="H6" t="n">
         <v>20.815</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>19.0439</v>
       </c>
       <c r="G7" t="n">
+        <v>20.65333333333334</v>
+      </c>
+      <c r="H7" t="n">
         <v>20.81166666666666</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>490</v>
       </c>
       <c r="G8" t="n">
+        <v>20.64666666666667</v>
+      </c>
+      <c r="H8" t="n">
         <v>20.80833333333333</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>1000.0001</v>
       </c>
       <c r="G9" t="n">
+        <v>20.64</v>
+      </c>
+      <c r="H9" t="n">
         <v>20.80166666666667</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,27 @@
         <v>36934.7297</v>
       </c>
       <c r="G10" t="n">
+        <v>20.62</v>
+      </c>
+      <c r="H10" t="n">
         <v>20.795</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>20.7</v>
+      </c>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +801,27 @@
         <v>344.9652</v>
       </c>
       <c r="G11" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="H11" t="n">
         <v>20.78833333333334</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>20.4</v>
+      </c>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +845,27 @@
         <v>10030.91787439613</v>
       </c>
       <c r="G12" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="H12" t="n">
         <v>20.78833333333334</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>20.4</v>
+      </c>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +889,25 @@
         <v>16999.9999</v>
       </c>
       <c r="G13" t="n">
+        <v>20.58666666666667</v>
+      </c>
+      <c r="H13" t="n">
         <v>20.785</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +931,25 @@
         <v>924.6917692307692</v>
       </c>
       <c r="G14" t="n">
+        <v>20.59333333333334</v>
+      </c>
+      <c r="H14" t="n">
         <v>20.78666666666667</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +973,25 @@
         <v>16075.5857</v>
       </c>
       <c r="G15" t="n">
+        <v>20.61333333333333</v>
+      </c>
+      <c r="H15" t="n">
         <v>20.78666666666667</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1015,25 @@
         <v>118.2211</v>
       </c>
       <c r="G16" t="n">
+        <v>20.62666666666667</v>
+      </c>
+      <c r="H16" t="n">
         <v>20.78333333333333</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1057,25 @@
         <v>21392.4124</v>
       </c>
       <c r="G17" t="n">
+        <v>20.65333333333333</v>
+      </c>
+      <c r="H17" t="n">
         <v>20.78666666666667</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1099,25 @@
         <v>26539.9523</v>
       </c>
       <c r="G18" t="n">
+        <v>20.68</v>
+      </c>
+      <c r="H18" t="n">
         <v>20.78833333333333</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1141,25 @@
         <v>6810</v>
       </c>
       <c r="G19" t="n">
+        <v>20.67333333333333</v>
+      </c>
+      <c r="H19" t="n">
         <v>20.78166666666666</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1183,25 @@
         <v>4135.452</v>
       </c>
       <c r="G20" t="n">
+        <v>20.67333333333333</v>
+      </c>
+      <c r="H20" t="n">
         <v>20.77833333333333</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1225,25 @@
         <v>37759.548</v>
       </c>
       <c r="G21" t="n">
+        <v>20.66666666666666</v>
+      </c>
+      <c r="H21" t="n">
         <v>20.77166666666666</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1267,25 @@
         <v>907.65</v>
       </c>
       <c r="G22" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="H22" t="n">
         <v>20.775</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1309,25 @@
         <v>7000</v>
       </c>
       <c r="G23" t="n">
+        <v>20.74</v>
+      </c>
+      <c r="H23" t="n">
         <v>20.775</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1351,25 @@
         <v>117.9255</v>
       </c>
       <c r="G24" t="n">
+        <v>20.74666666666667</v>
+      </c>
+      <c r="H24" t="n">
         <v>20.77666666666666</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1393,25 @@
         <v>3745.9336</v>
       </c>
       <c r="G25" t="n">
+        <v>20.76666666666667</v>
+      </c>
+      <c r="H25" t="n">
         <v>20.77666666666666</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1435,25 @@
         <v>74.0664</v>
       </c>
       <c r="G26" t="n">
+        <v>20.78666666666667</v>
+      </c>
+      <c r="H26" t="n">
         <v>20.77333333333333</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1477,25 @@
         <v>947.8672985781991</v>
       </c>
       <c r="G27" t="n">
+        <v>20.81333333333334</v>
+      </c>
+      <c r="H27" t="n">
         <v>20.77666666666666</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1519,25 @@
         <v>6432.132701421801</v>
       </c>
       <c r="G28" t="n">
+        <v>20.85333333333334</v>
+      </c>
+      <c r="H28" t="n">
         <v>20.77666666666666</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1561,25 @@
         <v>14877.5952</v>
       </c>
       <c r="G29" t="n">
+        <v>20.88</v>
+      </c>
+      <c r="H29" t="n">
         <v>20.78166666666666</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1603,25 @@
         <v>7230.0001</v>
       </c>
       <c r="G30" t="n">
+        <v>20.86666666666667</v>
+      </c>
+      <c r="H30" t="n">
         <v>20.78166666666666</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1645,25 @@
         <v>3620.0001</v>
       </c>
       <c r="G31" t="n">
+        <v>20.86</v>
+      </c>
+      <c r="H31" t="n">
         <v>20.775</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1687,25 @@
         <v>10</v>
       </c>
       <c r="G32" t="n">
+        <v>20.84</v>
+      </c>
+      <c r="H32" t="n">
         <v>20.775</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1729,25 @@
         <v>2518.7328</v>
       </c>
       <c r="G33" t="n">
+        <v>20.82</v>
+      </c>
+      <c r="H33" t="n">
         <v>20.77333333333333</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1771,25 @@
         <v>1810</v>
       </c>
       <c r="G34" t="n">
+        <v>20.82666666666667</v>
+      </c>
+      <c r="H34" t="n">
         <v>20.77333333333333</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,22 +1813,27 @@
         <v>4625.812</v>
       </c>
       <c r="G35" t="n">
+        <v>20.84</v>
+      </c>
+      <c r="H35" t="n">
         <v>20.77</v>
       </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>20.8</v>
       </c>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1642,24 +1857,27 @@
         <v>17.486</v>
       </c>
       <c r="G36" t="n">
+        <v>20.86666666666667</v>
+      </c>
+      <c r="H36" t="n">
         <v>20.77</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="n">
         <v>20.8</v>
       </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1683,24 +1901,25 @@
         <v>356.2851</v>
       </c>
       <c r="G37" t="n">
+        <v>20.85333333333334</v>
+      </c>
+      <c r="H37" t="n">
         <v>20.77</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1724,18 +1943,25 @@
         <v>362.4479</v>
       </c>
       <c r="G38" t="n">
+        <v>20.83333333333334</v>
+      </c>
+      <c r="H38" t="n">
         <v>20.77</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1759,18 +1985,25 @@
         <v>4637.969</v>
       </c>
       <c r="G39" t="n">
+        <v>20.83333333333334</v>
+      </c>
+      <c r="H39" t="n">
         <v>20.765</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1794,18 +2027,25 @@
         <v>731.6727</v>
       </c>
       <c r="G40" t="n">
+        <v>20.83333333333334</v>
+      </c>
+      <c r="H40" t="n">
         <v>20.76</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1829,18 +2069,25 @@
         <v>10</v>
       </c>
       <c r="G41" t="n">
+        <v>20.82666666666667</v>
+      </c>
+      <c r="H41" t="n">
         <v>20.75333333333333</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1864,18 +2111,25 @@
         <v>6966.1147</v>
       </c>
       <c r="G42" t="n">
+        <v>20.79333333333334</v>
+      </c>
+      <c r="H42" t="n">
         <v>20.74833333333333</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1899,18 +2153,27 @@
         <v>80</v>
       </c>
       <c r="G43" t="n">
+        <v>20.76000000000001</v>
+      </c>
+      <c r="H43" t="n">
         <v>20.74333333333333</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>20.6</v>
+      </c>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1934,18 +2197,27 @@
         <v>4973.3055</v>
       </c>
       <c r="G44" t="n">
+        <v>20.72000000000001</v>
+      </c>
+      <c r="H44" t="n">
         <v>20.73666666666666</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>20.6</v>
+      </c>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1969,18 +2241,27 @@
         <v>12894.6046</v>
       </c>
       <c r="G45" t="n">
+        <v>20.71333333333335</v>
+      </c>
+      <c r="H45" t="n">
         <v>20.72999999999999</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>20.6</v>
+      </c>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2004,18 +2285,27 @@
         <v>17014.7092</v>
       </c>
       <c r="G46" t="n">
+        <v>20.70666666666668</v>
+      </c>
+      <c r="H46" t="n">
         <v>20.72333333333332</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>20.6</v>
+      </c>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2039,18 +2329,27 @@
         <v>12183.7298</v>
       </c>
       <c r="G47" t="n">
+        <v>20.68000000000001</v>
+      </c>
+      <c r="H47" t="n">
         <v>20.71499999999999</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>20.6</v>
+      </c>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2074,18 +2373,27 @@
         <v>30604.806</v>
       </c>
       <c r="G48" t="n">
+        <v>20.67333333333335</v>
+      </c>
+      <c r="H48" t="n">
         <v>20.71333333333332</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>20.4</v>
+      </c>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2109,22 +2417,27 @@
         <v>10</v>
       </c>
       <c r="G49" t="n">
+        <v>20.67333333333335</v>
+      </c>
+      <c r="H49" t="n">
         <v>20.71666666666665</v>
       </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>20.6</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
         <v>20.6</v>
       </c>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,24 +2461,25 @@
         <v>43510.13455714285</v>
       </c>
       <c r="G50" t="n">
+        <v>20.68666666666668</v>
+      </c>
+      <c r="H50" t="n">
         <v>20.72333333333332</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2189,24 +2503,25 @@
         <v>20000</v>
       </c>
       <c r="G51" t="n">
+        <v>20.67333333333335</v>
+      </c>
+      <c r="H51" t="n">
         <v>20.71999999999998</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2230,24 +2545,25 @@
         <v>50000</v>
       </c>
       <c r="G52" t="n">
+        <v>20.65333333333335</v>
+      </c>
+      <c r="H52" t="n">
         <v>20.71499999999999</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2271,24 +2587,25 @@
         <v>30</v>
       </c>
       <c r="G53" t="n">
+        <v>20.62666666666668</v>
+      </c>
+      <c r="H53" t="n">
         <v>20.71166666666666</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2312,24 +2629,25 @@
         <v>10</v>
       </c>
       <c r="G54" t="n">
+        <v>20.62000000000001</v>
+      </c>
+      <c r="H54" t="n">
         <v>20.70999999999999</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2353,24 +2671,25 @@
         <v>110</v>
       </c>
       <c r="G55" t="n">
+        <v>20.60000000000001</v>
+      </c>
+      <c r="H55" t="n">
         <v>20.70499999999999</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2394,24 +2713,27 @@
         <v>10</v>
       </c>
       <c r="G56" t="n">
+        <v>20.60666666666667</v>
+      </c>
+      <c r="H56" t="n">
         <v>20.70499999999999</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2435,24 +2757,25 @@
         <v>1755.1456</v>
       </c>
       <c r="G57" t="n">
+        <v>20.60666666666667</v>
+      </c>
+      <c r="H57" t="n">
         <v>20.70333333333332</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2476,24 +2799,25 @@
         <v>36319.5249</v>
       </c>
       <c r="G58" t="n">
+        <v>20.63333333333334</v>
+      </c>
+      <c r="H58" t="n">
         <v>20.70833333333332</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2517,24 +2841,25 @@
         <v>34010.0881</v>
       </c>
       <c r="G59" t="n">
+        <v>20.65333333333333</v>
+      </c>
+      <c r="H59" t="n">
         <v>20.71166666666666</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2558,24 +2883,25 @@
         <v>10</v>
       </c>
       <c r="G60" t="n">
+        <v>20.68666666666667</v>
+      </c>
+      <c r="H60" t="n">
         <v>20.71999999999999</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2599,24 +2925,25 @@
         <v>25000</v>
       </c>
       <c r="G61" t="n">
+        <v>20.70666666666666</v>
+      </c>
+      <c r="H61" t="n">
         <v>20.72499999999999</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2640,25 +2967,26 @@
         <v>429.665</v>
       </c>
       <c r="G62" t="n">
+        <v>20.74</v>
+      </c>
+      <c r="H62" t="n">
         <v>20.72833333333333</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
-        <v>1</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1.009563106796116</v>
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2681,18 +3009,25 @@
         <v>10</v>
       </c>
       <c r="G63" t="n">
+        <v>20.74</v>
+      </c>
+      <c r="H63" t="n">
         <v>20.72833333333333</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2716,18 +3051,25 @@
         <v>10</v>
       </c>
       <c r="G64" t="n">
+        <v>20.76</v>
+      </c>
+      <c r="H64" t="n">
         <v>20.73333333333333</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2751,18 +3093,25 @@
         <v>20</v>
       </c>
       <c r="G65" t="n">
+        <v>20.75333333333333</v>
+      </c>
+      <c r="H65" t="n">
         <v>20.73833333333333</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2786,18 +3135,25 @@
         <v>50</v>
       </c>
       <c r="G66" t="n">
+        <v>20.77333333333333</v>
+      </c>
+      <c r="H66" t="n">
         <v>20.745</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2821,18 +3177,25 @@
         <v>745.5389</v>
       </c>
       <c r="G67" t="n">
+        <v>20.79999999999999</v>
+      </c>
+      <c r="H67" t="n">
         <v>20.75166666666667</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2856,18 +3219,25 @@
         <v>16998.4107</v>
       </c>
       <c r="G68" t="n">
+        <v>20.82666666666666</v>
+      </c>
+      <c r="H68" t="n">
         <v>20.75666666666666</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2891,18 +3261,25 @@
         <v>3001.5893</v>
       </c>
       <c r="G69" t="n">
+        <v>20.83333333333333</v>
+      </c>
+      <c r="H69" t="n">
         <v>20.75833333333333</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2926,22 +3303,25 @@
         <v>50</v>
       </c>
       <c r="G70" t="n">
+        <v>20.86</v>
+      </c>
+      <c r="H70" t="n">
         <v>20.76499999999999</v>
       </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K70" t="n">
-        <v>20.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2965,26 +3345,25 @@
         <v>19000</v>
       </c>
       <c r="G71" t="n">
+        <v>20.87333333333333</v>
+      </c>
+      <c r="H71" t="n">
         <v>20.77333333333333</v>
       </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K71" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3008,24 +3387,25 @@
         <v>52736.3914</v>
       </c>
       <c r="G72" t="n">
+        <v>20.88666666666666</v>
+      </c>
+      <c r="H72" t="n">
         <v>20.77499999999999</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3049,18 +3429,25 @@
         <v>748.3150000000001</v>
       </c>
       <c r="G73" t="n">
+        <v>20.86666666666666</v>
+      </c>
+      <c r="H73" t="n">
         <v>20.77833333333333</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3084,22 +3471,27 @@
         <v>126.1278</v>
       </c>
       <c r="G74" t="n">
+        <v>20.86666666666666</v>
+      </c>
+      <c r="H74" t="n">
         <v>20.77999999999999</v>
       </c>
-      <c r="H74" t="n">
-        <v>1</v>
-      </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>20.7</v>
+        <v>0</v>
       </c>
       <c r="K74" t="n">
         <v>20.7</v>
       </c>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3123,26 +3515,25 @@
         <v>10</v>
       </c>
       <c r="G75" t="n">
+        <v>20.84666666666666</v>
+      </c>
+      <c r="H75" t="n">
         <v>20.77833333333333</v>
       </c>
-      <c r="H75" t="n">
-        <v>1</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="K75" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3166,24 +3557,25 @@
         <v>271.5745</v>
       </c>
       <c r="G76" t="n">
+        <v>20.84666666666666</v>
+      </c>
+      <c r="H76" t="n">
         <v>20.77999999999999</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3207,18 +3599,25 @@
         <v>34817.6564</v>
       </c>
       <c r="G77" t="n">
+        <v>20.85333333333333</v>
+      </c>
+      <c r="H77" t="n">
         <v>20.77833333333333</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3242,18 +3641,25 @@
         <v>6819.4848</v>
       </c>
       <c r="G78" t="n">
+        <v>20.88666666666666</v>
+      </c>
+      <c r="H78" t="n">
         <v>20.77999999999999</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3277,18 +3683,25 @@
         <v>48.0769</v>
       </c>
       <c r="G79" t="n">
+        <v>20.88</v>
+      </c>
+      <c r="H79" t="n">
         <v>20.78499999999999</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3312,18 +3725,25 @@
         <v>77843.5699</v>
       </c>
       <c r="G80" t="n">
+        <v>20.88</v>
+      </c>
+      <c r="H80" t="n">
         <v>20.79</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3347,18 +3767,25 @@
         <v>31198.4722</v>
       </c>
       <c r="G81" t="n">
+        <v>20.88</v>
+      </c>
+      <c r="H81" t="n">
         <v>20.79833333333333</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3382,18 +3809,25 @@
         <v>203705.6889</v>
       </c>
       <c r="G82" t="n">
+        <v>20.88</v>
+      </c>
+      <c r="H82" t="n">
         <v>20.79666666666667</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3417,18 +3851,25 @@
         <v>11</v>
       </c>
       <c r="G83" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="H83" t="n">
         <v>20.79666666666667</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3452,18 +3893,25 @@
         <v>90</v>
       </c>
       <c r="G84" t="n">
+        <v>20.90666666666666</v>
+      </c>
+      <c r="H84" t="n">
         <v>20.79833333333334</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3487,18 +3935,25 @@
         <v>10947.0664</v>
       </c>
       <c r="G85" t="n">
+        <v>20.92666666666666</v>
+      </c>
+      <c r="H85" t="n">
         <v>20.805</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3522,18 +3977,25 @@
         <v>14085.9362</v>
       </c>
       <c r="G86" t="n">
+        <v>20.93333333333333</v>
+      </c>
+      <c r="H86" t="n">
         <v>20.81</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3557,18 +4019,25 @@
         <v>33200</v>
       </c>
       <c r="G87" t="n">
+        <v>20.96666666666666</v>
+      </c>
+      <c r="H87" t="n">
         <v>20.81333333333333</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3592,18 +4061,25 @@
         <v>11</v>
       </c>
       <c r="G88" t="n">
+        <v>21.01333333333333</v>
+      </c>
+      <c r="H88" t="n">
         <v>20.81833333333334</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3627,18 +4103,25 @@
         <v>12537.8215</v>
       </c>
       <c r="G89" t="n">
+        <v>21.04</v>
+      </c>
+      <c r="H89" t="n">
         <v>20.82</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3662,18 +4145,25 @@
         <v>2022</v>
       </c>
       <c r="G90" t="n">
+        <v>21.07333333333333</v>
+      </c>
+      <c r="H90" t="n">
         <v>20.83</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3697,18 +4187,25 @@
         <v>19349.0887</v>
       </c>
       <c r="G91" t="n">
+        <v>21.08666666666667</v>
+      </c>
+      <c r="H91" t="n">
         <v>20.83666666666666</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3732,18 +4229,25 @@
         <v>30630.0945</v>
       </c>
       <c r="G92" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="H92" t="n">
         <v>20.84333333333333</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3767,18 +4271,25 @@
         <v>140358.0301</v>
       </c>
       <c r="G93" t="n">
+        <v>21.12</v>
+      </c>
+      <c r="H93" t="n">
         <v>20.855</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3802,18 +4313,25 @@
         <v>15542.8309</v>
       </c>
       <c r="G94" t="n">
+        <v>21.14666666666666</v>
+      </c>
+      <c r="H94" t="n">
         <v>20.865</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3837,18 +4355,25 @@
         <v>12473.3359</v>
       </c>
       <c r="G95" t="n">
+        <v>21.18</v>
+      </c>
+      <c r="H95" t="n">
         <v>20.875</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
-        <v>1</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3872,18 +4397,25 @@
         <v>18693.5039</v>
       </c>
       <c r="G96" t="n">
+        <v>21.21333333333333</v>
+      </c>
+      <c r="H96" t="n">
         <v>20.88500000000001</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
-        <v>1</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3907,18 +4439,25 @@
         <v>158.9252</v>
       </c>
       <c r="G97" t="n">
+        <v>21.24666666666666</v>
+      </c>
+      <c r="H97" t="n">
         <v>20.89500000000001</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3942,20 +4481,25 @@
         <v>768.2145</v>
       </c>
       <c r="G98" t="n">
+        <v>21.24666666666666</v>
+      </c>
+      <c r="H98" t="n">
         <v>20.90000000000001</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>1</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3977,18 +4521,21 @@
         <v>2000</v>
       </c>
       <c r="G99" t="n">
+        <v>21.25333333333333</v>
+      </c>
+      <c r="H99" t="n">
         <v>20.90333333333334</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4012,18 +4559,21 @@
         <v>43086.7135</v>
       </c>
       <c r="G100" t="n">
+        <v>21.24666666666666</v>
+      </c>
+      <c r="H100" t="n">
         <v>20.90833333333334</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>1</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4047,18 +4597,21 @@
         <v>7874.9777</v>
       </c>
       <c r="G101" t="n">
+        <v>21.25333333333333</v>
+      </c>
+      <c r="H101" t="n">
         <v>20.91666666666667</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4082,18 +4635,21 @@
         <v>400</v>
       </c>
       <c r="G102" t="n">
+        <v>21.24</v>
+      </c>
+      <c r="H102" t="n">
         <v>20.92500000000001</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4117,18 +4673,21 @@
         <v>1000</v>
       </c>
       <c r="G103" t="n">
+        <v>21.22</v>
+      </c>
+      <c r="H103" t="n">
         <v>20.93333333333334</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4152,18 +4711,21 @@
         <v>8000</v>
       </c>
       <c r="G104" t="n">
+        <v>21.20666666666667</v>
+      </c>
+      <c r="H104" t="n">
         <v>20.94166666666667</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4187,18 +4749,21 @@
         <v>3600</v>
       </c>
       <c r="G105" t="n">
+        <v>21.19333333333334</v>
+      </c>
+      <c r="H105" t="n">
         <v>20.95000000000001</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>1</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4222,18 +4787,21 @@
         <v>33000</v>
       </c>
       <c r="G106" t="n">
+        <v>21.19333333333334</v>
+      </c>
+      <c r="H106" t="n">
         <v>20.95833333333334</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4257,18 +4825,21 @@
         <v>60</v>
       </c>
       <c r="G107" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="H107" t="n">
         <v>20.97333333333334</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4292,18 +4863,21 @@
         <v>60</v>
       </c>
       <c r="G108" t="n">
+        <v>21.19333333333334</v>
+      </c>
+      <c r="H108" t="n">
         <v>20.98500000000001</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>1</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4327,18 +4901,21 @@
         <v>193.3802</v>
       </c>
       <c r="G109" t="n">
+        <v>21.18666666666667</v>
+      </c>
+      <c r="H109" t="n">
         <v>20.99333333333334</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>1</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4362,18 +4939,21 @@
         <v>10</v>
       </c>
       <c r="G110" t="n">
+        <v>21.17333333333334</v>
+      </c>
+      <c r="H110" t="n">
         <v>20.99666666666667</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>1</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4397,18 +4977,21 @@
         <v>8.181800000000001</v>
       </c>
       <c r="G111" t="n">
+        <v>21.16000000000001</v>
+      </c>
+      <c r="H111" t="n">
         <v>21.00666666666667</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>1</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4432,18 +5015,21 @@
         <v>10</v>
       </c>
       <c r="G112" t="n">
+        <v>21.15333333333335</v>
+      </c>
+      <c r="H112" t="n">
         <v>21.02000000000001</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>1</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4467,18 +5053,21 @@
         <v>60383.8045</v>
       </c>
       <c r="G113" t="n">
+        <v>21.16666666666668</v>
+      </c>
+      <c r="H113" t="n">
         <v>21.03500000000001</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>1</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4502,18 +5091,21 @@
         <v>135051.3179</v>
       </c>
       <c r="G114" t="n">
+        <v>21.16666666666668</v>
+      </c>
+      <c r="H114" t="n">
         <v>21.04000000000001</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>1</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4537,18 +5129,21 @@
         <v>390.4665</v>
       </c>
       <c r="G115" t="n">
+        <v>21.17333333333335</v>
+      </c>
+      <c r="H115" t="n">
         <v>21.05166666666667</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>1</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4572,18 +5167,21 @@
         <v>10</v>
       </c>
       <c r="G116" t="n">
+        <v>21.16666666666668</v>
+      </c>
+      <c r="H116" t="n">
         <v>21.05666666666667</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4607,18 +5205,21 @@
         <v>10</v>
       </c>
       <c r="G117" t="n">
+        <v>21.16666666666668</v>
+      </c>
+      <c r="H117" t="n">
         <v>21.065</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>1</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4642,18 +5243,21 @@
         <v>27641.872</v>
       </c>
       <c r="G118" t="n">
+        <v>21.16666666666668</v>
+      </c>
+      <c r="H118" t="n">
         <v>21.06666666666667</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>1</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4677,18 +5281,21 @@
         <v>10</v>
       </c>
       <c r="G119" t="n">
+        <v>21.16000000000001</v>
+      </c>
+      <c r="H119" t="n">
         <v>21.06833333333333</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>1</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4712,18 +5319,21 @@
         <v>100</v>
       </c>
       <c r="G120" t="n">
+        <v>21.17333333333334</v>
+      </c>
+      <c r="H120" t="n">
         <v>21.07166666666667</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>1</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4747,18 +5357,21 @@
         <v>1134.7094</v>
       </c>
       <c r="G121" t="n">
+        <v>21.18000000000001</v>
+      </c>
+      <c r="H121" t="n">
         <v>21.07666666666666</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>1</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4782,18 +5395,21 @@
         <v>36781.5443</v>
       </c>
       <c r="G122" t="n">
+        <v>21.16666666666667</v>
+      </c>
+      <c r="H122" t="n">
         <v>21.07999999999999</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>1</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4817,18 +5433,21 @@
         <v>79023.4433</v>
       </c>
       <c r="G123" t="n">
+        <v>21.16666666666667</v>
+      </c>
+      <c r="H123" t="n">
         <v>21.09166666666666</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>1</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4852,18 +5471,21 @@
         <v>5077.23</v>
       </c>
       <c r="G124" t="n">
+        <v>21.15333333333334</v>
+      </c>
+      <c r="H124" t="n">
         <v>21.09166666666666</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>1</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4887,18 +5509,21 @@
         <v>83257.3511</v>
       </c>
       <c r="G125" t="n">
+        <v>21.13333333333334</v>
+      </c>
+      <c r="H125" t="n">
         <v>21.09166666666666</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>1</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4922,18 +5547,21 @@
         <v>40302.9266</v>
       </c>
       <c r="G126" t="n">
+        <v>21.11333333333334</v>
+      </c>
+      <c r="H126" t="n">
         <v>21.09166666666666</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>1</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4957,18 +5585,21 @@
         <v>86174.71400000001</v>
       </c>
       <c r="G127" t="n">
+        <v>21.08666666666667</v>
+      </c>
+      <c r="H127" t="n">
         <v>21.09166666666666</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4992,18 +5623,21 @@
         <v>203689.5463</v>
       </c>
       <c r="G128" t="n">
+        <v>21.03333333333334</v>
+      </c>
+      <c r="H128" t="n">
         <v>21.08666666666666</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5027,18 +5661,21 @@
         <v>10</v>
       </c>
       <c r="G129" t="n">
+        <v>21.02666666666667</v>
+      </c>
+      <c r="H129" t="n">
         <v>21.08833333333333</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5062,18 +5699,21 @@
         <v>42629.007</v>
       </c>
       <c r="G130" t="n">
+        <v>21.01333333333333</v>
+      </c>
+      <c r="H130" t="n">
         <v>21.09</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5097,18 +5737,401 @@
         <v>10</v>
       </c>
       <c r="G131" t="n">
+        <v>21</v>
+      </c>
+      <c r="H131" t="n">
         <v>21.08833333333333</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="C132" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="D132" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="E132" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="F132" t="n">
+        <v>8470.769</v>
+      </c>
+      <c r="G132" t="n">
+        <v>20.98</v>
+      </c>
+      <c r="H132" t="n">
+        <v>21.08833333333333</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="C133" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="D133" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="E133" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="F133" t="n">
+        <v>95043.4617</v>
+      </c>
+      <c r="G133" t="n">
+        <v>20.96</v>
+      </c>
+      <c r="H133" t="n">
+        <v>21.09</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="C134" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="D134" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="E134" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="F134" t="n">
+        <v>10</v>
+      </c>
+      <c r="G134" t="n">
+        <v>20.93333333333333</v>
+      </c>
+      <c r="H134" t="n">
+        <v>21.08499999999999</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="C135" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="D135" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="E135" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="F135" t="n">
+        <v>10</v>
+      </c>
+      <c r="G135" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="H135" t="n">
+        <v>21.08499999999999</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="C136" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="D136" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="E136" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="F136" t="n">
+        <v>10</v>
+      </c>
+      <c r="G136" t="n">
+        <v>20.86666666666667</v>
+      </c>
+      <c r="H136" t="n">
+        <v>21.08166666666666</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="C137" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="D137" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="E137" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="F137" t="n">
+        <v>10</v>
+      </c>
+      <c r="G137" t="n">
+        <v>20.82666666666666</v>
+      </c>
+      <c r="H137" t="n">
+        <v>21.07333333333333</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="C138" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="D138" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="E138" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="F138" t="n">
+        <v>720</v>
+      </c>
+      <c r="G138" t="n">
+        <v>20.79333333333333</v>
+      </c>
+      <c r="H138" t="n">
+        <v>21.06833333333333</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="C139" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="D139" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="E139" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="F139" t="n">
+        <v>10005.8406</v>
+      </c>
+      <c r="G139" t="n">
+        <v>20.75333333333333</v>
+      </c>
+      <c r="H139" t="n">
+        <v>21.06</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="C140" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="D140" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="E140" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="F140" t="n">
+        <v>390</v>
+      </c>
+      <c r="G140" t="n">
+        <v>20.74666666666667</v>
+      </c>
+      <c r="H140" t="n">
+        <v>21.05833333333333</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="C141" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="D141" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="E141" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="F141" t="n">
+        <v>30</v>
+      </c>
+      <c r="G141" t="n">
+        <v>20.74</v>
+      </c>
+      <c r="H141" t="n">
+        <v>21.05666666666666</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-17 BackTest CMT.xlsx
+++ b/BackTest/2019-10-17 BackTest CMT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N141"/>
+  <dimension ref="A1:M170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="C2" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="D2" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="E2" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="F2" t="n">
-        <v>725.4589</v>
+        <v>500</v>
       </c>
       <c r="G2" t="n">
-        <v>20.68666666666667</v>
+        <v>6.66666666666673</v>
       </c>
       <c r="H2" t="n">
-        <v>20.84833333333334</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -479,33 +471,34 @@
         <v>20.8</v>
       </c>
       <c r="C3" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="D3" t="n">
         <v>20.8</v>
       </c>
       <c r="E3" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="F3" t="n">
-        <v>31.3942</v>
+        <v>3100</v>
       </c>
       <c r="G3" t="n">
-        <v>20.68000000000001</v>
+        <v>6.66666666666673</v>
       </c>
       <c r="H3" t="n">
-        <v>20.84333333333334</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
+        <v>20.8</v>
+      </c>
+      <c r="K3" t="n">
+        <v>20.8</v>
+      </c>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +507,41 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="C4" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="D4" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="E4" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="F4" t="n">
-        <v>487.6442307692308</v>
+        <v>24</v>
       </c>
       <c r="G4" t="n">
-        <v>20.69333333333334</v>
+        <v>6.66666666666673</v>
       </c>
       <c r="H4" t="n">
-        <v>20.83666666666667</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K4" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +550,41 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="C5" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="D5" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="E5" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="F5" t="n">
-        <v>10010</v>
+        <v>30000</v>
       </c>
       <c r="G5" t="n">
-        <v>20.69333333333334</v>
+        <v>-5.882352941176324</v>
       </c>
       <c r="H5" t="n">
-        <v>20.82666666666666</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+        <v>21</v>
+      </c>
+      <c r="K5" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +593,37 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20.5</v>
+        <v>20.8</v>
       </c>
       <c r="C6" t="n">
-        <v>20.5</v>
+        <v>20.8</v>
       </c>
       <c r="D6" t="n">
-        <v>20.5</v>
+        <v>20.8</v>
       </c>
       <c r="E6" t="n">
-        <v>20.5</v>
+        <v>20.8</v>
       </c>
       <c r="F6" t="n">
-        <v>30958.1902</v>
+        <v>9357.329299999999</v>
       </c>
       <c r="G6" t="n">
-        <v>20.67333333333334</v>
+        <v>-20</v>
       </c>
       <c r="H6" t="n">
-        <v>20.815</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
+        <v>20.8</v>
+      </c>
+      <c r="K6" t="n">
+        <v>20.8</v>
+      </c>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +632,41 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20.5</v>
+        <v>20.8</v>
       </c>
       <c r="C7" t="n">
-        <v>20.5</v>
+        <v>20.8</v>
       </c>
       <c r="D7" t="n">
-        <v>20.5</v>
+        <v>20.8</v>
       </c>
       <c r="E7" t="n">
-        <v>20.5</v>
+        <v>20.8</v>
       </c>
       <c r="F7" t="n">
-        <v>19.0439</v>
+        <v>18501.999</v>
       </c>
       <c r="G7" t="n">
-        <v>20.65333333333334</v>
+        <v>-7.692307692307525</v>
       </c>
       <c r="H7" t="n">
-        <v>20.81166666666666</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K7" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +675,41 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="C8" t="n">
-        <v>20.5</v>
+        <v>21.1</v>
       </c>
       <c r="D8" t="n">
-        <v>20.5</v>
+        <v>21.1</v>
       </c>
       <c r="E8" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="F8" t="n">
-        <v>490</v>
+        <v>4404.5448</v>
       </c>
       <c r="G8" t="n">
-        <v>20.64666666666667</v>
+        <v>28.57142857142868</v>
       </c>
       <c r="H8" t="n">
-        <v>20.80833333333333</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K8" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +718,37 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="C9" t="n">
-        <v>20.7</v>
+        <v>21</v>
       </c>
       <c r="D9" t="n">
-        <v>20.7</v>
+        <v>21</v>
       </c>
       <c r="E9" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="F9" t="n">
-        <v>1000.0001</v>
+        <v>8522.952300000001</v>
       </c>
       <c r="G9" t="n">
-        <v>20.64</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="H9" t="n">
-        <v>20.80166666666667</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
+        <v>21.1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>21.1</v>
+      </c>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,42 +757,41 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="C10" t="n">
-        <v>20.4</v>
+        <v>21</v>
       </c>
       <c r="D10" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="E10" t="n">
-        <v>20.4</v>
+        <v>21</v>
       </c>
       <c r="F10" t="n">
-        <v>36934.7297</v>
+        <v>1477.0477</v>
       </c>
       <c r="G10" t="n">
-        <v>20.62</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="H10" t="n">
-        <v>20.795</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K10" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -786,42 +800,41 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>20.4</v>
+        <v>21</v>
       </c>
       <c r="C11" t="n">
-        <v>20.4</v>
+        <v>20.9</v>
       </c>
       <c r="D11" t="n">
-        <v>20.4</v>
+        <v>21</v>
       </c>
       <c r="E11" t="n">
-        <v>20.4</v>
+        <v>20.9</v>
       </c>
       <c r="F11" t="n">
-        <v>344.9652</v>
+        <v>19765.8915</v>
       </c>
       <c r="G11" t="n">
-        <v>20.6</v>
+        <v>11.11111111111085</v>
       </c>
       <c r="H11" t="n">
-        <v>20.78833333333334</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K11" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -830,42 +843,41 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="C12" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="D12" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="E12" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="F12" t="n">
-        <v>10030.91787439613</v>
+        <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>20.6</v>
+        <v>11.11111111111085</v>
       </c>
       <c r="H12" t="n">
-        <v>20.78833333333334</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>20.9</v>
       </c>
       <c r="K12" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -874,40 +886,41 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>20.6</v>
+        <v>21</v>
       </c>
       <c r="C13" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="D13" t="n">
-        <v>20.6</v>
+        <v>21</v>
       </c>
       <c r="E13" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="F13" t="n">
-        <v>16999.9999</v>
+        <v>9980.481400000001</v>
       </c>
       <c r="G13" t="n">
-        <v>20.58666666666667</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>20.785</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K13" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -916,40 +929,41 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="C14" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="D14" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="E14" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="F14" t="n">
-        <v>924.6917692307692</v>
+        <v>21403.2664</v>
       </c>
       <c r="G14" t="n">
-        <v>20.59333333333334</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="H14" t="n">
-        <v>20.78666666666667</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N14" t="n">
+        <v>21</v>
+      </c>
+      <c r="K14" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -958,40 +972,41 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="C15" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="D15" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="E15" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="F15" t="n">
-        <v>16075.5857</v>
+        <v>16320.7812</v>
       </c>
       <c r="G15" t="n">
-        <v>20.61333333333333</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="H15" t="n">
-        <v>20.78666666666667</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
+        <v>21</v>
+      </c>
+      <c r="K15" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1000,40 +1015,41 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="C16" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="D16" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="E16" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="F16" t="n">
-        <v>118.2211</v>
+        <v>990</v>
       </c>
       <c r="G16" t="n">
-        <v>20.62666666666667</v>
+        <v>14.28571428571385</v>
       </c>
       <c r="H16" t="n">
-        <v>20.78333333333333</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N16" t="n">
+        <v>21</v>
+      </c>
+      <c r="K16" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1045,37 +1061,38 @@
         <v>20.8</v>
       </c>
       <c r="C17" t="n">
-        <v>21.1</v>
+        <v>20.7</v>
       </c>
       <c r="D17" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="E17" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="F17" t="n">
-        <v>21392.4124</v>
+        <v>44224.4108</v>
       </c>
       <c r="G17" t="n">
-        <v>20.65333333333333</v>
+        <v>-66.66666666666647</v>
       </c>
       <c r="H17" t="n">
-        <v>20.78666666666667</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N17" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K17" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,40 +1101,41 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>21</v>
+        <v>20.6</v>
       </c>
       <c r="C18" t="n">
-        <v>21</v>
+        <v>20.6</v>
       </c>
       <c r="D18" t="n">
-        <v>21</v>
+        <v>20.6</v>
       </c>
       <c r="E18" t="n">
-        <v>21</v>
+        <v>20.6</v>
       </c>
       <c r="F18" t="n">
-        <v>26539.9523</v>
+        <v>40970.9846</v>
       </c>
       <c r="G18" t="n">
-        <v>20.68</v>
+        <v>-66.66666666666627</v>
       </c>
       <c r="H18" t="n">
-        <v>20.78833333333333</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N18" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="K18" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1126,40 +1144,41 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="C19" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="D19" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="E19" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="F19" t="n">
-        <v>6810</v>
+        <v>19589.0652</v>
       </c>
       <c r="G19" t="n">
-        <v>20.67333333333333</v>
+        <v>-66.66666666666627</v>
       </c>
       <c r="H19" t="n">
-        <v>20.78166666666666</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K19" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1168,10 +1187,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="C20" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="D20" t="n">
         <v>20.8</v>
@@ -1180,28 +1199,29 @@
         <v>20.6</v>
       </c>
       <c r="F20" t="n">
-        <v>4135.452</v>
+        <v>210</v>
       </c>
       <c r="G20" t="n">
-        <v>20.67333333333333</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="H20" t="n">
-        <v>20.77833333333333</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K20" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1210,40 +1230,41 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="C21" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="D21" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="E21" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="F21" t="n">
-        <v>37759.548</v>
+        <v>300</v>
       </c>
       <c r="G21" t="n">
-        <v>20.66666666666666</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="H21" t="n">
-        <v>20.77166666666666</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K21" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1252,41 +1273,42 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>21</v>
+        <v>20.6</v>
       </c>
       <c r="C22" t="n">
-        <v>21</v>
+        <v>20.6</v>
       </c>
       <c r="D22" t="n">
-        <v>21</v>
+        <v>20.6</v>
       </c>
       <c r="E22" t="n">
-        <v>21</v>
+        <v>20.6</v>
       </c>
       <c r="F22" t="n">
-        <v>907.65</v>
+        <v>12145.3421</v>
       </c>
       <c r="G22" t="n">
-        <v>20.7</v>
+        <v>-50</v>
       </c>
       <c r="H22" t="n">
-        <v>20.775</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N22" t="n">
-        <v>1</v>
+        <v>20.8</v>
+      </c>
+      <c r="K22" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>0.971303317535545</v>
       </c>
     </row>
     <row r="23">
@@ -1294,40 +1316,41 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="C23" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="D23" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="E23" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="F23" t="n">
-        <v>7000</v>
+        <v>19.2762</v>
       </c>
       <c r="G23" t="n">
-        <v>20.74</v>
+        <v>-20</v>
       </c>
       <c r="H23" t="n">
-        <v>20.775</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N23" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K23" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1336,40 +1359,37 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="C24" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="D24" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="E24" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="F24" t="n">
-        <v>117.9255</v>
+        <v>30000</v>
       </c>
       <c r="G24" t="n">
-        <v>20.74666666666667</v>
+        <v>-27.27272727272739</v>
       </c>
       <c r="H24" t="n">
-        <v>20.77666666666666</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
+        <v>20.8</v>
+      </c>
+      <c r="K24" t="n">
+        <v>20.8</v>
+      </c>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1378,40 +1398,41 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="C25" t="n">
         <v>20.7</v>
       </c>
       <c r="D25" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="E25" t="n">
         <v>20.7</v>
       </c>
       <c r="F25" t="n">
-        <v>3745.9336</v>
+        <v>10674.3867</v>
       </c>
       <c r="G25" t="n">
-        <v>20.76666666666667</v>
+        <v>-20</v>
       </c>
       <c r="H25" t="n">
-        <v>20.77666666666666</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="K25" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1432,28 +1453,29 @@
         <v>20.7</v>
       </c>
       <c r="F26" t="n">
-        <v>74.0664</v>
+        <v>13627.4011</v>
       </c>
       <c r="G26" t="n">
-        <v>20.78666666666667</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>20.77333333333333</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="K26" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1462,40 +1484,37 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>21.1</v>
+        <v>20.7</v>
       </c>
       <c r="C27" t="n">
-        <v>21.1</v>
+        <v>20.7</v>
       </c>
       <c r="D27" t="n">
-        <v>21.1</v>
+        <v>20.7</v>
       </c>
       <c r="E27" t="n">
-        <v>21.1</v>
+        <v>20.7</v>
       </c>
       <c r="F27" t="n">
-        <v>947.8672985781991</v>
+        <v>27606.9458</v>
       </c>
       <c r="G27" t="n">
-        <v>20.81333333333334</v>
+        <v>14.285714285714</v>
       </c>
       <c r="H27" t="n">
-        <v>20.77666666666666</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
+        <v>20.7</v>
+      </c>
+      <c r="K27" t="n">
+        <v>20.7</v>
+      </c>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1504,40 +1523,41 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>21.1</v>
+        <v>20.7</v>
       </c>
       <c r="C28" t="n">
-        <v>21.1</v>
+        <v>20.7</v>
       </c>
       <c r="D28" t="n">
-        <v>21.1</v>
+        <v>20.7</v>
       </c>
       <c r="E28" t="n">
-        <v>21.1</v>
+        <v>20.7</v>
       </c>
       <c r="F28" t="n">
-        <v>6432.132701421801</v>
+        <v>23197.6744</v>
       </c>
       <c r="G28" t="n">
-        <v>20.85333333333334</v>
+        <v>14.285714285714</v>
       </c>
       <c r="H28" t="n">
-        <v>20.77666666666666</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="K28" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1546,40 +1566,41 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>21.1</v>
+        <v>20.7</v>
       </c>
       <c r="C29" t="n">
-        <v>21.2</v>
+        <v>20.6</v>
       </c>
       <c r="D29" t="n">
-        <v>21.2</v>
+        <v>20.7</v>
       </c>
       <c r="E29" t="n">
-        <v>21.1</v>
+        <v>20.6</v>
       </c>
       <c r="F29" t="n">
-        <v>14877.5952</v>
+        <v>52346.4553</v>
       </c>
       <c r="G29" t="n">
-        <v>20.88</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="H29" t="n">
-        <v>20.78166666666666</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="K29" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1588,40 +1609,41 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="C30" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="D30" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="E30" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="F30" t="n">
-        <v>7230.0001</v>
+        <v>2623.863</v>
       </c>
       <c r="G30" t="n">
-        <v>20.86666666666667</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="H30" t="n">
-        <v>20.78166666666666</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K30" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1630,40 +1652,41 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="C31" t="n">
         <v>20.7</v>
       </c>
       <c r="D31" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="E31" t="n">
         <v>20.7</v>
       </c>
       <c r="F31" t="n">
-        <v>3620.0001</v>
+        <v>725.4589</v>
       </c>
       <c r="G31" t="n">
-        <v>20.86</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="H31" t="n">
-        <v>20.775</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K31" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1675,37 +1698,38 @@
         <v>20.8</v>
       </c>
       <c r="C32" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="D32" t="n">
         <v>20.8</v>
       </c>
       <c r="E32" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="F32" t="n">
-        <v>10</v>
+        <v>31.3942</v>
       </c>
       <c r="G32" t="n">
-        <v>20.84</v>
+        <v>-50.00000000000044</v>
       </c>
       <c r="H32" t="n">
-        <v>20.775</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="K32" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1717,37 +1741,38 @@
         <v>20.8</v>
       </c>
       <c r="C33" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="D33" t="n">
         <v>20.8</v>
       </c>
       <c r="E33" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="F33" t="n">
-        <v>2518.7328</v>
+        <v>487.6442307692308</v>
       </c>
       <c r="G33" t="n">
-        <v>20.82</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="H33" t="n">
-        <v>20.77333333333333</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K33" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1756,40 +1781,41 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="C34" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="D34" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="E34" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="F34" t="n">
-        <v>1810</v>
+        <v>10010</v>
       </c>
       <c r="G34" t="n">
-        <v>20.82666666666667</v>
+        <v>-14.28571428571414</v>
       </c>
       <c r="H34" t="n">
-        <v>20.77333333333333</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K34" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1798,42 +1824,41 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="C35" t="n">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="D35" t="n">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="E35" t="n">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="F35" t="n">
-        <v>4625.812</v>
+        <v>30958.1902</v>
       </c>
       <c r="G35" t="n">
-        <v>20.84</v>
+        <v>-25.00000000000011</v>
       </c>
       <c r="H35" t="n">
-        <v>20.77</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>20.6</v>
       </c>
       <c r="K35" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1842,42 +1867,41 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="C36" t="n">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="D36" t="n">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="E36" t="n">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="F36" t="n">
-        <v>17.486</v>
+        <v>19.0439</v>
       </c>
       <c r="G36" t="n">
-        <v>20.86666666666667</v>
+        <v>-25.00000000000011</v>
       </c>
       <c r="H36" t="n">
-        <v>20.77</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="K36" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1886,40 +1910,41 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="C37" t="n">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="D37" t="n">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="E37" t="n">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="F37" t="n">
-        <v>356.2851</v>
+        <v>490</v>
       </c>
       <c r="G37" t="n">
-        <v>20.85333333333334</v>
+        <v>-25.00000000000011</v>
       </c>
       <c r="H37" t="n">
-        <v>20.77</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K37" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1928,40 +1953,41 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="C38" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="D38" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="E38" t="n">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="F38" t="n">
-        <v>362.4479</v>
+        <v>1000.0001</v>
       </c>
       <c r="G38" t="n">
-        <v>20.83333333333334</v>
+        <v>11.11111111111093</v>
       </c>
       <c r="H38" t="n">
-        <v>20.77</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N38" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K38" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1970,40 +1996,41 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="C39" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="D39" t="n">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="E39" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="F39" t="n">
-        <v>4637.969</v>
+        <v>36934.7297</v>
       </c>
       <c r="G39" t="n">
-        <v>20.83333333333334</v>
+        <v>-16.66666666666696</v>
       </c>
       <c r="H39" t="n">
-        <v>20.765</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="K39" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2012,41 +2039,42 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>20.9</v>
+        <v>20.4</v>
       </c>
       <c r="C40" t="n">
-        <v>20.7</v>
+        <v>20.4</v>
       </c>
       <c r="D40" t="n">
-        <v>20.9</v>
+        <v>20.4</v>
       </c>
       <c r="E40" t="n">
-        <v>20.7</v>
+        <v>20.4</v>
       </c>
       <c r="F40" t="n">
-        <v>731.6727</v>
+        <v>344.9652</v>
       </c>
       <c r="G40" t="n">
-        <v>20.83333333333334</v>
+        <v>-27.27272727272739</v>
       </c>
       <c r="H40" t="n">
-        <v>20.76</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N40" t="n">
-        <v>1</v>
+        <v>20.4</v>
+      </c>
+      <c r="K40" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
+        <v>0.9805072463768115</v>
       </c>
     </row>
     <row r="41">
@@ -2054,40 +2082,41 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="C41" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="D41" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="E41" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="F41" t="n">
-        <v>10</v>
+        <v>10030.91787439613</v>
       </c>
       <c r="G41" t="n">
-        <v>20.82666666666667</v>
+        <v>7.692307692307525</v>
       </c>
       <c r="H41" t="n">
-        <v>20.75333333333333</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N41" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="K41" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2099,37 +2128,38 @@
         <v>20.6</v>
       </c>
       <c r="C42" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="D42" t="n">
         <v>20.6</v>
       </c>
       <c r="E42" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="F42" t="n">
-        <v>6966.1147</v>
+        <v>16999.9999</v>
       </c>
       <c r="G42" t="n">
-        <v>20.79333333333334</v>
+        <v>-23.07692307692312</v>
       </c>
       <c r="H42" t="n">
-        <v>20.74833333333333</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N42" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="K42" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2138,42 +2168,37 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="C43" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="D43" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="E43" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="F43" t="n">
-        <v>80</v>
+        <v>924.6917692307692</v>
       </c>
       <c r="G43" t="n">
-        <v>20.76000000000001</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="H43" t="n">
-        <v>20.74333333333333</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="K43" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2182,42 +2207,41 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>20.6</v>
+        <v>20.9</v>
       </c>
       <c r="C44" t="n">
-        <v>20.6</v>
+        <v>20.9</v>
       </c>
       <c r="D44" t="n">
-        <v>20.6</v>
+        <v>20.9</v>
       </c>
       <c r="E44" t="n">
-        <v>20.6</v>
+        <v>20.9</v>
       </c>
       <c r="F44" t="n">
-        <v>4973.3055</v>
+        <v>16075.5857</v>
       </c>
       <c r="G44" t="n">
-        <v>20.72000000000001</v>
+        <v>28.5714285714285</v>
       </c>
       <c r="H44" t="n">
-        <v>20.73666666666666</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="K44" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N44" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2226,42 +2250,41 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="C45" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="D45" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="E45" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="F45" t="n">
-        <v>12894.6046</v>
+        <v>118.2211</v>
       </c>
       <c r="G45" t="n">
-        <v>20.71333333333335</v>
+        <v>20.0000000000001</v>
       </c>
       <c r="H45" t="n">
-        <v>20.72999999999999</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>20.9</v>
       </c>
       <c r="K45" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2270,42 +2293,41 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="C46" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="D46" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="E46" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="F46" t="n">
+        <v>21392.4124</v>
+      </c>
+      <c r="G46" t="n">
+        <v>33.33333333333346</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K46" t="n">
         <v>20.5</v>
       </c>
-      <c r="C46" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="D46" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="E46" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="F46" t="n">
-        <v>17014.7092</v>
-      </c>
-      <c r="G46" t="n">
-        <v>20.70666666666668</v>
-      </c>
-      <c r="H46" t="n">
-        <v>20.72333333333332</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N46" t="n">
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2314,42 +2336,41 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
+        <v>21</v>
+      </c>
+      <c r="C47" t="n">
+        <v>21</v>
+      </c>
+      <c r="D47" t="n">
+        <v>21</v>
+      </c>
+      <c r="E47" t="n">
+        <v>21</v>
+      </c>
+      <c r="F47" t="n">
+        <v>26539.9523</v>
+      </c>
+      <c r="G47" t="n">
+        <v>17.64705882352946</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="K47" t="n">
         <v>20.5</v>
       </c>
-      <c r="C47" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="D47" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="E47" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="F47" t="n">
-        <v>12183.7298</v>
-      </c>
-      <c r="G47" t="n">
-        <v>20.68000000000001</v>
-      </c>
-      <c r="H47" t="n">
-        <v>20.71499999999999</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N47" t="n">
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2358,42 +2379,41 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="C48" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="D48" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="E48" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="F48" t="n">
-        <v>30604.806</v>
+        <v>6810</v>
       </c>
       <c r="G48" t="n">
-        <v>20.67333333333335</v>
+        <v>17.64705882352946</v>
       </c>
       <c r="H48" t="n">
-        <v>20.71333333333332</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K48" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N48" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2405,39 +2425,38 @@
         <v>20.8</v>
       </c>
       <c r="C49" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="D49" t="n">
         <v>20.8</v>
       </c>
       <c r="E49" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="F49" t="n">
-        <v>10</v>
+        <v>4135.452</v>
       </c>
       <c r="G49" t="n">
-        <v>20.67333333333335</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="H49" t="n">
-        <v>20.71666666666665</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>20.7</v>
       </c>
       <c r="K49" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2446,40 +2465,41 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="C50" t="n">
-        <v>21</v>
+        <v>20.4</v>
       </c>
       <c r="D50" t="n">
-        <v>21</v>
+        <v>20.6</v>
       </c>
       <c r="E50" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="F50" t="n">
-        <v>43510.13455714285</v>
+        <v>37759.548</v>
       </c>
       <c r="G50" t="n">
-        <v>20.68666666666668</v>
+        <v>-17.64705882352946</v>
       </c>
       <c r="H50" t="n">
-        <v>20.72333333333332</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K50" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2488,40 +2508,41 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>20.7</v>
+        <v>21</v>
       </c>
       <c r="C51" t="n">
-        <v>20.6</v>
+        <v>21</v>
       </c>
       <c r="D51" t="n">
-        <v>20.7</v>
+        <v>21</v>
       </c>
       <c r="E51" t="n">
-        <v>20.6</v>
+        <v>21</v>
       </c>
       <c r="F51" t="n">
-        <v>20000</v>
+        <v>907.65</v>
       </c>
       <c r="G51" t="n">
-        <v>20.67333333333335</v>
+        <v>23.8095238095238</v>
       </c>
       <c r="H51" t="n">
-        <v>20.71999999999998</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="K51" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2530,40 +2551,41 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>20.6</v>
+        <v>21.1</v>
       </c>
       <c r="C52" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="D52" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="E52" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="F52" t="n">
+        <v>7000</v>
+      </c>
+      <c r="G52" t="n">
+        <v>15.78947368421055</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>21</v>
+      </c>
+      <c r="K52" t="n">
         <v>20.5</v>
       </c>
-      <c r="D52" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="E52" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="F52" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G52" t="n">
-        <v>20.65333333333335</v>
-      </c>
-      <c r="H52" t="n">
-        <v>20.71499999999999</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2572,40 +2594,41 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="C53" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="D53" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="E53" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="F53" t="n">
-        <v>30</v>
+        <v>117.9255</v>
       </c>
       <c r="G53" t="n">
-        <v>20.62666666666668</v>
+        <v>-4.761904761904649</v>
       </c>
       <c r="H53" t="n">
-        <v>20.71166666666666</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N53" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="K53" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2614,40 +2637,41 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="C54" t="n">
         <v>20.7</v>
       </c>
       <c r="D54" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="E54" t="n">
         <v>20.7</v>
       </c>
       <c r="F54" t="n">
-        <v>10</v>
+        <v>3745.9336</v>
       </c>
       <c r="G54" t="n">
-        <v>20.62000000000001</v>
+        <v>-4.76190476190481</v>
       </c>
       <c r="H54" t="n">
-        <v>20.70999999999999</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N54" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K54" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2659,37 +2683,38 @@
         <v>20.7</v>
       </c>
       <c r="C55" t="n">
-        <v>20.4</v>
+        <v>20.7</v>
       </c>
       <c r="D55" t="n">
         <v>20.7</v>
       </c>
       <c r="E55" t="n">
-        <v>20.4</v>
+        <v>20.7</v>
       </c>
       <c r="F55" t="n">
-        <v>110</v>
+        <v>74.0664</v>
       </c>
       <c r="G55" t="n">
-        <v>20.60000000000001</v>
+        <v>-22.22222222222224</v>
       </c>
       <c r="H55" t="n">
-        <v>20.70499999999999</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N55" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="K55" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2698,42 +2723,41 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>20.7</v>
+        <v>21.1</v>
       </c>
       <c r="C56" t="n">
-        <v>20.7</v>
+        <v>21.1</v>
       </c>
       <c r="D56" t="n">
-        <v>20.7</v>
+        <v>21.1</v>
       </c>
       <c r="E56" t="n">
-        <v>20.7</v>
+        <v>21.1</v>
       </c>
       <c r="F56" t="n">
-        <v>10</v>
+        <v>947.8672985781991</v>
       </c>
       <c r="G56" t="n">
-        <v>20.60666666666667</v>
+        <v>4.76190476190481</v>
       </c>
       <c r="H56" t="n">
-        <v>20.70499999999999</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
+        <v>20.7</v>
       </c>
       <c r="K56" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N56" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2742,41 +2766,42 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>20.6</v>
+        <v>21.1</v>
       </c>
       <c r="C57" t="n">
-        <v>20.6</v>
+        <v>21.1</v>
       </c>
       <c r="D57" t="n">
-        <v>20.6</v>
+        <v>21.1</v>
       </c>
       <c r="E57" t="n">
-        <v>20.6</v>
+        <v>21.1</v>
       </c>
       <c r="F57" t="n">
-        <v>1755.1456</v>
+        <v>6432.132701421801</v>
       </c>
       <c r="G57" t="n">
-        <v>20.60666666666667</v>
+        <v>22.22222222222224</v>
       </c>
       <c r="H57" t="n">
-        <v>20.70333333333332</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
-        <v>1</v>
+        <v>21.1</v>
+      </c>
+      <c r="K57" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
+        <v>1.024268292682927</v>
       </c>
     </row>
     <row r="58">
@@ -2784,40 +2809,41 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>20.6</v>
+        <v>21.1</v>
       </c>
       <c r="C58" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="D58" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="E58" t="n">
-        <v>20.6</v>
+        <v>21.1</v>
       </c>
       <c r="F58" t="n">
-        <v>36319.5249</v>
+        <v>14877.5952</v>
       </c>
       <c r="G58" t="n">
-        <v>20.63333333333334</v>
+        <v>33.33333333333307</v>
       </c>
       <c r="H58" t="n">
-        <v>20.70833333333332</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N58" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="K58" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2826,40 +2852,41 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="C59" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="D59" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="E59" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="F59" t="n">
-        <v>34010.0881</v>
+        <v>7230.0001</v>
       </c>
       <c r="G59" t="n">
-        <v>20.65333333333333</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="H59" t="n">
-        <v>20.71166666666666</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N59" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="K59" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2868,40 +2895,41 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="C60" t="n">
-        <v>21.1</v>
+        <v>20.7</v>
       </c>
       <c r="D60" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="E60" t="n">
-        <v>21.1</v>
+        <v>20.7</v>
       </c>
       <c r="F60" t="n">
-        <v>10</v>
+        <v>3620.0001</v>
       </c>
       <c r="G60" t="n">
-        <v>20.68666666666667</v>
+        <v>-20</v>
       </c>
       <c r="H60" t="n">
-        <v>20.71999999999999</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="K60" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2910,40 +2938,41 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="C61" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="D61" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="E61" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="F61" t="n">
-        <v>25000</v>
+        <v>10</v>
       </c>
       <c r="G61" t="n">
-        <v>20.70666666666666</v>
+        <v>-20</v>
       </c>
       <c r="H61" t="n">
-        <v>20.72499999999999</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="K61" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2952,40 +2981,41 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="C62" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="D62" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="E62" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="F62" t="n">
-        <v>429.665</v>
+        <v>2518.7328</v>
       </c>
       <c r="G62" t="n">
-        <v>20.74</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="H62" t="n">
-        <v>20.72833333333333</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N62" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K62" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2994,40 +3024,41 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="C63" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="D63" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="E63" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="F63" t="n">
-        <v>10</v>
+        <v>1810</v>
       </c>
       <c r="G63" t="n">
-        <v>20.74</v>
+        <v>7.692307692307776</v>
       </c>
       <c r="H63" t="n">
-        <v>20.72833333333333</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N63" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="K63" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3036,40 +3067,41 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="C64" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="D64" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="E64" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="F64" t="n">
-        <v>10</v>
+        <v>4625.812</v>
       </c>
       <c r="G64" t="n">
-        <v>20.76</v>
+        <v>7.692307692307776</v>
       </c>
       <c r="H64" t="n">
-        <v>20.73333333333333</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K64" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3078,40 +3110,41 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="C65" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="D65" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="E65" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="F65" t="n">
-        <v>20</v>
+        <v>17.486</v>
       </c>
       <c r="G65" t="n">
-        <v>20.75333333333333</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="H65" t="n">
-        <v>20.73833333333333</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N65" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K65" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3120,40 +3153,41 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="C66" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="D66" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="E66" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="F66" t="n">
-        <v>50</v>
+        <v>356.2851</v>
       </c>
       <c r="G66" t="n">
-        <v>20.77333333333333</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="H66" t="n">
-        <v>20.745</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N66" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K66" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3162,40 +3196,41 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="C67" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="D67" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="E67" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="F67" t="n">
-        <v>745.5389</v>
+        <v>362.4479</v>
       </c>
       <c r="G67" t="n">
-        <v>20.79999999999999</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="H67" t="n">
-        <v>20.75166666666667</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N67" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K67" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3216,28 +3251,29 @@
         <v>20.8</v>
       </c>
       <c r="F68" t="n">
-        <v>16998.4107</v>
+        <v>4637.969</v>
       </c>
       <c r="G68" t="n">
-        <v>20.82666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H68" t="n">
-        <v>20.75666666666666</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N68" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K68" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3246,41 +3282,42 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="C69" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="D69" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="E69" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="F69" t="n">
-        <v>3001.5893</v>
+        <v>731.6727</v>
       </c>
       <c r="G69" t="n">
-        <v>20.83333333333333</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>20.75833333333333</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N69" t="n">
-        <v>1</v>
+        <v>20.8</v>
+      </c>
+      <c r="K69" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
+        <v>0.995</v>
       </c>
     </row>
     <row r="70">
@@ -3288,40 +3325,37 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="C70" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="D70" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="E70" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="F70" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G70" t="n">
-        <v>20.86</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="H70" t="n">
-        <v>20.76499999999999</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
+        <v>20.7</v>
+      </c>
+      <c r="K70" t="n">
+        <v>20.7</v>
+      </c>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3330,40 +3364,41 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>20.9</v>
+        <v>20.6</v>
       </c>
       <c r="C71" t="n">
-        <v>20.9</v>
+        <v>20.6</v>
       </c>
       <c r="D71" t="n">
-        <v>20.9</v>
+        <v>20.6</v>
       </c>
       <c r="E71" t="n">
-        <v>20.9</v>
+        <v>20.6</v>
       </c>
       <c r="F71" t="n">
-        <v>19000</v>
+        <v>6966.1147</v>
       </c>
       <c r="G71" t="n">
-        <v>20.87333333333333</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="H71" t="n">
-        <v>20.77333333333333</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N71" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K71" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3372,40 +3407,41 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="C72" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="D72" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="E72" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="F72" t="n">
-        <v>52736.3914</v>
+        <v>80</v>
       </c>
       <c r="G72" t="n">
-        <v>20.88666666666666</v>
+        <v>-100</v>
       </c>
       <c r="H72" t="n">
-        <v>20.77499999999999</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N72" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K72" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3414,40 +3450,37 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="C73" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="D73" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="E73" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="F73" t="n">
-        <v>748.3150000000001</v>
+        <v>4973.3055</v>
       </c>
       <c r="G73" t="n">
-        <v>20.86666666666666</v>
+        <v>-100</v>
       </c>
       <c r="H73" t="n">
-        <v>20.77833333333333</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
+        <v>20.6</v>
+      </c>
+      <c r="K73" t="n">
+        <v>20.6</v>
+      </c>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3456,42 +3489,41 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="C74" t="n">
-        <v>20.9</v>
+        <v>20.6</v>
       </c>
       <c r="D74" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="E74" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="F74" t="n">
-        <v>126.1278</v>
+        <v>12894.6046</v>
       </c>
       <c r="G74" t="n">
-        <v>20.86666666666666</v>
+        <v>-100</v>
       </c>
       <c r="H74" t="n">
-        <v>20.77999999999999</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
+        <v>20.6</v>
       </c>
       <c r="K74" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N74" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3500,40 +3532,41 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="C75" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="D75" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="E75" t="n">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="F75" t="n">
-        <v>10</v>
+        <v>17014.7092</v>
       </c>
       <c r="G75" t="n">
-        <v>20.84666666666666</v>
+        <v>-100</v>
       </c>
       <c r="H75" t="n">
-        <v>20.77833333333333</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N75" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K75" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3542,40 +3575,41 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>20.9</v>
+        <v>20.5</v>
       </c>
       <c r="C76" t="n">
-        <v>20.9</v>
+        <v>20.4</v>
       </c>
       <c r="D76" t="n">
-        <v>20.9</v>
+        <v>20.5</v>
       </c>
       <c r="E76" t="n">
-        <v>20.9</v>
+        <v>20.4</v>
       </c>
       <c r="F76" t="n">
-        <v>271.5745</v>
+        <v>12183.7298</v>
       </c>
       <c r="G76" t="n">
-        <v>20.84666666666666</v>
+        <v>-100</v>
       </c>
       <c r="H76" t="n">
-        <v>20.77999999999999</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N76" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K76" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3584,40 +3618,41 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>21</v>
+        <v>20.6</v>
       </c>
       <c r="C77" t="n">
-        <v>21</v>
+        <v>20.6</v>
       </c>
       <c r="D77" t="n">
-        <v>21</v>
+        <v>20.6</v>
       </c>
       <c r="E77" t="n">
-        <v>21</v>
+        <v>20.6</v>
       </c>
       <c r="F77" t="n">
-        <v>34817.6564</v>
+        <v>30604.806</v>
       </c>
       <c r="G77" t="n">
-        <v>20.85333333333333</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="H77" t="n">
-        <v>20.77833333333333</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N77" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="K77" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3626,40 +3661,41 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="C78" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="D78" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="E78" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="F78" t="n">
-        <v>6819.4848</v>
+        <v>10</v>
       </c>
       <c r="G78" t="n">
-        <v>20.88666666666666</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="H78" t="n">
-        <v>20.77999999999999</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N78" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K78" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,7 +3704,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="C79" t="n">
         <v>21</v>
@@ -3677,31 +3713,32 @@
         <v>21</v>
       </c>
       <c r="E79" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="F79" t="n">
-        <v>48.0769</v>
+        <v>43510.13455714285</v>
       </c>
       <c r="G79" t="n">
-        <v>20.88</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="H79" t="n">
-        <v>20.78499999999999</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N79" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K79" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3710,40 +3747,41 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>21</v>
+        <v>20.7</v>
       </c>
       <c r="C80" t="n">
-        <v>20.9</v>
+        <v>20.6</v>
       </c>
       <c r="D80" t="n">
-        <v>21</v>
+        <v>20.7</v>
       </c>
       <c r="E80" t="n">
-        <v>20.9</v>
+        <v>20.6</v>
       </c>
       <c r="F80" t="n">
-        <v>77843.5699</v>
+        <v>20000</v>
       </c>
       <c r="G80" t="n">
-        <v>20.88</v>
+        <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>20.79</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
+        <v>21</v>
+      </c>
+      <c r="K80" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3752,40 +3790,41 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>20.9</v>
+        <v>20.6</v>
       </c>
       <c r="C81" t="n">
-        <v>20.9</v>
+        <v>20.5</v>
       </c>
       <c r="D81" t="n">
-        <v>20.9</v>
+        <v>20.6</v>
       </c>
       <c r="E81" t="n">
-        <v>20.9</v>
+        <v>20.5</v>
       </c>
       <c r="F81" t="n">
-        <v>31198.4722</v>
+        <v>50000</v>
       </c>
       <c r="G81" t="n">
-        <v>20.88</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="H81" t="n">
-        <v>20.79833333333333</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K81" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3794,40 +3833,41 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>20.9</v>
+        <v>20.4</v>
       </c>
       <c r="C82" t="n">
-        <v>20.9</v>
+        <v>20.4</v>
       </c>
       <c r="D82" t="n">
-        <v>20.9</v>
+        <v>20.4</v>
       </c>
       <c r="E82" t="n">
-        <v>20.9</v>
+        <v>20.4</v>
       </c>
       <c r="F82" t="n">
-        <v>203705.6889</v>
+        <v>30</v>
       </c>
       <c r="G82" t="n">
-        <v>20.88</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="H82" t="n">
-        <v>20.79666666666667</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K82" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3836,40 +3876,41 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>21.1</v>
+        <v>20.7</v>
       </c>
       <c r="C83" t="n">
-        <v>21.1</v>
+        <v>20.7</v>
       </c>
       <c r="D83" t="n">
-        <v>21.1</v>
+        <v>20.7</v>
       </c>
       <c r="E83" t="n">
-        <v>21.1</v>
+        <v>20.7</v>
       </c>
       <c r="F83" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G83" t="n">
-        <v>20.9</v>
+        <v>5.882352941176324</v>
       </c>
       <c r="H83" t="n">
-        <v>20.79666666666667</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>0</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="K83" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,40 +3919,41 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="C84" t="n">
-        <v>20.9</v>
+        <v>20.4</v>
       </c>
       <c r="D84" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="E84" t="n">
-        <v>20.9</v>
+        <v>20.4</v>
       </c>
       <c r="F84" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="G84" t="n">
-        <v>20.90666666666666</v>
+        <v>-10.00000000000011</v>
       </c>
       <c r="H84" t="n">
-        <v>20.79833333333334</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N84" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="K84" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3920,41 +3962,42 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>21</v>
+        <v>20.7</v>
       </c>
       <c r="C85" t="n">
-        <v>21.1</v>
+        <v>20.7</v>
       </c>
       <c r="D85" t="n">
-        <v>21.1</v>
+        <v>20.7</v>
       </c>
       <c r="E85" t="n">
-        <v>21</v>
+        <v>20.7</v>
       </c>
       <c r="F85" t="n">
-        <v>10947.0664</v>
+        <v>10</v>
       </c>
       <c r="G85" t="n">
-        <v>20.92666666666666</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="H85" t="n">
-        <v>20.805</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
-        <v>1</v>
+        <v>20.4</v>
+      </c>
+      <c r="K85" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
+        <v>0.9998543689320388</v>
       </c>
     </row>
     <row r="86">
@@ -3962,40 +4005,41 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>21.1</v>
+        <v>20.6</v>
       </c>
       <c r="C86" t="n">
-        <v>21</v>
+        <v>20.6</v>
       </c>
       <c r="D86" t="n">
-        <v>21.1</v>
+        <v>20.6</v>
       </c>
       <c r="E86" t="n">
-        <v>21</v>
+        <v>20.6</v>
       </c>
       <c r="F86" t="n">
-        <v>14085.9362</v>
+        <v>1755.1456</v>
       </c>
       <c r="G86" t="n">
-        <v>20.93333333333333</v>
+        <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>20.81</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="K86" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4004,40 +4048,41 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>21.2</v>
+        <v>20.6</v>
       </c>
       <c r="C87" t="n">
-        <v>21.3</v>
+        <v>21</v>
       </c>
       <c r="D87" t="n">
-        <v>21.3</v>
+        <v>21</v>
       </c>
       <c r="E87" t="n">
-        <v>21.2</v>
+        <v>20.6</v>
       </c>
       <c r="F87" t="n">
-        <v>33200</v>
+        <v>36319.5249</v>
       </c>
       <c r="G87" t="n">
-        <v>20.96666666666666</v>
+        <v>9.090909090909062</v>
       </c>
       <c r="H87" t="n">
-        <v>20.81333333333333</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K87" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4046,40 +4091,41 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>21.4</v>
+        <v>21</v>
       </c>
       <c r="C88" t="n">
-        <v>21.4</v>
+        <v>20.9</v>
       </c>
       <c r="D88" t="n">
-        <v>21.4</v>
+        <v>21.1</v>
       </c>
       <c r="E88" t="n">
-        <v>21.4</v>
+        <v>20.9</v>
       </c>
       <c r="F88" t="n">
-        <v>11</v>
+        <v>34010.0881</v>
       </c>
       <c r="G88" t="n">
-        <v>21.01333333333333</v>
+        <v>-4.761904761904826</v>
       </c>
       <c r="H88" t="n">
-        <v>20.81833333333334</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
+        <v>21</v>
+      </c>
+      <c r="K88" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,40 +4134,41 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="C89" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="D89" t="n">
-        <v>21.4</v>
+        <v>21.1</v>
       </c>
       <c r="E89" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="F89" t="n">
-        <v>12537.8215</v>
+        <v>10</v>
       </c>
       <c r="G89" t="n">
-        <v>21.04</v>
+        <v>26.31578947368413</v>
       </c>
       <c r="H89" t="n">
-        <v>20.82</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K89" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4130,40 +4177,41 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>21.2</v>
+        <v>20.9</v>
       </c>
       <c r="C90" t="n">
-        <v>21.3</v>
+        <v>20.9</v>
       </c>
       <c r="D90" t="n">
-        <v>21.3</v>
+        <v>20.9</v>
       </c>
       <c r="E90" t="n">
-        <v>21.2</v>
+        <v>20.9</v>
       </c>
       <c r="F90" t="n">
-        <v>2022</v>
+        <v>25000</v>
       </c>
       <c r="G90" t="n">
-        <v>21.07333333333333</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="H90" t="n">
-        <v>20.83</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="K90" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4172,40 +4220,41 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="C91" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="D91" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="E91" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="F91" t="n">
-        <v>19349.0887</v>
+        <v>429.665</v>
       </c>
       <c r="G91" t="n">
-        <v>21.08666666666667</v>
+        <v>26.31578947368413</v>
       </c>
       <c r="H91" t="n">
-        <v>20.83666666666666</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K91" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4214,40 +4263,41 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>21.2</v>
+        <v>20.6</v>
       </c>
       <c r="C92" t="n">
-        <v>21.2</v>
+        <v>20.6</v>
       </c>
       <c r="D92" t="n">
-        <v>21.2</v>
+        <v>20.6</v>
       </c>
       <c r="E92" t="n">
-        <v>21.2</v>
+        <v>20.6</v>
       </c>
       <c r="F92" t="n">
-        <v>30630.0945</v>
+        <v>10</v>
       </c>
       <c r="G92" t="n">
-        <v>21.1</v>
+        <v>-5.263157894736723</v>
       </c>
       <c r="H92" t="n">
-        <v>20.84333333333333</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K92" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4256,40 +4306,41 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="C93" t="n">
-        <v>21.4</v>
+        <v>21.1</v>
       </c>
       <c r="D93" t="n">
-        <v>21.4</v>
+        <v>21.1</v>
       </c>
       <c r="E93" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="F93" t="n">
-        <v>140358.0301</v>
+        <v>10</v>
       </c>
       <c r="G93" t="n">
-        <v>21.12</v>
+        <v>33.33333333333345</v>
       </c>
       <c r="H93" t="n">
-        <v>20.855</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K93" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,40 +4349,41 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>21.3</v>
+        <v>21</v>
       </c>
       <c r="C94" t="n">
-        <v>21.4</v>
+        <v>20.9</v>
       </c>
       <c r="D94" t="n">
-        <v>21.4</v>
+        <v>21</v>
       </c>
       <c r="E94" t="n">
-        <v>21.3</v>
+        <v>20.9</v>
       </c>
       <c r="F94" t="n">
-        <v>15542.8309</v>
+        <v>20</v>
       </c>
       <c r="G94" t="n">
-        <v>21.14666666666666</v>
+        <v>9.999999999999947</v>
       </c>
       <c r="H94" t="n">
-        <v>20.865</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="K94" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4340,40 +4392,41 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>21.5</v>
+        <v>20.9</v>
       </c>
       <c r="C95" t="n">
-        <v>21.4</v>
+        <v>20.9</v>
       </c>
       <c r="D95" t="n">
-        <v>21.5</v>
+        <v>20.9</v>
       </c>
       <c r="E95" t="n">
-        <v>21.3</v>
+        <v>20.9</v>
       </c>
       <c r="F95" t="n">
-        <v>12473.3359</v>
+        <v>50</v>
       </c>
       <c r="G95" t="n">
-        <v>21.18</v>
+        <v>15.78947368421033</v>
       </c>
       <c r="H95" t="n">
-        <v>20.875</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N95" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K95" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4382,40 +4435,41 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>21.3</v>
+        <v>20.9</v>
       </c>
       <c r="C96" t="n">
-        <v>21.4</v>
+        <v>20.9</v>
       </c>
       <c r="D96" t="n">
-        <v>21.4</v>
+        <v>20.9</v>
       </c>
       <c r="E96" t="n">
-        <v>21.2</v>
+        <v>20.9</v>
       </c>
       <c r="F96" t="n">
-        <v>18693.5039</v>
+        <v>745.5389</v>
       </c>
       <c r="G96" t="n">
-        <v>21.21333333333333</v>
+        <v>-6.66666666666673</v>
       </c>
       <c r="H96" t="n">
-        <v>20.88500000000001</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N96" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K96" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4424,40 +4478,41 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>21.4</v>
+        <v>20.8</v>
       </c>
       <c r="C97" t="n">
-        <v>21.4</v>
+        <v>20.8</v>
       </c>
       <c r="D97" t="n">
-        <v>21.4</v>
+        <v>20.8</v>
       </c>
       <c r="E97" t="n">
-        <v>21.4</v>
+        <v>20.8</v>
       </c>
       <c r="F97" t="n">
-        <v>158.9252</v>
+        <v>16998.4107</v>
       </c>
       <c r="G97" t="n">
-        <v>21.24666666666666</v>
+        <v>-6.666666666666508</v>
       </c>
       <c r="H97" t="n">
-        <v>20.89500000000001</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N97" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K97" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4466,77 +4521,85 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="C98" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="D98" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="E98" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="F98" t="n">
-        <v>768.2145</v>
+        <v>3001.5893</v>
       </c>
       <c r="G98" t="n">
-        <v>21.24666666666666</v>
+        <v>-23.07692307692312</v>
       </c>
       <c r="H98" t="n">
-        <v>20.90000000000001</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="n">
-        <v>1</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N98" t="inlineStr"/>
+        <v>20.8</v>
+      </c>
+      <c r="K98" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="C99" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="D99" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="E99" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="F99" t="n">
-        <v>2000</v>
+        <v>50</v>
       </c>
       <c r="G99" t="n">
-        <v>21.25333333333333</v>
+        <v>-9.090909090908914</v>
       </c>
       <c r="H99" t="n">
-        <v>20.90333333333334</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
-        <v>1</v>
+        <v>20.8</v>
+      </c>
+      <c r="K99" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
+        <v>1.014607843137255</v>
       </c>
     </row>
     <row r="100">
@@ -4544,36 +4607,41 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="C100" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="D100" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="E100" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="F100" t="n">
-        <v>43086.7135</v>
+        <v>19000</v>
       </c>
       <c r="G100" t="n">
-        <v>21.24666666666666</v>
+        <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>20.90833333333334</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>1</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K100" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4582,36 +4650,37 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="C101" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="D101" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="E101" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="F101" t="n">
-        <v>7874.9777</v>
+        <v>52736.3914</v>
       </c>
       <c r="G101" t="n">
-        <v>21.25333333333333</v>
+        <v>20</v>
       </c>
       <c r="H101" t="n">
-        <v>20.91666666666667</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
+        <v>20.9</v>
+      </c>
+      <c r="K101" t="n">
+        <v>20.9</v>
+      </c>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4620,36 +4689,41 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>21.1</v>
+        <v>20.7</v>
       </c>
       <c r="C102" t="n">
-        <v>21.1</v>
+        <v>20.7</v>
       </c>
       <c r="D102" t="n">
-        <v>21.1</v>
+        <v>20.7</v>
       </c>
       <c r="E102" t="n">
-        <v>21.1</v>
+        <v>20.7</v>
       </c>
       <c r="F102" t="n">
-        <v>400</v>
+        <v>748.3150000000001</v>
       </c>
       <c r="G102" t="n">
-        <v>21.24</v>
+        <v>-66.66666666666727</v>
       </c>
       <c r="H102" t="n">
-        <v>20.92500000000001</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K102" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4658,36 +4732,41 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="C103" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="D103" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="E103" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="F103" t="n">
-        <v>1000</v>
+        <v>126.1278</v>
       </c>
       <c r="G103" t="n">
-        <v>21.22</v>
+        <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>20.93333333333334</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="K103" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4696,36 +4775,41 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="C104" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="D104" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="E104" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="F104" t="n">
-        <v>8000</v>
+        <v>10</v>
       </c>
       <c r="G104" t="n">
-        <v>21.20666666666667</v>
+        <v>-14.28571428571414</v>
       </c>
       <c r="H104" t="n">
-        <v>20.94166666666667</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K104" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4734,36 +4818,41 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="C105" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="D105" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="E105" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="F105" t="n">
-        <v>3600</v>
+        <v>271.5745</v>
       </c>
       <c r="G105" t="n">
-        <v>21.19333333333334</v>
+        <v>0</v>
       </c>
       <c r="H105" t="n">
-        <v>20.95000000000001</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="n">
-        <v>1</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K105" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4772,36 +4861,41 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="C106" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="D106" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="E106" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="F106" t="n">
-        <v>33000</v>
+        <v>34817.6564</v>
       </c>
       <c r="G106" t="n">
-        <v>21.19333333333334</v>
+        <v>25.00000000000011</v>
       </c>
       <c r="H106" t="n">
-        <v>20.95833333333334</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="n">
-        <v>0</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K106" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4810,36 +4904,41 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="C107" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="D107" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="E107" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="F107" t="n">
-        <v>60</v>
+        <v>6819.4848</v>
       </c>
       <c r="G107" t="n">
-        <v>21.2</v>
+        <v>33.3333333333336</v>
       </c>
       <c r="H107" t="n">
-        <v>20.97333333333334</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="n">
-        <v>0</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+        <v>21</v>
+      </c>
+      <c r="K107" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4848,36 +4947,41 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="C108" t="n">
-        <v>21.3</v>
+        <v>21</v>
       </c>
       <c r="D108" t="n">
-        <v>21.3</v>
+        <v>21</v>
       </c>
       <c r="E108" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="F108" t="n">
-        <v>60</v>
+        <v>48.0769</v>
       </c>
       <c r="G108" t="n">
-        <v>21.19333333333334</v>
+        <v>20</v>
       </c>
       <c r="H108" t="n">
-        <v>20.98500000000001</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="n">
-        <v>1</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="K108" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4886,36 +4990,41 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>21.3</v>
+        <v>21</v>
       </c>
       <c r="C109" t="n">
-        <v>21.3</v>
+        <v>20.9</v>
       </c>
       <c r="D109" t="n">
-        <v>21.3</v>
+        <v>21</v>
       </c>
       <c r="E109" t="n">
-        <v>21.3</v>
+        <v>20.9</v>
       </c>
       <c r="F109" t="n">
-        <v>193.3802</v>
+        <v>77843.5699</v>
       </c>
       <c r="G109" t="n">
-        <v>21.18666666666667</v>
+        <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>20.99333333333334</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="n">
-        <v>1</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+        <v>21</v>
+      </c>
+      <c r="K109" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4924,36 +5033,41 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>21.2</v>
+        <v>20.9</v>
       </c>
       <c r="C110" t="n">
-        <v>21.2</v>
+        <v>20.9</v>
       </c>
       <c r="D110" t="n">
-        <v>21.2</v>
+        <v>20.9</v>
       </c>
       <c r="E110" t="n">
-        <v>21.2</v>
+        <v>20.9</v>
       </c>
       <c r="F110" t="n">
-        <v>10</v>
+        <v>31198.4722</v>
       </c>
       <c r="G110" t="n">
-        <v>21.17333333333334</v>
+        <v>11.11111111111085</v>
       </c>
       <c r="H110" t="n">
-        <v>20.99666666666667</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="n">
-        <v>1</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K110" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4962,36 +5076,41 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>21.2</v>
+        <v>20.9</v>
       </c>
       <c r="C111" t="n">
-        <v>21.2</v>
+        <v>20.9</v>
       </c>
       <c r="D111" t="n">
-        <v>21.2</v>
+        <v>20.9</v>
       </c>
       <c r="E111" t="n">
-        <v>21.2</v>
+        <v>20.9</v>
       </c>
       <c r="F111" t="n">
-        <v>8.181800000000001</v>
+        <v>203705.6889</v>
       </c>
       <c r="G111" t="n">
-        <v>21.16000000000001</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="H111" t="n">
-        <v>21.00666666666667</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="n">
-        <v>1</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K111" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5000,36 +5119,41 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="C112" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="D112" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="E112" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="F112" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G112" t="n">
-        <v>21.15333333333335</v>
+        <v>25.00000000000022</v>
       </c>
       <c r="H112" t="n">
-        <v>21.02000000000001</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="n">
-        <v>1</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K112" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5038,36 +5162,41 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>21.2</v>
+        <v>20.9</v>
       </c>
       <c r="C113" t="n">
-        <v>21.3</v>
+        <v>20.9</v>
       </c>
       <c r="D113" t="n">
-        <v>21.3</v>
+        <v>20.9</v>
       </c>
       <c r="E113" t="n">
-        <v>21.2</v>
+        <v>20.9</v>
       </c>
       <c r="F113" t="n">
-        <v>60383.8045</v>
+        <v>90</v>
       </c>
       <c r="G113" t="n">
-        <v>21.16666666666668</v>
+        <v>11.11111111111076</v>
       </c>
       <c r="H113" t="n">
-        <v>21.03500000000001</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="n">
-        <v>1</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="K113" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5076,37 +5205,42 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="C114" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="D114" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="E114" t="n">
         <v>21</v>
       </c>
       <c r="F114" t="n">
-        <v>135051.3179</v>
+        <v>10947.0664</v>
       </c>
       <c r="G114" t="n">
-        <v>21.16666666666668</v>
+        <v>20</v>
       </c>
       <c r="H114" t="n">
-        <v>21.04000000000001</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="n">
-        <v>1</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
-        <v>1</v>
+        <v>20.9</v>
+      </c>
+      <c r="K114" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>1.004569377990431</v>
       </c>
     </row>
     <row r="115">
@@ -5114,36 +5248,41 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="C115" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="D115" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="E115" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="F115" t="n">
-        <v>390.4665</v>
+        <v>14085.9362</v>
       </c>
       <c r="G115" t="n">
-        <v>21.17333333333335</v>
+        <v>0</v>
       </c>
       <c r="H115" t="n">
-        <v>21.05166666666667</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="n">
-        <v>1</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="K115" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5152,36 +5291,41 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="C116" t="n">
-        <v>21</v>
+        <v>21.3</v>
       </c>
       <c r="D116" t="n">
-        <v>21</v>
+        <v>21.3</v>
       </c>
       <c r="E116" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="F116" t="n">
-        <v>10</v>
+        <v>33200</v>
       </c>
       <c r="G116" t="n">
-        <v>21.16666666666668</v>
+        <v>16.66666666666642</v>
       </c>
       <c r="H116" t="n">
-        <v>21.05666666666667</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="n">
-        <v>1</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="n">
+        <v>21</v>
+      </c>
+      <c r="K116" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5190,36 +5334,41 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>21.1</v>
+        <v>21.4</v>
       </c>
       <c r="C117" t="n">
-        <v>21.1</v>
+        <v>21.4</v>
       </c>
       <c r="D117" t="n">
-        <v>21.1</v>
+        <v>21.4</v>
       </c>
       <c r="E117" t="n">
-        <v>21.1</v>
+        <v>21.4</v>
       </c>
       <c r="F117" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G117" t="n">
-        <v>21.16666666666668</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="H117" t="n">
-        <v>21.065</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="n">
-        <v>1</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="K117" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5228,36 +5377,41 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="C118" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="D118" t="n">
-        <v>21.1</v>
+        <v>21.4</v>
       </c>
       <c r="E118" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="F118" t="n">
-        <v>27641.872</v>
+        <v>12537.8215</v>
       </c>
       <c r="G118" t="n">
-        <v>21.16666666666668</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H118" t="n">
-        <v>21.06666666666667</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="n">
-        <v>1</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="K118" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5266,36 +5420,41 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="C119" t="n">
-        <v>21</v>
+        <v>21.3</v>
       </c>
       <c r="D119" t="n">
-        <v>21</v>
+        <v>21.3</v>
       </c>
       <c r="E119" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="F119" t="n">
-        <v>10</v>
+        <v>2022</v>
       </c>
       <c r="G119" t="n">
-        <v>21.16000000000001</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H119" t="n">
-        <v>21.06833333333333</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="n">
-        <v>1</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="K119" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5304,36 +5463,41 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="C120" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="D120" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="E120" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="F120" t="n">
+        <v>19349.0887</v>
+      </c>
+      <c r="G120" t="n">
+        <v>14.28571428571443</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="n">
         <v>21.3</v>
       </c>
-      <c r="D120" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="E120" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="F120" t="n">
-        <v>100</v>
-      </c>
-      <c r="G120" t="n">
-        <v>21.17333333333334</v>
-      </c>
-      <c r="H120" t="n">
-        <v>21.07166666666667</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="n">
-        <v>1</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="n">
+      <c r="K120" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5354,24 +5518,29 @@
         <v>21.2</v>
       </c>
       <c r="F121" t="n">
-        <v>1134.7094</v>
+        <v>30630.0945</v>
       </c>
       <c r="G121" t="n">
-        <v>21.18000000000001</v>
+        <v>7.692307692307525</v>
       </c>
       <c r="H121" t="n">
-        <v>21.07666666666666</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="n">
-        <v>1</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="K121" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5380,36 +5549,41 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="C122" t="n">
-        <v>21.1</v>
+        <v>21.4</v>
       </c>
       <c r="D122" t="n">
-        <v>21.1</v>
+        <v>21.4</v>
       </c>
       <c r="E122" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="F122" t="n">
-        <v>36781.5443</v>
+        <v>140358.0301</v>
       </c>
       <c r="G122" t="n">
-        <v>21.16666666666667</v>
+        <v>38.46153846153855</v>
       </c>
       <c r="H122" t="n">
-        <v>21.07999999999999</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="n">
-        <v>1</v>
-      </c>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="K122" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5418,36 +5592,41 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="C123" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="D123" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="E123" t="n">
         <v>21.3</v>
       </c>
-      <c r="D123" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="E123" t="n">
-        <v>21.1</v>
-      </c>
       <c r="F123" t="n">
-        <v>79023.4433</v>
+        <v>15542.8309</v>
       </c>
       <c r="G123" t="n">
-        <v>21.16666666666667</v>
+        <v>27.27272727272715</v>
       </c>
       <c r="H123" t="n">
-        <v>21.09166666666666</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="n">
-        <v>1</v>
-      </c>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="K123" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5456,36 +5635,41 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="C124" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="D124" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="E124" t="n">
         <v>21.3</v>
       </c>
-      <c r="C124" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="D124" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="E124" t="n">
-        <v>21.1</v>
-      </c>
       <c r="F124" t="n">
-        <v>5077.23</v>
+        <v>12473.3359</v>
       </c>
       <c r="G124" t="n">
-        <v>21.15333333333334</v>
+        <v>40.00000000000014</v>
       </c>
       <c r="H124" t="n">
-        <v>21.09166666666666</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="n">
-        <v>1</v>
-      </c>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="K124" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5494,36 +5678,41 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="C125" t="n">
-        <v>20.9</v>
+        <v>21.4</v>
       </c>
       <c r="D125" t="n">
-        <v>21.1</v>
+        <v>21.4</v>
       </c>
       <c r="E125" t="n">
-        <v>20.9</v>
+        <v>21.2</v>
       </c>
       <c r="F125" t="n">
-        <v>83257.3511</v>
+        <v>18693.5039</v>
       </c>
       <c r="G125" t="n">
-        <v>21.13333333333334</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="H125" t="n">
-        <v>21.09166666666666</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="n">
-        <v>1</v>
-      </c>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
-      <c r="N125" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="K125" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5532,37 +5721,42 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>20.9</v>
+        <v>21.4</v>
       </c>
       <c r="C126" t="n">
-        <v>20.9</v>
+        <v>21.4</v>
       </c>
       <c r="D126" t="n">
-        <v>20.9</v>
+        <v>21.4</v>
       </c>
       <c r="E126" t="n">
-        <v>20.9</v>
+        <v>21.4</v>
       </c>
       <c r="F126" t="n">
-        <v>40302.9266</v>
+        <v>158.9252</v>
       </c>
       <c r="G126" t="n">
-        <v>21.11333333333334</v>
+        <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>21.09166666666666</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="n">
-        <v>1</v>
-      </c>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
-      <c r="N126" t="n">
-        <v>1</v>
+        <v>21.4</v>
+      </c>
+      <c r="K126" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1.009218009478673</v>
       </c>
     </row>
     <row r="127">
@@ -5570,36 +5764,41 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="C127" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="D127" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="E127" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="F127" t="n">
-        <v>86174.71400000001</v>
+        <v>768.2145</v>
       </c>
       <c r="G127" t="n">
-        <v>21.08666666666667</v>
+        <v>-25.00000000000011</v>
       </c>
       <c r="H127" t="n">
-        <v>21.09166666666666</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="n">
-        <v>0</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
-      <c r="N127" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="K127" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5611,33 +5810,38 @@
         <v>21</v>
       </c>
       <c r="C128" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="D128" t="n">
         <v>21</v>
       </c>
       <c r="E128" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="F128" t="n">
-        <v>203689.5463</v>
+        <v>2000</v>
       </c>
       <c r="G128" t="n">
-        <v>21.03333333333334</v>
+        <v>-33.3333333333336</v>
       </c>
       <c r="H128" t="n">
-        <v>21.08666666666666</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="n">
-        <v>0</v>
-      </c>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
-      <c r="N128" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="K128" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5646,36 +5850,41 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="C129" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="D129" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="E129" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="F129" t="n">
-        <v>10</v>
+        <v>43086.7135</v>
       </c>
       <c r="G129" t="n">
-        <v>21.02666666666667</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="H129" t="n">
-        <v>21.08833333333333</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="n">
-        <v>0</v>
-      </c>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
-      <c r="N129" t="n">
+        <v>21</v>
+      </c>
+      <c r="K129" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5684,36 +5893,41 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="C130" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="D130" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="E130" t="n">
-        <v>20.5</v>
+        <v>21.1</v>
       </c>
       <c r="F130" t="n">
-        <v>42629.007</v>
+        <v>7874.9777</v>
       </c>
       <c r="G130" t="n">
-        <v>21.01333333333333</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="H130" t="n">
-        <v>21.09</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="n">
-        <v>0</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
-      <c r="N130" t="n">
+        <v>21</v>
+      </c>
+      <c r="K130" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5722,36 +5936,41 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="C131" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="D131" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="E131" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="F131" t="n">
-        <v>10</v>
+        <v>400</v>
       </c>
       <c r="G131" t="n">
-        <v>21</v>
+        <v>-59.99999999999943</v>
       </c>
       <c r="H131" t="n">
-        <v>21.08833333333333</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="n">
-        <v>0</v>
-      </c>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr"/>
-      <c r="N131" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="K131" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5760,36 +5979,41 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="C132" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="D132" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="E132" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="F132" t="n">
-        <v>8470.769</v>
+        <v>1000</v>
       </c>
       <c r="G132" t="n">
-        <v>20.98</v>
+        <v>-59.99999999999943</v>
       </c>
       <c r="H132" t="n">
-        <v>21.08833333333333</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="n">
-        <v>0</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr"/>
-      <c r="N132" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="K132" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5798,36 +6022,41 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="C133" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="D133" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="E133" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="F133" t="n">
-        <v>95043.4617</v>
+        <v>8000</v>
       </c>
       <c r="G133" t="n">
-        <v>20.96</v>
+        <v>-59.99999999999943</v>
       </c>
       <c r="H133" t="n">
-        <v>21.09</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="n">
-        <v>0</v>
-      </c>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr"/>
-      <c r="N133" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="K133" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5836,36 +6065,41 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>20.6</v>
+        <v>21.1</v>
       </c>
       <c r="C134" t="n">
-        <v>20.6</v>
+        <v>21.1</v>
       </c>
       <c r="D134" t="n">
-        <v>20.6</v>
+        <v>21.1</v>
       </c>
       <c r="E134" t="n">
-        <v>20.6</v>
+        <v>21.1</v>
       </c>
       <c r="F134" t="n">
-        <v>10</v>
+        <v>3600</v>
       </c>
       <c r="G134" t="n">
-        <v>20.93333333333333</v>
+        <v>-59.99999999999943</v>
       </c>
       <c r="H134" t="n">
-        <v>21.08499999999999</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="n">
-        <v>0</v>
-      </c>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr"/>
-      <c r="N134" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="K134" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5874,36 +6108,41 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="C135" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="D135" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="E135" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="F135" t="n">
-        <v>10</v>
+        <v>33000</v>
       </c>
       <c r="G135" t="n">
-        <v>20.9</v>
+        <v>-59.99999999999943</v>
       </c>
       <c r="H135" t="n">
-        <v>21.08499999999999</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="n">
-        <v>0</v>
-      </c>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr"/>
-      <c r="N135" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="K135" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5912,36 +6151,41 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>20.7</v>
+        <v>21.2</v>
       </c>
       <c r="C136" t="n">
-        <v>20.7</v>
+        <v>21.3</v>
       </c>
       <c r="D136" t="n">
-        <v>20.7</v>
+        <v>21.3</v>
       </c>
       <c r="E136" t="n">
-        <v>20.7</v>
+        <v>21.2</v>
       </c>
       <c r="F136" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G136" t="n">
-        <v>20.86666666666667</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="H136" t="n">
-        <v>21.08166666666666</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="n">
-        <v>0</v>
-      </c>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="inlineStr"/>
-      <c r="N136" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="K136" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5950,36 +6194,41 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>20.5</v>
+        <v>21.2</v>
       </c>
       <c r="C137" t="n">
-        <v>20.5</v>
+        <v>21.3</v>
       </c>
       <c r="D137" t="n">
-        <v>20.5</v>
+        <v>21.3</v>
       </c>
       <c r="E137" t="n">
-        <v>20.5</v>
+        <v>21.2</v>
       </c>
       <c r="F137" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G137" t="n">
-        <v>20.82666666666666</v>
+        <v>100</v>
       </c>
       <c r="H137" t="n">
-        <v>21.07333333333333</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="n">
-        <v>0</v>
-      </c>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr"/>
-      <c r="N137" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="K137" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5988,36 +6237,41 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>20.7</v>
+        <v>21.3</v>
       </c>
       <c r="C138" t="n">
-        <v>20.8</v>
+        <v>21.3</v>
       </c>
       <c r="D138" t="n">
-        <v>20.8</v>
+        <v>21.3</v>
       </c>
       <c r="E138" t="n">
-        <v>20.7</v>
+        <v>21.3</v>
       </c>
       <c r="F138" t="n">
-        <v>720</v>
+        <v>193.3802</v>
       </c>
       <c r="G138" t="n">
-        <v>20.79333333333333</v>
+        <v>100</v>
       </c>
       <c r="H138" t="n">
-        <v>21.06833333333333</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="n">
-        <v>0</v>
-      </c>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr"/>
-      <c r="N138" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="K138" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6026,36 +6280,41 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>20.7</v>
+        <v>21.2</v>
       </c>
       <c r="C139" t="n">
-        <v>20.5</v>
+        <v>21.2</v>
       </c>
       <c r="D139" t="n">
-        <v>20.7</v>
+        <v>21.2</v>
       </c>
       <c r="E139" t="n">
-        <v>20.5</v>
+        <v>21.2</v>
       </c>
       <c r="F139" t="n">
-        <v>10005.8406</v>
+        <v>10</v>
       </c>
       <c r="G139" t="n">
-        <v>20.75333333333333</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="H139" t="n">
-        <v>21.06</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="n">
-        <v>0</v>
-      </c>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="inlineStr"/>
-      <c r="N139" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="K139" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6064,37 +6323,42 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>20.8</v>
+        <v>21.2</v>
       </c>
       <c r="C140" t="n">
-        <v>20.8</v>
+        <v>21.2</v>
       </c>
       <c r="D140" t="n">
-        <v>20.8</v>
+        <v>21.2</v>
       </c>
       <c r="E140" t="n">
-        <v>20.7</v>
+        <v>21.2</v>
       </c>
       <c r="F140" t="n">
-        <v>390</v>
+        <v>8.181800000000001</v>
       </c>
       <c r="G140" t="n">
-        <v>20.74666666666667</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="H140" t="n">
-        <v>21.05833333333333</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="n">
-        <v>0</v>
-      </c>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="inlineStr"/>
-      <c r="N140" t="n">
-        <v>1</v>
+        <v>21.2</v>
+      </c>
+      <c r="K140" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>0.9856542056074766</v>
       </c>
     </row>
     <row r="141">
@@ -6102,36 +6366,1284 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>20.7</v>
+        <v>21.3</v>
       </c>
       <c r="C141" t="n">
-        <v>20.8</v>
+        <v>21.3</v>
       </c>
       <c r="D141" t="n">
-        <v>20.8</v>
+        <v>21.3</v>
       </c>
       <c r="E141" t="n">
-        <v>20.6</v>
+        <v>21.3</v>
       </c>
       <c r="F141" t="n">
+        <v>10</v>
+      </c>
+      <c r="G141" t="n">
+        <v>49.99999999999956</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="K141" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="C142" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="D142" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E142" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F142" t="n">
+        <v>60383.8045</v>
+      </c>
+      <c r="G142" t="n">
+        <v>49.99999999999956</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="K142" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="C143" t="n">
+        <v>21</v>
+      </c>
+      <c r="D143" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="E143" t="n">
+        <v>21</v>
+      </c>
+      <c r="F143" t="n">
+        <v>135051.3179</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-14.28571428571443</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="K143" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="C144" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="D144" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E144" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="F144" t="n">
+        <v>390.4665</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="n">
+        <v>21</v>
+      </c>
+      <c r="K144" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>21</v>
+      </c>
+      <c r="C145" t="n">
+        <v>21</v>
+      </c>
+      <c r="D145" t="n">
+        <v>21</v>
+      </c>
+      <c r="E145" t="n">
+        <v>21</v>
+      </c>
+      <c r="F145" t="n">
+        <v>10</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-42.85714285714256</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="K145" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="C146" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="D146" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="E146" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="F146" t="n">
+        <v>10</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-24.99999999999967</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>21</v>
+      </c>
+      <c r="K146" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="C147" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="D147" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="E147" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="F147" t="n">
+        <v>27641.872</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-24.99999999999967</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="K147" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>21</v>
+      </c>
+      <c r="C148" t="n">
+        <v>21</v>
+      </c>
+      <c r="D148" t="n">
+        <v>21</v>
+      </c>
+      <c r="E148" t="n">
+        <v>21</v>
+      </c>
+      <c r="F148" t="n">
+        <v>10</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-24.99999999999967</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="K148" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="C149" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="D149" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E149" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F149" t="n">
+        <v>100</v>
+      </c>
+      <c r="G149" t="n">
+        <v>9.09090909090915</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="n">
+        <v>21</v>
+      </c>
+      <c r="K149" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="C150" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="D150" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="E150" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1134.7094</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-9.09090909090915</v>
+      </c>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="K150" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>21</v>
+      </c>
+      <c r="C151" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="D151" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="E151" t="n">
+        <v>21</v>
+      </c>
+      <c r="F151" t="n">
+        <v>36781.5443</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-16.66666666666652</v>
+      </c>
+      <c r="H151" t="n">
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="K151" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="C152" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="D152" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E152" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="F152" t="n">
+        <v>79023.4433</v>
+      </c>
+      <c r="G152" t="n">
+        <v>27.27272727272722</v>
+      </c>
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="K152" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="C153" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="D153" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E153" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="F153" t="n">
+        <v>5077.23</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" t="n">
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="K153" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>0.9856103286384977</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="C154" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="D154" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="E154" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="F154" t="n">
+        <v>83257.3511</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-7.692307692307776</v>
+      </c>
+      <c r="H154" t="n">
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="K154" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="C155" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="D155" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="E155" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="F155" t="n">
+        <v>40302.9266</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-16.66666666666686</v>
+      </c>
+      <c r="H155" t="n">
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K155" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="C156" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="D156" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="E156" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="F156" t="n">
+        <v>86174.71400000001</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-16.66666666666686</v>
+      </c>
+      <c r="H156" t="n">
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K156" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>21</v>
+      </c>
+      <c r="C157" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="D157" t="n">
+        <v>21</v>
+      </c>
+      <c r="E157" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="F157" t="n">
+        <v>203689.5463</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-33.33333333333333</v>
+      </c>
+      <c r="H157" t="n">
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K157" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="C158" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="D158" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="E158" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="F158" t="n">
+        <v>10</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-25.00000000000022</v>
+      </c>
+      <c r="H158" t="n">
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K158" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="C159" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="D159" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="E159" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="F159" t="n">
+        <v>42629.007</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-20.00000000000014</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>1</v>
+      </c>
+      <c r="J159" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K159" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="C160" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="D160" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="E160" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="F160" t="n">
+        <v>10</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-20.00000000000019</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K160" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="C161" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="D161" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="E161" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="F161" t="n">
+        <v>8470.769</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-38.46153846153876</v>
+      </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K161" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="C162" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="D162" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="E162" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="F162" t="n">
+        <v>95043.4617</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-27.27272727272756</v>
+      </c>
+      <c r="H162" t="n">
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>1</v>
+      </c>
+      <c r="J162" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K162" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="C163" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="D163" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="E163" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="F163" t="n">
+        <v>10</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-27.27272727272724</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K163" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="C164" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="D164" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="E164" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="F164" t="n">
+        <v>10</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-7.692307692307566</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>1</v>
+      </c>
+      <c r="J164" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K164" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="C165" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="D165" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="E165" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="F165" t="n">
+        <v>10</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-14.28571428571428</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>1</v>
+      </c>
+      <c r="J165" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K165" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>0.9668309859154929</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="C166" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="D166" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="E166" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="F166" t="n">
+        <v>10</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0</v>
+      </c>
+      <c r="H166" t="n">
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>1</v>
+      </c>
+      <c r="J166" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="K166" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="C167" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="D167" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="E167" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="F167" t="n">
+        <v>720</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-9.090909090908944</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>1</v>
+      </c>
+      <c r="J167" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K167" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="C168" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="D168" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="E168" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="F168" t="n">
+        <v>10005.8406</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-28.57142857142864</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>1</v>
+      </c>
+      <c r="J168" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K168" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="C169" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="D169" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="E169" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="F169" t="n">
+        <v>390</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0</v>
+      </c>
+      <c r="H169" t="n">
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>1</v>
+      </c>
+      <c r="J169" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K169" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="C170" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="D170" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="E170" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="F170" t="n">
         <v>30</v>
       </c>
-      <c r="G141" t="n">
-        <v>20.74</v>
-      </c>
-      <c r="H141" t="n">
-        <v>21.05666666666666</v>
-      </c>
-      <c r="I141" t="n">
+      <c r="G170" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>0</v>
-      </c>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr"/>
-      <c r="N141" t="n">
+      <c r="H170" t="n">
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>1</v>
+      </c>
+      <c r="J170" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K170" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-17 BackTest CMT.xlsx
+++ b/BackTest/2019-10-17 BackTest CMT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N128"/>
+  <dimension ref="A1:N199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>20.9</v>
+        <v>21.2</v>
       </c>
       <c r="C2" t="n">
-        <v>20.9</v>
+        <v>21.2</v>
       </c>
       <c r="D2" t="n">
-        <v>20.9</v>
+        <v>21.2</v>
       </c>
       <c r="E2" t="n">
-        <v>20.9</v>
+        <v>21.2</v>
       </c>
       <c r="F2" t="n">
-        <v>16075.5857</v>
+        <v>11</v>
       </c>
       <c r="G2" t="n">
-        <v>-432383.2269582932</v>
+        <v>-121259.8017326894</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20.8</v>
+        <v>21.2</v>
       </c>
       <c r="C3" t="n">
-        <v>20.8</v>
+        <v>21.2</v>
       </c>
       <c r="D3" t="n">
-        <v>20.8</v>
+        <v>21.2</v>
       </c>
       <c r="E3" t="n">
-        <v>20.8</v>
+        <v>21.2</v>
       </c>
       <c r="F3" t="n">
-        <v>118.2211</v>
+        <v>307.0283</v>
       </c>
       <c r="G3" t="n">
-        <v>-432501.4480582933</v>
+        <v>-121259.8017326894</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,28 +510,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20.8</v>
+        <v>21.2</v>
       </c>
       <c r="C4" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="D4" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="E4" t="n">
-        <v>20.8</v>
+        <v>21.2</v>
       </c>
       <c r="F4" t="n">
-        <v>21392.4124</v>
+        <v>213.915</v>
       </c>
       <c r="G4" t="n">
-        <v>-411109.0356582933</v>
+        <v>-121259.8017326894</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -546,28 +546,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>21</v>
+        <v>20.7</v>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>20.7</v>
       </c>
       <c r="D5" t="n">
-        <v>21</v>
+        <v>20.7</v>
       </c>
       <c r="E5" t="n">
-        <v>21</v>
+        <v>20.7</v>
       </c>
       <c r="F5" t="n">
-        <v>26539.9523</v>
+        <v>2796.2303</v>
       </c>
       <c r="G5" t="n">
-        <v>-437648.9879582933</v>
+        <v>-124056.0320326894</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -594,10 +594,10 @@
         <v>20.7</v>
       </c>
       <c r="F6" t="n">
-        <v>6810</v>
+        <v>10000</v>
       </c>
       <c r="G6" t="n">
-        <v>-444458.9879582933</v>
+        <v>-124056.0320326894</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="C7" t="n">
-        <v>20.6</v>
+        <v>21.1</v>
       </c>
       <c r="D7" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="E7" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="F7" t="n">
-        <v>4135.452</v>
+        <v>41.92</v>
       </c>
       <c r="G7" t="n">
-        <v>-448594.4399582933</v>
+        <v>-124014.1120326894</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>20.6</v>
+        <v>20.9</v>
       </c>
       <c r="C8" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="D8" t="n">
-        <v>20.6</v>
+        <v>20.9</v>
       </c>
       <c r="E8" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="F8" t="n">
-        <v>37759.548</v>
+        <v>10702.5177</v>
       </c>
       <c r="G8" t="n">
-        <v>-486353.9879582933</v>
+        <v>-134716.6297326894</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="C9" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="D9" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="E9" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="F9" t="n">
-        <v>907.65</v>
+        <v>10342.4</v>
       </c>
       <c r="G9" t="n">
-        <v>-485446.3379582933</v>
+        <v>-134716.6297326894</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>21.1</v>
+        <v>20.7</v>
       </c>
       <c r="C10" t="n">
-        <v>21.1</v>
+        <v>20.7</v>
       </c>
       <c r="D10" t="n">
-        <v>21.1</v>
+        <v>20.7</v>
       </c>
       <c r="E10" t="n">
-        <v>21.1</v>
+        <v>20.7</v>
       </c>
       <c r="F10" t="n">
-        <v>7000</v>
+        <v>10</v>
       </c>
       <c r="G10" t="n">
-        <v>-478446.3379582933</v>
+        <v>-134726.6297326894</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="C11" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="D11" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="E11" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="F11" t="n">
-        <v>117.9255</v>
+        <v>8200</v>
       </c>
       <c r="G11" t="n">
-        <v>-478564.2634582933</v>
+        <v>-134726.6297326894</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="C12" t="n">
         <v>20.7</v>
       </c>
       <c r="D12" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="E12" t="n">
         <v>20.7</v>
       </c>
       <c r="F12" t="n">
-        <v>3745.9336</v>
+        <v>9127.816699999999</v>
       </c>
       <c r="G12" t="n">
-        <v>-482310.1970582933</v>
+        <v>-134726.6297326894</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="C13" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="D13" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="E13" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="F13" t="n">
-        <v>74.0664</v>
+        <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>-482310.1970582933</v>
+        <v>-134716.6297326894</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="C14" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="D14" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="E14" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="F14" t="n">
-        <v>947.8672985781991</v>
+        <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>-481362.3297597151</v>
+        <v>-134706.6297326894</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="C15" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="D15" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="E15" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="F15" t="n">
-        <v>6432.132701421801</v>
+        <v>1744.4844</v>
       </c>
       <c r="G15" t="n">
-        <v>-481362.3297597151</v>
+        <v>-136451.1141326894</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="C16" t="n">
-        <v>21.2</v>
+        <v>20.9</v>
       </c>
       <c r="D16" t="n">
-        <v>21.2</v>
+        <v>20.9</v>
       </c>
       <c r="E16" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="F16" t="n">
-        <v>14877.5952</v>
+        <v>17745.3242</v>
       </c>
       <c r="G16" t="n">
-        <v>-466484.7345597151</v>
+        <v>-136451.1141326894</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="C17" t="n">
-        <v>20.7</v>
+        <v>21.1</v>
       </c>
       <c r="D17" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="E17" t="n">
-        <v>20.7</v>
+        <v>21.1</v>
       </c>
       <c r="F17" t="n">
-        <v>7230.0001</v>
+        <v>3682.5118</v>
       </c>
       <c r="G17" t="n">
-        <v>-473714.7346597151</v>
+        <v>-132768.6023326894</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1017,19 +1017,19 @@
         <v>20.8</v>
       </c>
       <c r="C18" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="D18" t="n">
         <v>20.8</v>
       </c>
       <c r="E18" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="F18" t="n">
-        <v>3620.0001</v>
+        <v>699.7751</v>
       </c>
       <c r="G18" t="n">
-        <v>-473714.7346597151</v>
+        <v>-133468.3774326894</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>20.8</v>
       </c>
       <c r="F19" t="n">
-        <v>10</v>
+        <v>165.7726</v>
       </c>
       <c r="G19" t="n">
-        <v>-473704.7346597151</v>
+        <v>-133468.3774326894</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1089,19 +1089,19 @@
         <v>20.8</v>
       </c>
       <c r="C20" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="D20" t="n">
         <v>20.8</v>
       </c>
       <c r="E20" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="F20" t="n">
-        <v>2518.7328</v>
+        <v>6176</v>
       </c>
       <c r="G20" t="n">
-        <v>-476223.4674597151</v>
+        <v>-133468.3774326894</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="C21" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="D21" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="E21" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="F21" t="n">
-        <v>1810</v>
+        <v>10</v>
       </c>
       <c r="G21" t="n">
-        <v>-474413.4674597151</v>
+        <v>-133458.3774326894</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="D22" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="E22" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="F22" t="n">
-        <v>4625.812</v>
+        <v>4500.9287</v>
       </c>
       <c r="G22" t="n">
-        <v>-474413.4674597151</v>
+        <v>-137959.3061326894</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="C23" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="D23" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="E23" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="F23" t="n">
-        <v>17.486</v>
+        <v>26886.8732</v>
       </c>
       <c r="G23" t="n">
-        <v>-474413.4674597151</v>
+        <v>-137959.3061326894</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="C24" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="D24" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="E24" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="F24" t="n">
-        <v>356.2851</v>
+        <v>3330.6826</v>
       </c>
       <c r="G24" t="n">
-        <v>-474413.4674597151</v>
+        <v>-134628.6235326894</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="C25" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="D25" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="E25" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="F25" t="n">
-        <v>362.4479</v>
+        <v>17102.8405</v>
       </c>
       <c r="G25" t="n">
-        <v>-474413.4674597151</v>
+        <v>-134628.6235326894</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="C26" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="D26" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="E26" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="F26" t="n">
-        <v>4637.969</v>
+        <v>32704.1418</v>
       </c>
       <c r="G26" t="n">
-        <v>-474413.4674597151</v>
+        <v>-101924.4817326894</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>20.9</v>
       </c>
       <c r="C27" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="D27" t="n">
         <v>20.9</v>
@@ -1350,10 +1350,10 @@
         <v>20.7</v>
       </c>
       <c r="F27" t="n">
-        <v>731.6727</v>
+        <v>35926.3756</v>
       </c>
       <c r="G27" t="n">
-        <v>-475145.1401597151</v>
+        <v>-137850.8573326893</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1374,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="C28" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="D28" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="E28" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="F28" t="n">
-        <v>10</v>
+        <v>3697.6329</v>
       </c>
       <c r="G28" t="n">
-        <v>-475155.1401597151</v>
+        <v>-141548.4902326893</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>20.6</v>
+        <v>21.1</v>
       </c>
       <c r="C29" t="n">
-        <v>20.6</v>
+        <v>21.1</v>
       </c>
       <c r="D29" t="n">
-        <v>20.6</v>
+        <v>21.1</v>
       </c>
       <c r="E29" t="n">
-        <v>20.6</v>
+        <v>21.1</v>
       </c>
       <c r="F29" t="n">
-        <v>6966.1147</v>
+        <v>10</v>
       </c>
       <c r="G29" t="n">
-        <v>-475155.1401597151</v>
+        <v>-141538.4902326893</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,35 +1446,31 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="C30" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="D30" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="E30" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="F30" t="n">
-        <v>80</v>
+        <v>826.9871000000001</v>
       </c>
       <c r="G30" t="n">
-        <v>-475155.1401597151</v>
+        <v>-142365.4773326893</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K30" t="n">
-        <v>20.6</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
@@ -1486,40 +1482,32 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="C31" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="D31" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="E31" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="F31" t="n">
-        <v>4973.3055</v>
+        <v>500</v>
       </c>
       <c r="G31" t="n">
-        <v>-475155.1401597151</v>
+        <v>-142365.4773326893</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K31" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1530,40 +1518,32 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="C32" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="D32" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="E32" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="F32" t="n">
-        <v>12894.6046</v>
+        <v>3100</v>
       </c>
       <c r="G32" t="n">
-        <v>-475155.1401597151</v>
+        <v>-142365.4773326893</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K32" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1574,40 +1554,32 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="C33" t="n">
-        <v>20.6</v>
+        <v>21</v>
       </c>
       <c r="D33" t="n">
-        <v>20.6</v>
+        <v>21</v>
       </c>
       <c r="E33" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="F33" t="n">
-        <v>17014.7092</v>
+        <v>24</v>
       </c>
       <c r="G33" t="n">
-        <v>-475155.1401597151</v>
+        <v>-142341.4773326893</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K33" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1618,40 +1590,32 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>20.5</v>
+        <v>20.8</v>
       </c>
       <c r="C34" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="D34" t="n">
-        <v>20.5</v>
+        <v>20.8</v>
       </c>
       <c r="E34" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="F34" t="n">
-        <v>12183.7298</v>
+        <v>30000</v>
       </c>
       <c r="G34" t="n">
-        <v>-487338.8699597151</v>
+        <v>-172341.4773326893</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K34" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1662,40 +1626,32 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="C35" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="D35" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="E35" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="F35" t="n">
-        <v>30604.806</v>
+        <v>9357.329299999999</v>
       </c>
       <c r="G35" t="n">
-        <v>-456734.0639597151</v>
+        <v>-172341.4773326893</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K35" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1718,28 +1674,20 @@
         <v>20.8</v>
       </c>
       <c r="F36" t="n">
-        <v>10</v>
+        <v>18501.999</v>
       </c>
       <c r="G36" t="n">
-        <v>-456724.0639597151</v>
+        <v>-172341.4773326893</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K36" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1750,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="C37" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="D37" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="E37" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="F37" t="n">
-        <v>43510.13455714285</v>
+        <v>4404.5448</v>
       </c>
       <c r="G37" t="n">
-        <v>-413213.9294025722</v>
+        <v>-167936.9325326893</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1774,14 +1722,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1792,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>20.7</v>
+        <v>21</v>
       </c>
       <c r="C38" t="n">
-        <v>20.6</v>
+        <v>21</v>
       </c>
       <c r="D38" t="n">
-        <v>20.7</v>
+        <v>21</v>
       </c>
       <c r="E38" t="n">
-        <v>20.6</v>
+        <v>21</v>
       </c>
       <c r="F38" t="n">
-        <v>20000</v>
+        <v>8522.952300000001</v>
       </c>
       <c r="G38" t="n">
-        <v>-433213.9294025722</v>
+        <v>-176459.8848326893</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1816,14 +1758,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1834,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>20.6</v>
+        <v>21</v>
       </c>
       <c r="C39" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="D39" t="n">
-        <v>20.6</v>
+        <v>21</v>
       </c>
       <c r="E39" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="F39" t="n">
-        <v>50000</v>
+        <v>1477.0477</v>
       </c>
       <c r="G39" t="n">
-        <v>-483213.9294025722</v>
+        <v>-176459.8848326893</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1858,14 +1794,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1876,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>20.4</v>
+        <v>21</v>
       </c>
       <c r="C40" t="n">
-        <v>20.4</v>
+        <v>20.9</v>
       </c>
       <c r="D40" t="n">
-        <v>20.4</v>
+        <v>21</v>
       </c>
       <c r="E40" t="n">
-        <v>20.4</v>
+        <v>20.9</v>
       </c>
       <c r="F40" t="n">
-        <v>30</v>
+        <v>19765.8915</v>
       </c>
       <c r="G40" t="n">
-        <v>-483243.9294025722</v>
+        <v>-196225.7763326893</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1900,14 +1830,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1918,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="C41" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="D41" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="E41" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="F41" t="n">
         <v>10</v>
       </c>
       <c r="G41" t="n">
-        <v>-483233.9294025722</v>
+        <v>-196225.7763326893</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1942,14 +1866,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1960,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>20.7</v>
+        <v>21</v>
       </c>
       <c r="C42" t="n">
-        <v>20.4</v>
+        <v>21</v>
       </c>
       <c r="D42" t="n">
-        <v>20.7</v>
+        <v>21</v>
       </c>
       <c r="E42" t="n">
-        <v>20.4</v>
+        <v>21</v>
       </c>
       <c r="F42" t="n">
-        <v>110</v>
+        <v>9980.481400000001</v>
       </c>
       <c r="G42" t="n">
-        <v>-483343.9294025722</v>
+        <v>-186245.2949326893</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1984,14 +1902,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2002,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>20.7</v>
+        <v>21</v>
       </c>
       <c r="C43" t="n">
-        <v>20.7</v>
+        <v>21</v>
       </c>
       <c r="D43" t="n">
-        <v>20.7</v>
+        <v>21</v>
       </c>
       <c r="E43" t="n">
-        <v>20.7</v>
+        <v>21</v>
       </c>
       <c r="F43" t="n">
-        <v>10</v>
+        <v>21403.2664</v>
       </c>
       <c r="G43" t="n">
-        <v>-483333.9294025722</v>
+        <v>-186245.2949326893</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2026,14 +1938,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2044,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>20.6</v>
+        <v>21</v>
       </c>
       <c r="C44" t="n">
-        <v>20.6</v>
+        <v>21</v>
       </c>
       <c r="D44" t="n">
-        <v>20.6</v>
+        <v>21</v>
       </c>
       <c r="E44" t="n">
-        <v>20.6</v>
+        <v>21</v>
       </c>
       <c r="F44" t="n">
-        <v>1755.1456</v>
+        <v>16320.7812</v>
       </c>
       <c r="G44" t="n">
-        <v>-485089.0750025722</v>
+        <v>-186245.2949326893</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2068,14 +1974,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2086,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>20.6</v>
+        <v>20.9</v>
       </c>
       <c r="C45" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="D45" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="E45" t="n">
-        <v>20.6</v>
+        <v>20.9</v>
       </c>
       <c r="F45" t="n">
-        <v>36319.5249</v>
+        <v>990</v>
       </c>
       <c r="G45" t="n">
-        <v>-448769.5501025722</v>
+        <v>-187235.2949326893</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2110,14 +2010,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2128,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="C46" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="D46" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="E46" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="F46" t="n">
-        <v>34010.0881</v>
+        <v>44224.4108</v>
       </c>
       <c r="G46" t="n">
-        <v>-482779.6382025722</v>
+        <v>-231459.7057326894</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2152,14 +2046,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2170,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>21.1</v>
+        <v>20.6</v>
       </c>
       <c r="C47" t="n">
-        <v>21.1</v>
+        <v>20.6</v>
       </c>
       <c r="D47" t="n">
-        <v>21.1</v>
+        <v>20.6</v>
       </c>
       <c r="E47" t="n">
-        <v>21.1</v>
+        <v>20.6</v>
       </c>
       <c r="F47" t="n">
-        <v>10</v>
+        <v>40970.9846</v>
       </c>
       <c r="G47" t="n">
-        <v>-482769.6382025722</v>
+        <v>-272430.6903326894</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2194,14 +2082,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2212,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>20.9</v>
+        <v>20.6</v>
       </c>
       <c r="C48" t="n">
-        <v>20.9</v>
+        <v>20.6</v>
       </c>
       <c r="D48" t="n">
-        <v>20.9</v>
+        <v>20.6</v>
       </c>
       <c r="E48" t="n">
-        <v>20.9</v>
+        <v>20.6</v>
       </c>
       <c r="F48" t="n">
-        <v>25000</v>
+        <v>19589.0652</v>
       </c>
       <c r="G48" t="n">
-        <v>-507769.6382025722</v>
+        <v>-272430.6903326894</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2236,14 +2118,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2254,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>20.9</v>
+        <v>20.6</v>
       </c>
       <c r="C49" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="D49" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="E49" t="n">
-        <v>20.9</v>
+        <v>20.6</v>
       </c>
       <c r="F49" t="n">
-        <v>429.665</v>
+        <v>210</v>
       </c>
       <c r="G49" t="n">
-        <v>-507769.6382025722</v>
+        <v>-272220.6903326894</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2278,14 +2154,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2296,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="C50" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="D50" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="E50" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="F50" t="n">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="G50" t="n">
-        <v>-507779.6382025722</v>
+        <v>-272220.6903326894</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2320,14 +2190,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2338,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>21.1</v>
+        <v>20.6</v>
       </c>
       <c r="C51" t="n">
-        <v>21.1</v>
+        <v>20.6</v>
       </c>
       <c r="D51" t="n">
-        <v>21.1</v>
+        <v>20.6</v>
       </c>
       <c r="E51" t="n">
-        <v>21.1</v>
+        <v>20.6</v>
       </c>
       <c r="F51" t="n">
-        <v>10</v>
+        <v>12145.3421</v>
       </c>
       <c r="G51" t="n">
-        <v>-507769.6382025722</v>
+        <v>-284366.0324326894</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2362,14 +2226,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2380,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="C52" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="D52" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="E52" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="F52" t="n">
-        <v>20</v>
+        <v>19.2762</v>
       </c>
       <c r="G52" t="n">
-        <v>-507789.6382025722</v>
+        <v>-284346.7562326894</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2404,14 +2262,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2422,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="C53" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="D53" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="E53" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="F53" t="n">
-        <v>50</v>
+        <v>30000</v>
       </c>
       <c r="G53" t="n">
-        <v>-507789.6382025722</v>
+        <v>-314346.7562326894</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2446,14 +2298,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2464,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="C54" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="D54" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="E54" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="F54" t="n">
-        <v>745.5389</v>
+        <v>10674.3867</v>
       </c>
       <c r="G54" t="n">
-        <v>-507789.6382025722</v>
+        <v>-314346.7562326894</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2488,14 +2334,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2506,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="C55" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="D55" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="E55" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="F55" t="n">
-        <v>16998.4107</v>
+        <v>13627.4011</v>
       </c>
       <c r="G55" t="n">
-        <v>-524788.0489025721</v>
+        <v>-314346.7562326894</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2530,14 +2370,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2548,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="C56" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="D56" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="E56" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="F56" t="n">
-        <v>3001.5893</v>
+        <v>27606.9458</v>
       </c>
       <c r="G56" t="n">
-        <v>-524788.0489025721</v>
+        <v>-314346.7562326894</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2572,14 +2406,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2590,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="C57" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="D57" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="E57" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="F57" t="n">
-        <v>50</v>
+        <v>23197.6744</v>
       </c>
       <c r="G57" t="n">
-        <v>-524788.0489025721</v>
+        <v>-314346.7562326894</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2614,14 +2442,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2632,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="C58" t="n">
-        <v>20.9</v>
+        <v>20.6</v>
       </c>
       <c r="D58" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="E58" t="n">
-        <v>20.9</v>
+        <v>20.6</v>
       </c>
       <c r="F58" t="n">
-        <v>19000</v>
+        <v>52346.4553</v>
       </c>
       <c r="G58" t="n">
-        <v>-505788.0489025721</v>
+        <v>-366693.2115326894</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2656,14 +2478,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2674,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="C59" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="D59" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="E59" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="F59" t="n">
-        <v>52736.3914</v>
+        <v>2623.863</v>
       </c>
       <c r="G59" t="n">
-        <v>-558524.4403025721</v>
+        <v>-366693.2115326894</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2698,14 +2514,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2728,10 +2538,10 @@
         <v>20.7</v>
       </c>
       <c r="F60" t="n">
-        <v>748.3150000000001</v>
+        <v>725.4589</v>
       </c>
       <c r="G60" t="n">
-        <v>-559272.755302572</v>
+        <v>-365967.7526326894</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2740,14 +2550,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2761,19 +2565,19 @@
         <v>20.8</v>
       </c>
       <c r="C61" t="n">
-        <v>20.9</v>
+        <v>20.6</v>
       </c>
       <c r="D61" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="E61" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="F61" t="n">
-        <v>126.1278</v>
+        <v>31.3942</v>
       </c>
       <c r="G61" t="n">
-        <v>-559146.627502572</v>
+        <v>-365999.1468326894</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2782,14 +2586,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2812,10 +2610,10 @@
         <v>20.8</v>
       </c>
       <c r="F62" t="n">
-        <v>10</v>
+        <v>487.6442307692308</v>
       </c>
       <c r="G62" t="n">
-        <v>-559156.627502572</v>
+        <v>-365511.5026019201</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2824,14 +2622,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2842,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>20.9</v>
+        <v>20.6</v>
       </c>
       <c r="C63" t="n">
-        <v>20.9</v>
+        <v>20.6</v>
       </c>
       <c r="D63" t="n">
-        <v>20.9</v>
+        <v>20.6</v>
       </c>
       <c r="E63" t="n">
-        <v>20.9</v>
+        <v>20.6</v>
       </c>
       <c r="F63" t="n">
-        <v>271.5745</v>
+        <v>10010</v>
       </c>
       <c r="G63" t="n">
-        <v>-558885.053002572</v>
+        <v>-375521.5026019201</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2866,14 +2658,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2884,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>21</v>
+        <v>20.5</v>
       </c>
       <c r="C64" t="n">
-        <v>21</v>
+        <v>20.5</v>
       </c>
       <c r="D64" t="n">
-        <v>21</v>
+        <v>20.5</v>
       </c>
       <c r="E64" t="n">
-        <v>21</v>
+        <v>20.5</v>
       </c>
       <c r="F64" t="n">
-        <v>34817.6564</v>
+        <v>30958.1902</v>
       </c>
       <c r="G64" t="n">
-        <v>-524067.3966025721</v>
+        <v>-406479.6928019201</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2908,14 +2694,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2926,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>21</v>
+        <v>20.5</v>
       </c>
       <c r="C65" t="n">
-        <v>21.1</v>
+        <v>20.5</v>
       </c>
       <c r="D65" t="n">
-        <v>21.1</v>
+        <v>20.5</v>
       </c>
       <c r="E65" t="n">
-        <v>21</v>
+        <v>20.5</v>
       </c>
       <c r="F65" t="n">
-        <v>6819.4848</v>
+        <v>19.0439</v>
       </c>
       <c r="G65" t="n">
-        <v>-517247.9118025721</v>
+        <v>-406479.6928019201</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2950,14 +2730,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2968,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>21</v>
+        <v>20.5</v>
       </c>
       <c r="C66" t="n">
-        <v>21</v>
+        <v>20.5</v>
       </c>
       <c r="D66" t="n">
-        <v>21</v>
+        <v>20.5</v>
       </c>
       <c r="E66" t="n">
-        <v>21</v>
+        <v>20.5</v>
       </c>
       <c r="F66" t="n">
-        <v>48.0769</v>
+        <v>490</v>
       </c>
       <c r="G66" t="n">
-        <v>-517295.9887025721</v>
+        <v>-406479.6928019201</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2992,14 +2766,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3010,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>21</v>
+        <v>20.5</v>
       </c>
       <c r="C67" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="D67" t="n">
-        <v>21</v>
+        <v>20.7</v>
       </c>
       <c r="E67" t="n">
-        <v>20.9</v>
+        <v>20.5</v>
       </c>
       <c r="F67" t="n">
-        <v>77843.5699</v>
+        <v>1000.0001</v>
       </c>
       <c r="G67" t="n">
-        <v>-595139.5586025721</v>
+        <v>-405479.6927019201</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3034,14 +2802,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3052,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>20.9</v>
+        <v>20.5</v>
       </c>
       <c r="C68" t="n">
-        <v>20.9</v>
+        <v>20.4</v>
       </c>
       <c r="D68" t="n">
-        <v>20.9</v>
+        <v>20.5</v>
       </c>
       <c r="E68" t="n">
-        <v>20.9</v>
+        <v>20.4</v>
       </c>
       <c r="F68" t="n">
-        <v>31198.4722</v>
+        <v>36934.7297</v>
       </c>
       <c r="G68" t="n">
-        <v>-595139.5586025721</v>
+        <v>-442414.4224019201</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3076,14 +2838,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3094,22 +2850,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>20.9</v>
+        <v>20.4</v>
       </c>
       <c r="C69" t="n">
-        <v>20.9</v>
+        <v>20.4</v>
       </c>
       <c r="D69" t="n">
-        <v>20.9</v>
+        <v>20.4</v>
       </c>
       <c r="E69" t="n">
-        <v>20.9</v>
+        <v>20.4</v>
       </c>
       <c r="F69" t="n">
-        <v>203705.6889</v>
+        <v>344.9652</v>
       </c>
       <c r="G69" t="n">
-        <v>-595139.5586025721</v>
+        <v>-442414.4224019201</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3118,14 +2874,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3136,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>21.1</v>
+        <v>20.7</v>
       </c>
       <c r="C70" t="n">
-        <v>21.1</v>
+        <v>20.7</v>
       </c>
       <c r="D70" t="n">
-        <v>21.1</v>
+        <v>20.7</v>
       </c>
       <c r="E70" t="n">
-        <v>21.1</v>
+        <v>20.7</v>
       </c>
       <c r="F70" t="n">
-        <v>11</v>
+        <v>10030.91787439613</v>
       </c>
       <c r="G70" t="n">
-        <v>-595128.5586025721</v>
+        <v>-432383.504527524</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3160,14 +2910,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3178,22 +2922,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>20.9</v>
+        <v>20.6</v>
       </c>
       <c r="C71" t="n">
-        <v>20.9</v>
+        <v>20.5</v>
       </c>
       <c r="D71" t="n">
-        <v>20.9</v>
+        <v>20.6</v>
       </c>
       <c r="E71" t="n">
-        <v>20.9</v>
+        <v>20.5</v>
       </c>
       <c r="F71" t="n">
-        <v>90</v>
+        <v>16999.9999</v>
       </c>
       <c r="G71" t="n">
-        <v>-595218.5586025721</v>
+        <v>-449383.504427524</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3202,14 +2946,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3220,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="C72" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="D72" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="E72" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="F72" t="n">
-        <v>10947.0664</v>
+        <v>924.6917692307692</v>
       </c>
       <c r="G72" t="n">
-        <v>-584271.4922025721</v>
+        <v>-448458.8126582932</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3244,14 +2982,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3262,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="C73" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="D73" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="E73" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="F73" t="n">
-        <v>14085.9362</v>
+        <v>16075.5857</v>
       </c>
       <c r="G73" t="n">
-        <v>-598357.4284025721</v>
+        <v>-432383.2269582932</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3286,14 +3018,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3304,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>21.2</v>
+        <v>20.8</v>
       </c>
       <c r="C74" t="n">
-        <v>21.3</v>
+        <v>20.8</v>
       </c>
       <c r="D74" t="n">
-        <v>21.3</v>
+        <v>20.8</v>
       </c>
       <c r="E74" t="n">
-        <v>21.2</v>
+        <v>20.8</v>
       </c>
       <c r="F74" t="n">
-        <v>33200</v>
+        <v>118.2211</v>
       </c>
       <c r="G74" t="n">
-        <v>-565157.4284025721</v>
+        <v>-432501.4480582933</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3328,14 +3054,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3346,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>21.4</v>
+        <v>20.8</v>
       </c>
       <c r="C75" t="n">
-        <v>21.4</v>
+        <v>21.1</v>
       </c>
       <c r="D75" t="n">
-        <v>21.4</v>
+        <v>21.1</v>
       </c>
       <c r="E75" t="n">
-        <v>21.4</v>
+        <v>20.8</v>
       </c>
       <c r="F75" t="n">
-        <v>11</v>
+        <v>21392.4124</v>
       </c>
       <c r="G75" t="n">
-        <v>-565146.4284025721</v>
+        <v>-411109.0356582933</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3370,14 +3090,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3388,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>21.3</v>
+        <v>21</v>
       </c>
       <c r="C76" t="n">
-        <v>21.3</v>
+        <v>21</v>
       </c>
       <c r="D76" t="n">
-        <v>21.4</v>
+        <v>21</v>
       </c>
       <c r="E76" t="n">
-        <v>21.3</v>
+        <v>21</v>
       </c>
       <c r="F76" t="n">
-        <v>12537.8215</v>
+        <v>26539.9523</v>
       </c>
       <c r="G76" t="n">
-        <v>-577684.249902572</v>
+        <v>-437648.9879582933</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3412,14 +3126,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3430,22 +3138,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>21.2</v>
+        <v>20.7</v>
       </c>
       <c r="C77" t="n">
-        <v>21.3</v>
+        <v>20.7</v>
       </c>
       <c r="D77" t="n">
-        <v>21.3</v>
+        <v>20.7</v>
       </c>
       <c r="E77" t="n">
-        <v>21.2</v>
+        <v>20.7</v>
       </c>
       <c r="F77" t="n">
-        <v>2022</v>
+        <v>6810</v>
       </c>
       <c r="G77" t="n">
-        <v>-577684.249902572</v>
+        <v>-444458.9879582933</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3454,14 +3162,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3472,22 +3174,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="C78" t="n">
-        <v>21.1</v>
+        <v>20.6</v>
       </c>
       <c r="D78" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="E78" t="n">
-        <v>21.1</v>
+        <v>20.6</v>
       </c>
       <c r="F78" t="n">
-        <v>19349.0887</v>
+        <v>4135.452</v>
       </c>
       <c r="G78" t="n">
-        <v>-597033.338602572</v>
+        <v>-448594.4399582933</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3496,14 +3198,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3514,22 +3210,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>21.2</v>
+        <v>20.6</v>
       </c>
       <c r="C79" t="n">
-        <v>21.2</v>
+        <v>20.4</v>
       </c>
       <c r="D79" t="n">
-        <v>21.2</v>
+        <v>20.6</v>
       </c>
       <c r="E79" t="n">
-        <v>21.2</v>
+        <v>20.4</v>
       </c>
       <c r="F79" t="n">
-        <v>30630.0945</v>
+        <v>37759.548</v>
       </c>
       <c r="G79" t="n">
-        <v>-566403.244102572</v>
+        <v>-486353.9879582933</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3538,14 +3234,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3556,22 +3246,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="C80" t="n">
-        <v>21.4</v>
+        <v>21</v>
       </c>
       <c r="D80" t="n">
-        <v>21.4</v>
+        <v>21</v>
       </c>
       <c r="E80" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="F80" t="n">
-        <v>140358.0301</v>
+        <v>907.65</v>
       </c>
       <c r="G80" t="n">
-        <v>-426045.214002572</v>
+        <v>-485446.3379582933</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3580,14 +3270,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3598,22 +3282,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="C81" t="n">
-        <v>21.4</v>
+        <v>21.1</v>
       </c>
       <c r="D81" t="n">
-        <v>21.4</v>
+        <v>21.1</v>
       </c>
       <c r="E81" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="F81" t="n">
-        <v>15542.8309</v>
+        <v>7000</v>
       </c>
       <c r="G81" t="n">
-        <v>-426045.214002572</v>
+        <v>-478446.3379582933</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3622,14 +3306,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3640,22 +3318,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>21.5</v>
+        <v>20.8</v>
       </c>
       <c r="C82" t="n">
-        <v>21.4</v>
+        <v>20.8</v>
       </c>
       <c r="D82" t="n">
-        <v>21.5</v>
+        <v>20.8</v>
       </c>
       <c r="E82" t="n">
-        <v>21.3</v>
+        <v>20.8</v>
       </c>
       <c r="F82" t="n">
-        <v>12473.3359</v>
+        <v>117.9255</v>
       </c>
       <c r="G82" t="n">
-        <v>-426045.214002572</v>
+        <v>-478564.2634582933</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3664,14 +3342,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3682,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>21.3</v>
+        <v>20.8</v>
       </c>
       <c r="C83" t="n">
-        <v>21.4</v>
+        <v>20.7</v>
       </c>
       <c r="D83" t="n">
-        <v>21.4</v>
+        <v>20.8</v>
       </c>
       <c r="E83" t="n">
-        <v>21.2</v>
+        <v>20.7</v>
       </c>
       <c r="F83" t="n">
-        <v>18693.5039</v>
+        <v>3745.9336</v>
       </c>
       <c r="G83" t="n">
-        <v>-426045.214002572</v>
+        <v>-482310.1970582933</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3706,14 +3378,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3724,22 +3390,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>21.4</v>
+        <v>20.7</v>
       </c>
       <c r="C84" t="n">
-        <v>21.4</v>
+        <v>20.7</v>
       </c>
       <c r="D84" t="n">
-        <v>21.4</v>
+        <v>20.7</v>
       </c>
       <c r="E84" t="n">
-        <v>21.4</v>
+        <v>20.7</v>
       </c>
       <c r="F84" t="n">
-        <v>158.9252</v>
+        <v>74.0664</v>
       </c>
       <c r="G84" t="n">
-        <v>-426045.214002572</v>
+        <v>-482310.1970582933</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3748,14 +3414,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3778,10 +3438,10 @@
         <v>21.1</v>
       </c>
       <c r="F85" t="n">
-        <v>768.2145</v>
+        <v>947.8672985781991</v>
       </c>
       <c r="G85" t="n">
-        <v>-426813.428502572</v>
+        <v>-481362.3297597151</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3790,14 +3450,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3808,22 +3462,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="C86" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="D86" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="E86" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="F86" t="n">
-        <v>2000</v>
+        <v>6432.132701421801</v>
       </c>
       <c r="G86" t="n">
-        <v>-428813.428502572</v>
+        <v>-481362.3297597151</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3832,14 +3486,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3850,22 +3498,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="C87" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="D87" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="E87" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="F87" t="n">
-        <v>43086.7135</v>
+        <v>14877.5952</v>
       </c>
       <c r="G87" t="n">
-        <v>-428813.428502572</v>
+        <v>-466484.7345597151</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3874,14 +3522,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3892,22 +3534,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="C88" t="n">
-        <v>21.1</v>
+        <v>20.7</v>
       </c>
       <c r="D88" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="E88" t="n">
-        <v>21.1</v>
+        <v>20.7</v>
       </c>
       <c r="F88" t="n">
-        <v>7874.9777</v>
+        <v>7230.0001</v>
       </c>
       <c r="G88" t="n">
-        <v>-420938.450802572</v>
+        <v>-473714.7346597151</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3916,14 +3558,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3934,22 +3570,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="C89" t="n">
-        <v>21.1</v>
+        <v>20.7</v>
       </c>
       <c r="D89" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="E89" t="n">
-        <v>21.1</v>
+        <v>20.7</v>
       </c>
       <c r="F89" t="n">
-        <v>400</v>
+        <v>3620.0001</v>
       </c>
       <c r="G89" t="n">
-        <v>-420938.450802572</v>
+        <v>-473714.7346597151</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3958,14 +3594,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3976,22 +3606,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="C90" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="D90" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="E90" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="F90" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="G90" t="n">
-        <v>-420938.450802572</v>
+        <v>-473704.7346597151</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4000,14 +3630,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4018,22 +3642,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="C91" t="n">
-        <v>21.1</v>
+        <v>20.7</v>
       </c>
       <c r="D91" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="E91" t="n">
-        <v>21.1</v>
+        <v>20.7</v>
       </c>
       <c r="F91" t="n">
-        <v>8000</v>
+        <v>2518.7328</v>
       </c>
       <c r="G91" t="n">
-        <v>-420938.450802572</v>
+        <v>-476223.4674597151</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4042,14 +3666,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4060,22 +3678,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="C92" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="D92" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="E92" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="F92" t="n">
-        <v>3600</v>
+        <v>1810</v>
       </c>
       <c r="G92" t="n">
-        <v>-420938.450802572</v>
+        <v>-474413.4674597151</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4084,14 +3702,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4102,22 +3714,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="C93" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="D93" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="E93" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="F93" t="n">
-        <v>33000</v>
+        <v>4625.812</v>
       </c>
       <c r="G93" t="n">
-        <v>-420938.450802572</v>
+        <v>-474413.4674597151</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4126,14 +3738,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4144,22 +3750,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>21.2</v>
+        <v>20.8</v>
       </c>
       <c r="C94" t="n">
-        <v>21.3</v>
+        <v>20.8</v>
       </c>
       <c r="D94" t="n">
-        <v>21.3</v>
+        <v>20.8</v>
       </c>
       <c r="E94" t="n">
-        <v>21.2</v>
+        <v>20.8</v>
       </c>
       <c r="F94" t="n">
-        <v>60</v>
+        <v>17.486</v>
       </c>
       <c r="G94" t="n">
-        <v>-420878.450802572</v>
+        <v>-474413.4674597151</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4168,14 +3774,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4186,22 +3786,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>21.2</v>
+        <v>20.8</v>
       </c>
       <c r="C95" t="n">
-        <v>21.3</v>
+        <v>20.8</v>
       </c>
       <c r="D95" t="n">
-        <v>21.3</v>
+        <v>20.8</v>
       </c>
       <c r="E95" t="n">
-        <v>21.2</v>
+        <v>20.8</v>
       </c>
       <c r="F95" t="n">
-        <v>60</v>
+        <v>356.2851</v>
       </c>
       <c r="G95" t="n">
-        <v>-420878.450802572</v>
+        <v>-474413.4674597151</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4210,14 +3810,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4228,22 +3822,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>21.3</v>
+        <v>20.8</v>
       </c>
       <c r="C96" t="n">
-        <v>21.3</v>
+        <v>20.8</v>
       </c>
       <c r="D96" t="n">
-        <v>21.3</v>
+        <v>20.8</v>
       </c>
       <c r="E96" t="n">
-        <v>21.3</v>
+        <v>20.8</v>
       </c>
       <c r="F96" t="n">
-        <v>193.3802</v>
+        <v>362.4479</v>
       </c>
       <c r="G96" t="n">
-        <v>-420878.450802572</v>
+        <v>-474413.4674597151</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4252,14 +3846,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4270,22 +3858,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>21.2</v>
+        <v>20.8</v>
       </c>
       <c r="C97" t="n">
-        <v>21.2</v>
+        <v>20.8</v>
       </c>
       <c r="D97" t="n">
-        <v>21.2</v>
+        <v>20.8</v>
       </c>
       <c r="E97" t="n">
-        <v>21.2</v>
+        <v>20.8</v>
       </c>
       <c r="F97" t="n">
-        <v>10</v>
+        <v>4637.969</v>
       </c>
       <c r="G97" t="n">
-        <v>-420888.450802572</v>
+        <v>-474413.4674597151</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4294,14 +3882,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4312,22 +3894,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>21.2</v>
+        <v>20.9</v>
       </c>
       <c r="C98" t="n">
-        <v>21.2</v>
+        <v>20.7</v>
       </c>
       <c r="D98" t="n">
-        <v>21.2</v>
+        <v>20.9</v>
       </c>
       <c r="E98" t="n">
-        <v>21.2</v>
+        <v>20.7</v>
       </c>
       <c r="F98" t="n">
-        <v>8.181800000000001</v>
+        <v>731.6727</v>
       </c>
       <c r="G98" t="n">
-        <v>-420888.450802572</v>
+        <v>-475145.1401597151</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4336,14 +3918,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4354,22 +3930,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>21.3</v>
+        <v>20.6</v>
       </c>
       <c r="C99" t="n">
-        <v>21.3</v>
+        <v>20.6</v>
       </c>
       <c r="D99" t="n">
-        <v>21.3</v>
+        <v>20.6</v>
       </c>
       <c r="E99" t="n">
-        <v>21.3</v>
+        <v>20.6</v>
       </c>
       <c r="F99" t="n">
         <v>10</v>
       </c>
       <c r="G99" t="n">
-        <v>-420878.450802572</v>
+        <v>-475155.1401597151</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4378,14 +3954,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4396,40 +3966,34 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>21.2</v>
+        <v>20.6</v>
       </c>
       <c r="C100" t="n">
-        <v>21.3</v>
+        <v>20.6</v>
       </c>
       <c r="D100" t="n">
-        <v>21.3</v>
+        <v>20.6</v>
       </c>
       <c r="E100" t="n">
-        <v>21.2</v>
+        <v>20.6</v>
       </c>
       <c r="F100" t="n">
-        <v>60383.8045</v>
+        <v>6966.1147</v>
       </c>
       <c r="G100" t="n">
-        <v>-420878.450802572</v>
+        <v>-475155.1401597151</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
-        <v>1.028980582524272</v>
+        <v>1</v>
       </c>
       <c r="N100" t="inlineStr"/>
     </row>
@@ -4438,31 +4002,35 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>21.2</v>
+        <v>20.6</v>
       </c>
       <c r="C101" t="n">
-        <v>21</v>
+        <v>20.6</v>
       </c>
       <c r="D101" t="n">
-        <v>21.2</v>
+        <v>20.6</v>
       </c>
       <c r="E101" t="n">
-        <v>21</v>
+        <v>20.6</v>
       </c>
       <c r="F101" t="n">
-        <v>135051.3179</v>
+        <v>80</v>
       </c>
       <c r="G101" t="n">
-        <v>-555929.768702572</v>
+        <v>-475155.1401597151</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K101" t="n">
+        <v>20.6</v>
+      </c>
       <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
@@ -4474,32 +4042,40 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>21.3</v>
+        <v>20.6</v>
       </c>
       <c r="C102" t="n">
-        <v>21.1</v>
+        <v>20.6</v>
       </c>
       <c r="D102" t="n">
-        <v>21.3</v>
+        <v>20.6</v>
       </c>
       <c r="E102" t="n">
-        <v>21.1</v>
+        <v>20.6</v>
       </c>
       <c r="F102" t="n">
-        <v>390.4665</v>
+        <v>4973.3055</v>
       </c>
       <c r="G102" t="n">
-        <v>-555539.302202572</v>
+        <v>-475155.1401597151</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K102" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4510,22 +4086,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>21</v>
+        <v>20.7</v>
       </c>
       <c r="C103" t="n">
-        <v>21</v>
+        <v>20.6</v>
       </c>
       <c r="D103" t="n">
-        <v>21</v>
+        <v>20.7</v>
       </c>
       <c r="E103" t="n">
-        <v>21</v>
+        <v>20.6</v>
       </c>
       <c r="F103" t="n">
-        <v>10</v>
+        <v>12894.6046</v>
       </c>
       <c r="G103" t="n">
-        <v>-555549.302202572</v>
+        <v>-475155.1401597151</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4534,8 +4110,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4546,32 +4128,40 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>21.1</v>
+        <v>20.5</v>
       </c>
       <c r="C104" t="n">
-        <v>21.1</v>
+        <v>20.6</v>
       </c>
       <c r="D104" t="n">
-        <v>21.1</v>
+        <v>20.6</v>
       </c>
       <c r="E104" t="n">
-        <v>21.1</v>
+        <v>20.5</v>
       </c>
       <c r="F104" t="n">
-        <v>10</v>
+        <v>17014.7092</v>
       </c>
       <c r="G104" t="n">
-        <v>-555539.302202572</v>
+        <v>-475155.1401597151</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K104" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4582,32 +4172,40 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>21.1</v>
+        <v>20.5</v>
       </c>
       <c r="C105" t="n">
-        <v>21.1</v>
+        <v>20.4</v>
       </c>
       <c r="D105" t="n">
-        <v>21.1</v>
+        <v>20.5</v>
       </c>
       <c r="E105" t="n">
-        <v>21.1</v>
+        <v>20.4</v>
       </c>
       <c r="F105" t="n">
-        <v>27641.872</v>
+        <v>12183.7298</v>
       </c>
       <c r="G105" t="n">
-        <v>-555539.302202572</v>
+        <v>-487338.8699597151</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K105" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4618,32 +4216,40 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>21</v>
+        <v>20.6</v>
       </c>
       <c r="C106" t="n">
-        <v>21</v>
+        <v>20.6</v>
       </c>
       <c r="D106" t="n">
-        <v>21</v>
+        <v>20.6</v>
       </c>
       <c r="E106" t="n">
-        <v>21</v>
+        <v>20.6</v>
       </c>
       <c r="F106" t="n">
-        <v>10</v>
+        <v>30604.806</v>
       </c>
       <c r="G106" t="n">
-        <v>-555549.302202572</v>
+        <v>-456734.0639597151</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="K106" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4654,32 +4260,40 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>21.2</v>
+        <v>20.8</v>
       </c>
       <c r="C107" t="n">
-        <v>21.3</v>
+        <v>20.8</v>
       </c>
       <c r="D107" t="n">
-        <v>21.3</v>
+        <v>20.8</v>
       </c>
       <c r="E107" t="n">
-        <v>21.2</v>
+        <v>20.8</v>
       </c>
       <c r="F107" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G107" t="n">
-        <v>-555449.302202572</v>
+        <v>-456724.0639597151</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K107" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4690,32 +4304,40 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>21.2</v>
+        <v>20.8</v>
       </c>
       <c r="C108" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="D108" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="E108" t="n">
-        <v>21.2</v>
+        <v>20.8</v>
       </c>
       <c r="F108" t="n">
-        <v>1134.7094</v>
+        <v>43510.13455714285</v>
       </c>
       <c r="G108" t="n">
-        <v>-556584.011602572</v>
+        <v>-413213.9294025722</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K108" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4726,32 +4348,38 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>21</v>
+        <v>20.7</v>
       </c>
       <c r="C109" t="n">
-        <v>21.1</v>
+        <v>20.6</v>
       </c>
       <c r="D109" t="n">
-        <v>21.1</v>
+        <v>20.7</v>
       </c>
       <c r="E109" t="n">
-        <v>21</v>
+        <v>20.6</v>
       </c>
       <c r="F109" t="n">
-        <v>36781.5443</v>
+        <v>20000</v>
       </c>
       <c r="G109" t="n">
-        <v>-593365.555902572</v>
+        <v>-433213.9294025722</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4762,32 +4390,38 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>21.1</v>
+        <v>20.6</v>
       </c>
       <c r="C110" t="n">
-        <v>21.3</v>
+        <v>20.5</v>
       </c>
       <c r="D110" t="n">
-        <v>21.3</v>
+        <v>20.6</v>
       </c>
       <c r="E110" t="n">
-        <v>21.1</v>
+        <v>20.5</v>
       </c>
       <c r="F110" t="n">
-        <v>79023.4433</v>
+        <v>50000</v>
       </c>
       <c r="G110" t="n">
-        <v>-514342.112602572</v>
+        <v>-483213.9294025722</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4798,32 +4432,38 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>21.3</v>
+        <v>20.4</v>
       </c>
       <c r="C111" t="n">
-        <v>21.1</v>
+        <v>20.4</v>
       </c>
       <c r="D111" t="n">
-        <v>21.3</v>
+        <v>20.4</v>
       </c>
       <c r="E111" t="n">
-        <v>21.1</v>
+        <v>20.4</v>
       </c>
       <c r="F111" t="n">
-        <v>5077.23</v>
+        <v>30</v>
       </c>
       <c r="G111" t="n">
-        <v>-519419.342602572</v>
+        <v>-483243.9294025722</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4834,32 +4474,38 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>21.1</v>
+        <v>20.7</v>
       </c>
       <c r="C112" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="D112" t="n">
-        <v>21.1</v>
+        <v>20.7</v>
       </c>
       <c r="E112" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="F112" t="n">
-        <v>83257.3511</v>
+        <v>10</v>
       </c>
       <c r="G112" t="n">
-        <v>-602676.693702572</v>
+        <v>-483233.9294025722</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4870,32 +4516,40 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="C113" t="n">
-        <v>20.9</v>
+        <v>20.4</v>
       </c>
       <c r="D113" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="E113" t="n">
-        <v>20.9</v>
+        <v>20.4</v>
       </c>
       <c r="F113" t="n">
-        <v>40302.9266</v>
+        <v>110</v>
       </c>
       <c r="G113" t="n">
-        <v>-602676.693702572</v>
+        <v>-483343.9294025722</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="K113" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4906,32 +4560,40 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="C114" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="D114" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="E114" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="F114" t="n">
-        <v>86174.71400000001</v>
+        <v>10</v>
       </c>
       <c r="G114" t="n">
-        <v>-602676.693702572</v>
+        <v>-483333.9294025722</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="K114" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4942,32 +4604,40 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>21</v>
+        <v>20.6</v>
       </c>
       <c r="C115" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="D115" t="n">
-        <v>21</v>
+        <v>20.6</v>
       </c>
       <c r="E115" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="F115" t="n">
-        <v>203689.5463</v>
+        <v>1755.1456</v>
       </c>
       <c r="G115" t="n">
-        <v>-806366.2400025721</v>
+        <v>-485089.0750025722</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="K115" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4978,32 +4648,40 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>20.9</v>
+        <v>20.6</v>
       </c>
       <c r="C116" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="D116" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="E116" t="n">
-        <v>20.9</v>
+        <v>20.6</v>
       </c>
       <c r="F116" t="n">
-        <v>10</v>
+        <v>36319.5249</v>
       </c>
       <c r="G116" t="n">
-        <v>-806356.2400025721</v>
+        <v>-448769.5501025722</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K116" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5014,32 +4692,40 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="C117" t="n">
         <v>20.9</v>
       </c>
       <c r="D117" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="E117" t="n">
-        <v>20.5</v>
+        <v>20.9</v>
       </c>
       <c r="F117" t="n">
-        <v>42629.007</v>
+        <v>34010.0881</v>
       </c>
       <c r="G117" t="n">
-        <v>-806356.2400025721</v>
+        <v>-482779.6382025722</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>21</v>
+      </c>
+      <c r="K117" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5050,22 +4736,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="C118" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="D118" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="E118" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="F118" t="n">
         <v>10</v>
       </c>
       <c r="G118" t="n">
-        <v>-806366.2400025721</v>
+        <v>-482769.6382025722</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5074,8 +4760,14 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5086,22 +4778,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="C119" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="D119" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="E119" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="F119" t="n">
-        <v>8470.769</v>
+        <v>25000</v>
       </c>
       <c r="G119" t="n">
-        <v>-806366.2400025721</v>
+        <v>-507769.6382025722</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5110,8 +4802,14 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5125,19 +4823,19 @@
         <v>20.9</v>
       </c>
       <c r="C120" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="D120" t="n">
         <v>20.9</v>
       </c>
       <c r="E120" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="F120" t="n">
-        <v>95043.4617</v>
+        <v>429.665</v>
       </c>
       <c r="G120" t="n">
-        <v>-806366.2400025721</v>
+        <v>-507769.6382025722</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5146,8 +4844,14 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5173,7 +4877,7 @@
         <v>10</v>
       </c>
       <c r="G121" t="n">
-        <v>-806376.2400025721</v>
+        <v>-507779.6382025722</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5182,8 +4886,14 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5194,22 +4904,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="C122" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="D122" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="E122" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="F122" t="n">
         <v>10</v>
       </c>
       <c r="G122" t="n">
-        <v>-806366.2400025721</v>
+        <v>-507769.6382025722</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5218,8 +4928,14 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5230,22 +4946,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>20.7</v>
+        <v>21</v>
       </c>
       <c r="C123" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="D123" t="n">
-        <v>20.7</v>
+        <v>21</v>
       </c>
       <c r="E123" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="F123" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G123" t="n">
-        <v>-806376.2400025721</v>
+        <v>-507789.6382025722</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5254,8 +4970,14 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5266,22 +4988,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>20.5</v>
+        <v>20.9</v>
       </c>
       <c r="C124" t="n">
-        <v>20.5</v>
+        <v>20.9</v>
       </c>
       <c r="D124" t="n">
-        <v>20.5</v>
+        <v>20.9</v>
       </c>
       <c r="E124" t="n">
-        <v>20.5</v>
+        <v>20.9</v>
       </c>
       <c r="F124" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G124" t="n">
-        <v>-806386.2400025721</v>
+        <v>-507789.6382025722</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5290,8 +5012,14 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5302,22 +5030,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="C125" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="D125" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="E125" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="F125" t="n">
-        <v>720</v>
+        <v>745.5389</v>
       </c>
       <c r="G125" t="n">
-        <v>-805666.2400025721</v>
+        <v>-507789.6382025722</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5326,8 +5054,14 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5338,22 +5072,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="C126" t="n">
-        <v>20.5</v>
+        <v>20.8</v>
       </c>
       <c r="D126" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="E126" t="n">
-        <v>20.5</v>
+        <v>20.8</v>
       </c>
       <c r="F126" t="n">
-        <v>10005.8406</v>
+        <v>16998.4107</v>
       </c>
       <c r="G126" t="n">
-        <v>-815672.0806025721</v>
+        <v>-524788.0489025721</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5362,8 +5096,14 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5383,13 +5123,13 @@
         <v>20.8</v>
       </c>
       <c r="E127" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="F127" t="n">
-        <v>390</v>
+        <v>3001.5893</v>
       </c>
       <c r="G127" t="n">
-        <v>-815282.0806025721</v>
+        <v>-524788.0489025721</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5398,8 +5138,14 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5410,7 +5156,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="C128" t="n">
         <v>20.8</v>
@@ -5419,27 +5165,2847 @@
         <v>20.8</v>
       </c>
       <c r="E128" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="F128" t="n">
+        <v>50</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-524788.0489025721</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="C129" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="D129" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="E129" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="F129" t="n">
+        <v>19000</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-505788.0489025721</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="C130" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="D130" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="E130" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="F130" t="n">
+        <v>52736.3914</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-558524.4403025721</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="C131" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="D131" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="E131" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="F131" t="n">
+        <v>748.3150000000001</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-559272.755302572</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="C132" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="D132" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="E132" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="F132" t="n">
+        <v>126.1278</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-559146.627502572</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="C133" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="D133" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="E133" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="F133" t="n">
+        <v>10</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-559156.627502572</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="C134" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="D134" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="E134" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="F134" t="n">
+        <v>271.5745</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-558885.053002572</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>21</v>
+      </c>
+      <c r="C135" t="n">
+        <v>21</v>
+      </c>
+      <c r="D135" t="n">
+        <v>21</v>
+      </c>
+      <c r="E135" t="n">
+        <v>21</v>
+      </c>
+      <c r="F135" t="n">
+        <v>34817.6564</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-524067.3966025721</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>21</v>
+      </c>
+      <c r="C136" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="D136" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="E136" t="n">
+        <v>21</v>
+      </c>
+      <c r="F136" t="n">
+        <v>6819.4848</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-517247.9118025721</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>21</v>
+      </c>
+      <c r="C137" t="n">
+        <v>21</v>
+      </c>
+      <c r="D137" t="n">
+        <v>21</v>
+      </c>
+      <c r="E137" t="n">
+        <v>21</v>
+      </c>
+      <c r="F137" t="n">
+        <v>48.0769</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-517295.9887025721</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>21</v>
+      </c>
+      <c r="C138" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="D138" t="n">
+        <v>21</v>
+      </c>
+      <c r="E138" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="F138" t="n">
+        <v>77843.5699</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-595139.5586025721</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="C139" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="D139" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="E139" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="F139" t="n">
+        <v>31198.4722</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-595139.5586025721</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="C140" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="D140" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="E140" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="F140" t="n">
+        <v>203705.6889</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-595139.5586025721</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="C141" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="D141" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="E141" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="F141" t="n">
+        <v>11</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-595128.5586025721</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="C142" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="D142" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="E142" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="F142" t="n">
+        <v>90</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-595218.5586025721</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>21</v>
+      </c>
+      <c r="C143" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="D143" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="E143" t="n">
+        <v>21</v>
+      </c>
+      <c r="F143" t="n">
+        <v>10947.0664</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-584271.4922025721</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="C144" t="n">
+        <v>21</v>
+      </c>
+      <c r="D144" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="E144" t="n">
+        <v>21</v>
+      </c>
+      <c r="F144" t="n">
+        <v>14085.9362</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-598357.4284025721</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="C145" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="D145" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E145" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F145" t="n">
+        <v>33200</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-565157.4284025721</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="C146" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="D146" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="E146" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F146" t="n">
+        <v>11</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-565146.4284025721</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="C147" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="D147" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="E147" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="F147" t="n">
+        <v>12537.8215</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-577684.249902572</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="C148" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="D148" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E148" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F148" t="n">
+        <v>2022</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-577684.249902572</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="C149" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="D149" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="E149" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="F149" t="n">
+        <v>19349.0887</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-597033.338602572</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="C150" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="D150" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="E150" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F150" t="n">
+        <v>30630.0945</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-566403.244102572</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="C151" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="D151" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="E151" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F151" t="n">
+        <v>140358.0301</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-426045.214002572</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="C152" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="D152" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="E152" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="F152" t="n">
+        <v>15542.8309</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-426045.214002572</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="C153" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="D153" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="E153" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="F153" t="n">
+        <v>12473.3359</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-426045.214002572</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="C154" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="D154" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="E154" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F154" t="n">
+        <v>18693.5039</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-426045.214002572</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="C155" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="D155" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="E155" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F155" t="n">
+        <v>158.9252</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-426045.214002572</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="C156" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="D156" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="E156" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="F156" t="n">
+        <v>768.2145</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-426813.428502572</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>21</v>
+      </c>
+      <c r="C157" t="n">
+        <v>21</v>
+      </c>
+      <c r="D157" t="n">
+        <v>21</v>
+      </c>
+      <c r="E157" t="n">
+        <v>21</v>
+      </c>
+      <c r="F157" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-428813.428502572</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>21</v>
+      </c>
+      <c r="C158" t="n">
+        <v>21</v>
+      </c>
+      <c r="D158" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="E158" t="n">
+        <v>21</v>
+      </c>
+      <c r="F158" t="n">
+        <v>43086.7135</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-428813.428502572</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="C159" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="D159" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="E159" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="F159" t="n">
+        <v>7874.9777</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-420938.450802572</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="C160" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="D160" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="E160" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="F160" t="n">
+        <v>400</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-420938.450802572</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="C161" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="D161" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="E161" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-420938.450802572</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="C162" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="D162" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="E162" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="F162" t="n">
+        <v>8000</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-420938.450802572</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="C163" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="D163" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="E163" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="F163" t="n">
+        <v>3600</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-420938.450802572</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="C164" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="D164" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="E164" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="F164" t="n">
+        <v>33000</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-420938.450802572</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="C165" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="D165" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E165" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F165" t="n">
+        <v>60</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-420878.450802572</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="C166" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="D166" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E166" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F166" t="n">
+        <v>60</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-420878.450802572</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="C167" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="D167" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E167" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="F167" t="n">
+        <v>193.3802</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-420878.450802572</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="C168" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="D168" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="E168" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F168" t="n">
+        <v>10</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-420888.450802572</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="C169" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="D169" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="E169" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F169" t="n">
+        <v>8.181800000000001</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-420888.450802572</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="C170" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="D170" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E170" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="F170" t="n">
+        <v>10</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-420878.450802572</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="C171" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="D171" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E171" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F171" t="n">
+        <v>60383.8045</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-420878.450802572</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1.028980582524272</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="C172" t="n">
+        <v>21</v>
+      </c>
+      <c r="D172" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="E172" t="n">
+        <v>21</v>
+      </c>
+      <c r="F172" t="n">
+        <v>135051.3179</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-555929.768702572</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>1</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="C173" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="D173" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E173" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="F173" t="n">
+        <v>390.4665</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-555539.302202572</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>1</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>21</v>
+      </c>
+      <c r="C174" t="n">
+        <v>21</v>
+      </c>
+      <c r="D174" t="n">
+        <v>21</v>
+      </c>
+      <c r="E174" t="n">
+        <v>21</v>
+      </c>
+      <c r="F174" t="n">
+        <v>10</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-555549.302202572</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>1</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="C175" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="D175" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="E175" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="F175" t="n">
+        <v>10</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-555539.302202572</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="C176" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="D176" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="E176" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="F176" t="n">
+        <v>27641.872</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-555539.302202572</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>1</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>21</v>
+      </c>
+      <c r="C177" t="n">
+        <v>21</v>
+      </c>
+      <c r="D177" t="n">
+        <v>21</v>
+      </c>
+      <c r="E177" t="n">
+        <v>21</v>
+      </c>
+      <c r="F177" t="n">
+        <v>10</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-555549.302202572</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>1</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="C178" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="D178" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E178" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F178" t="n">
+        <v>100</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-555449.302202572</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="C179" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="D179" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="E179" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F179" t="n">
+        <v>1134.7094</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-556584.011602572</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>1</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>21</v>
+      </c>
+      <c r="C180" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="D180" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="E180" t="n">
+        <v>21</v>
+      </c>
+      <c r="F180" t="n">
+        <v>36781.5443</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-593365.555902572</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>1</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="C181" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="D181" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E181" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="F181" t="n">
+        <v>79023.4433</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-514342.112602572</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="C182" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="D182" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E182" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="F182" t="n">
+        <v>5077.23</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-519419.342602572</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>1</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="C183" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="D183" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="E183" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="F183" t="n">
+        <v>83257.3511</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-602676.693702572</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>1</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="C184" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="D184" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="E184" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="F184" t="n">
+        <v>40302.9266</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-602676.693702572</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="C185" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="D185" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="E185" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="F185" t="n">
+        <v>86174.71400000001</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-602676.693702572</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>21</v>
+      </c>
+      <c r="C186" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="D186" t="n">
+        <v>21</v>
+      </c>
+      <c r="E186" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="F186" t="n">
+        <v>203689.5463</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-806366.2400025721</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="C187" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="D187" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="E187" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="F187" t="n">
+        <v>10</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-806356.2400025721</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="C188" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="D188" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="E188" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="F188" t="n">
+        <v>42629.007</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-806356.2400025721</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="C189" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="D189" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="E189" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="F189" t="n">
+        <v>10</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-806366.2400025721</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="C190" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="D190" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="E190" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="F190" t="n">
+        <v>8470.769</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-806366.2400025721</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="C191" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="D191" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="E191" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="F191" t="n">
+        <v>95043.4617</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-806366.2400025721</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="C192" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="D192" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="E192" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="F192" t="n">
+        <v>10</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-806376.2400025721</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="C193" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="D193" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="E193" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="F193" t="n">
+        <v>10</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-806366.2400025721</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="C194" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="D194" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="E194" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="F194" t="n">
+        <v>10</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-806376.2400025721</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="C195" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="D195" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="E195" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="F195" t="n">
+        <v>10</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-806386.2400025721</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="C196" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="D196" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="E196" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="F196" t="n">
+        <v>720</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-805666.2400025721</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="C197" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="D197" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="E197" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="F197" t="n">
+        <v>10005.8406</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-815672.0806025721</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="C198" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="D198" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="E198" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="F198" t="n">
+        <v>390</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-815282.0806025721</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="C199" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="D199" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="E199" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="F199" t="n">
         <v>30</v>
       </c>
-      <c r="G128" t="n">
+      <c r="G199" t="n">
         <v>-815282.0806025721</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-17 BackTest CMT.xlsx
+++ b/BackTest/2019-10-17 BackTest CMT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N199"/>
+  <dimension ref="A1:M199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1012,15 @@
         <v>-133468.3774326894</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1045,15 @@
         <v>-133468.3774326894</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,18 +1078,15 @@
         <v>-133458.3774326894</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1111,15 @@
         <v>-137959.3061326894</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1212,18 +1144,15 @@
         <v>-137959.3061326894</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,18 +1375,15 @@
         <v>-142365.4773326893</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3012,18 +2794,19 @@
         <v>-432383.2269582932</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
+        <v>20.8</v>
+      </c>
+      <c r="J73" t="n">
+        <v>20.8</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2833,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2872,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2911,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2950,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2989,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +3028,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3067,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3106,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3145,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3184,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3223,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3262,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3301,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3340,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3379,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3418,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3457,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3496,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3535,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3574,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3613,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3652,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3691,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3730,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3769,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3808,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3847,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4020,22 +3884,21 @@
         <v>-475155.1401597151</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K101" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+        <v>20.8</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4060,26 +3923,21 @@
         <v>-475155.1401597151</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K102" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+        <v>20.8</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4106,22 +3964,19 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4146,26 +4001,21 @@
         <v>-475155.1401597151</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K104" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+        <v>20.8</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4190,26 +4040,23 @@
         <v>-487338.8699597151</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>20.6</v>
       </c>
       <c r="J105" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K105" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+        <v>20.8</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4234,26 +4081,23 @@
         <v>-456734.0639597151</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="J106" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K106" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+        <v>20.8</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4278,26 +4122,23 @@
         <v>-456724.0639597151</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>20.6</v>
       </c>
       <c r="J107" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K107" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+        <v>20.8</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4322,26 +4163,21 @@
         <v>-413213.9294025722</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
         <v>20.8</v>
       </c>
-      <c r="K108" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4368,22 +4204,19 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4410,22 +4243,19 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4452,22 +4282,19 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4494,22 +4321,19 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4534,26 +4358,21 @@
         <v>-483343.9294025722</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="K113" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+        <v>20.8</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4578,26 +4397,21 @@
         <v>-483333.9294025722</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K114" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+        <v>20.8</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4622,26 +4436,21 @@
         <v>-485089.0750025722</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="K115" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+        <v>20.8</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4666,26 +4475,21 @@
         <v>-448769.5501025722</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K116" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+        <v>20.8</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4710,26 +4514,23 @@
         <v>-482779.6382025722</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J117" t="n">
-        <v>21</v>
-      </c>
-      <c r="K117" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+        <v>20.8</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4756,22 +4557,19 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4798,22 +4596,19 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4840,22 +4635,19 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4882,22 +4674,19 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4924,22 +4713,19 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4966,22 +4752,19 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5008,22 +4791,19 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5050,22 +4830,19 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5092,22 +4869,19 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5134,22 +4908,19 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5176,22 +4947,19 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5218,22 +4986,19 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5260,22 +5025,19 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5302,22 +5064,19 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5344,22 +5103,19 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5386,22 +5142,19 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5428,22 +5181,19 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5470,22 +5220,19 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5512,22 +5259,19 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5554,22 +5298,19 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5596,22 +5337,19 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5638,22 +5376,19 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5680,22 +5415,19 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5722,22 +5454,19 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5762,24 +5491,23 @@
         <v>-595218.5586025721</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+        <v>21.1</v>
+      </c>
+      <c r="J142" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5806,22 +5534,19 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5848,22 +5573,19 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5890,22 +5612,19 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5932,22 +5651,19 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5974,22 +5690,19 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6016,22 +5729,19 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6058,22 +5768,19 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6100,22 +5807,19 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6142,22 +5846,19 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6184,22 +5885,19 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6226,22 +5924,19 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6268,22 +5963,19 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6310,22 +6002,19 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6352,22 +6041,19 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6394,22 +6080,19 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6436,22 +6119,19 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6478,22 +6158,19 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6520,22 +6197,19 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6562,22 +6236,19 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6604,22 +6275,19 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6646,22 +6314,19 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6688,22 +6353,19 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6730,22 +6392,19 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6772,22 +6431,19 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6814,22 +6470,19 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6856,22 +6509,19 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6898,22 +6548,19 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6940,22 +6587,19 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6982,22 +6626,19 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>1</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1.028980582524272</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7024,16 +6665,19 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>1</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7060,16 +6704,19 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>1</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7096,16 +6743,19 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>1</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7132,16 +6782,19 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7168,16 +6821,19 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>1</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7204,16 +6860,19 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>1</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7240,16 +6899,19 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7276,16 +6938,19 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>1</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7312,16 +6977,19 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>1</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7348,16 +7016,19 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7384,16 +7055,19 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>1</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7420,16 +7094,19 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>1</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7456,16 +7133,19 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7492,16 +7172,19 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7528,16 +7211,19 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7564,16 +7250,19 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7600,16 +7289,19 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7636,16 +7328,19 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7672,16 +7367,19 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7708,16 +7406,19 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7744,16 +7445,19 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7780,16 +7484,19 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7816,16 +7523,19 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7852,16 +7562,19 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7888,16 +7601,19 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7924,16 +7640,19 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7960,16 +7679,19 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7996,18 +7718,21 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-17 BackTest CMT.xlsx
+++ b/BackTest/2019-10-17 BackTest CMT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-121259.8017326894</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-121259.8017326894</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-134716.6297326894</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-134716.6297326894</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-134726.6297326894</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-134726.6297326894</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-134726.6297326894</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-134706.6297326894</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-136451.1141326894</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-132768.6023326894</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-133468.3774326894</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-133468.3774326894</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-133468.3774326894</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-133458.3774326894</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-137959.3061326894</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-137959.3061326894</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-134628.6235326894</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-134628.6235326894</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-101924.4817326894</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-137850.8573326893</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-141548.4902326893</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-141538.4902326893</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-142365.4773326893</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-142341.4773326893</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-186245.2949326893</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-186245.2949326893</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-187235.2949326893</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-231459.7057326894</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-272430.6903326894</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-272430.6903326894</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-272220.6903326894</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2794,14 +2794,10 @@
         <v>-432383.2269582932</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
-      </c>
-      <c r="I73" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="J73" t="n">
-        <v>20.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
@@ -2834,14 +2830,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2873,14 +2863,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2912,14 +2896,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2951,14 +2929,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2990,14 +2962,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3029,14 +2995,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3068,14 +3028,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3107,14 +3061,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3146,14 +3094,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3185,14 +3127,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3224,14 +3160,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3263,14 +3193,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3302,14 +3226,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3341,14 +3259,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3380,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3419,14 +3325,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3458,14 +3358,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3497,14 +3391,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3536,14 +3424,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3575,14 +3457,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3614,14 +3490,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3653,14 +3523,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3692,14 +3556,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3731,14 +3589,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3770,14 +3622,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3809,14 +3655,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3848,14 +3688,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3887,14 +3721,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3923,17 +3751,15 @@
         <v>-475155.1401597151</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>20.6</v>
+      </c>
       <c r="J102" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>20.6</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3966,11 +3792,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L103" t="n">
@@ -4001,11 +3827,13 @@
         <v>-475155.1401597151</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>20.6</v>
+      </c>
       <c r="J104" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4040,13 +3868,13 @@
         <v>-487338.8699597151</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>20.6</v>
       </c>
       <c r="J105" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4081,13 +3909,13 @@
         <v>-456734.0639597151</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>20.4</v>
       </c>
       <c r="J106" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4122,13 +3950,13 @@
         <v>-456724.0639597151</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>20.6</v>
       </c>
       <c r="J107" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4163,11 +3991,13 @@
         <v>-413213.9294025722</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>20.8</v>
+      </c>
       <c r="J108" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4206,7 +4036,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4245,7 +4075,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4284,7 +4114,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4319,11 +4149,13 @@
         <v>-483233.9294025722</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>20.4</v>
+      </c>
       <c r="J112" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4358,11 +4190,13 @@
         <v>-483343.9294025722</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>20.7</v>
+      </c>
       <c r="J113" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4397,11 +4231,13 @@
         <v>-483333.9294025722</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>20.4</v>
+      </c>
       <c r="J114" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4440,7 +4276,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4475,11 +4311,13 @@
         <v>-448769.5501025722</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>20.6</v>
+      </c>
       <c r="J116" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4514,13 +4352,11 @@
         <v>-482779.6382025722</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
-      </c>
-      <c r="I117" t="n">
-        <v>21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4555,11 +4391,13 @@
         <v>-482769.6382025722</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>20.9</v>
+      </c>
       <c r="J118" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4598,7 +4436,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4637,7 +4475,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4676,7 +4514,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4715,7 +4553,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4754,7 +4592,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -4793,7 +4631,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -4832,7 +4670,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -4871,7 +4709,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -4910,7 +4748,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -4949,7 +4787,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -4988,7 +4826,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5027,7 +4865,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5066,7 +4904,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5105,7 +4943,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5144,7 +4982,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5183,7 +5021,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5222,7 +5060,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5261,7 +5099,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5300,7 +5138,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5339,7 +5177,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5378,7 +5216,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5417,7 +5255,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5456,7 +5294,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5491,13 +5329,11 @@
         <v>-595218.5586025721</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
-      </c>
-      <c r="I142" t="n">
-        <v>21.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5536,7 +5372,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5575,7 +5411,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5614,7 +5450,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5653,7 +5489,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5692,7 +5528,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5731,7 +5567,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5770,7 +5606,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5809,7 +5645,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5848,7 +5684,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -5887,7 +5723,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -5926,7 +5762,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -5965,7 +5801,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6004,7 +5840,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6043,7 +5879,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6082,7 +5918,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6121,7 +5957,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6160,7 +5996,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6199,7 +6035,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6238,7 +6074,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6277,7 +6113,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6316,7 +6152,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6355,7 +6191,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6394,7 +6230,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6433,7 +6269,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6472,7 +6308,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6511,7 +6347,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6550,7 +6386,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6589,7 +6425,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6628,7 +6464,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6667,7 +6503,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6706,7 +6542,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6745,7 +6581,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6784,7 +6620,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6823,7 +6659,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6862,7 +6698,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6901,7 +6737,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -6940,7 +6776,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -6979,7 +6815,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -7018,7 +6854,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -7057,7 +6893,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -7092,19 +6928,19 @@
         <v>-602676.693702572</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L183" t="n">
-        <v>1</v>
+        <v>1.009563106796116</v>
       </c>
       <c r="M183" t="inlineStr"/>
     </row>
@@ -7131,17 +6967,11 @@
         <v>-602676.693702572</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7173,14 +7003,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7212,14 +7036,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7251,14 +7069,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7290,14 +7102,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7329,14 +7135,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7368,14 +7168,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7407,14 +7201,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7446,14 +7234,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7485,14 +7267,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7524,14 +7300,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7563,14 +7333,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7602,14 +7366,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7641,14 +7399,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7680,14 +7432,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7719,20 +7465,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
       <c r="M199" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-17 BackTest CMT.xlsx
+++ b/BackTest/2019-10-17 BackTest CMT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-121259.8017326894</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-121259.8017326894</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-134716.6297326894</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-134716.6297326894</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-134716.6297326894</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-134706.6297326894</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-132768.6023326894</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-133468.3774326894</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-133468.3774326894</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-133468.3774326894</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-133458.3774326894</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-137959.3061326894</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-137959.3061326894</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-134628.6235326894</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-134628.6235326894</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-101924.4817326894</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-137850.8573326893</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-141548.4902326893</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-141538.4902326893</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-142365.4773326893</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-142341.4773326893</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-186245.2949326893</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-186245.2949326893</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-187235.2949326893</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-231459.7057326894</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-272430.6903326894</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-272430.6903326894</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-272220.6903326894</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -3751,14 +3751,10 @@
         <v>-475155.1401597151</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="J102" t="n">
-        <v>20.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
@@ -3791,14 +3787,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3827,19 +3817,11 @@
         <v>-475155.1401597151</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="J104" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3868,19 +3850,11 @@
         <v>-487338.8699597151</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="J105" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3909,19 +3883,11 @@
         <v>-456734.0639597151</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="J106" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3950,19 +3916,11 @@
         <v>-456724.0639597151</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="J107" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3991,19 +3949,11 @@
         <v>-413213.9294025722</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="J108" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4035,14 +3985,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4074,14 +4018,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4113,14 +4051,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4149,19 +4081,11 @@
         <v>-483233.9294025722</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="J112" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4190,19 +4114,11 @@
         <v>-483343.9294025722</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="J113" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4231,19 +4147,11 @@
         <v>-483333.9294025722</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="J114" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4275,14 +4183,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4311,19 +4213,11 @@
         <v>-448769.5501025722</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="J116" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4352,17 +4246,11 @@
         <v>-482779.6382025722</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4391,19 +4279,11 @@
         <v>-482769.6382025722</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="J118" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4432,17 +4312,11 @@
         <v>-507769.6382025722</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4474,14 +4348,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4513,14 +4381,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4552,14 +4414,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4591,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4630,14 +4480,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4669,14 +4513,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4708,14 +4546,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4747,14 +4579,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4786,14 +4612,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4825,14 +4645,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4864,14 +4678,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4903,14 +4711,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4942,14 +4744,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4981,14 +4777,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5020,14 +4810,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5059,14 +4843,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5098,14 +4876,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5137,14 +4909,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5176,14 +4942,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5215,14 +4975,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5254,14 +5008,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5290,17 +5038,11 @@
         <v>-595128.5586025721</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5332,14 +5074,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5371,14 +5107,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5410,14 +5140,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5449,14 +5173,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5488,14 +5206,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5527,14 +5239,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5566,14 +5272,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5605,14 +5305,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5641,17 +5335,11 @@
         <v>-566403.244102572</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5680,17 +5368,11 @@
         <v>-426045.214002572</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5719,17 +5401,11 @@
         <v>-426045.214002572</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5758,17 +5434,11 @@
         <v>-426045.214002572</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5800,14 +5470,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5839,14 +5503,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5878,14 +5536,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5917,14 +5569,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5956,14 +5602,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5995,14 +5635,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6034,14 +5668,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6070,17 +5698,11 @@
         <v>-420938.450802572</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6112,14 +5734,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6151,14 +5767,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6190,14 +5800,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6229,14 +5833,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6268,14 +5866,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6307,14 +5899,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6346,14 +5932,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6385,14 +5965,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6424,14 +5998,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6463,14 +6031,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6502,14 +6064,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6541,14 +6097,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6580,14 +6130,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6619,14 +6163,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6658,14 +6196,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6697,14 +6229,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6733,17 +6259,11 @@
         <v>-555449.302202572</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6772,17 +6292,11 @@
         <v>-556584.011602572</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6811,17 +6325,11 @@
         <v>-593365.555902572</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6850,17 +6358,11 @@
         <v>-514342.112602572</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6892,14 +6394,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6928,19 +6424,13 @@
         <v>-602676.693702572</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
-        <v>1.009563106796116</v>
+        <v>1</v>
       </c>
       <c r="M183" t="inlineStr"/>
     </row>
@@ -6967,7 +6457,7 @@
         <v>-602676.693702572</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7363,10 +6853,14 @@
         <v>-805666.2400025721</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="J196" t="n">
+        <v>20.5</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
@@ -7396,11 +6890,19 @@
         <v>-815672.0806025721</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="J197" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7429,11 +6931,19 @@
         <v>-815282.0806025721</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="J198" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7462,17 +6972,25 @@
         <v>-815282.0806025721</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="J199" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
       <c r="M199" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-17 BackTest CMT.xlsx
+++ b/BackTest/2019-10-17 BackTest CMT.xlsx
@@ -517,7 +517,7 @@
         <v>-121259.8017326894</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-124056.0320326894</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-134726.6297326894</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-134726.6297326894</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-134726.6297326894</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-134716.6297326894</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-136451.1141326894</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -3751,10 +3751,14 @@
         <v>-475155.1401597151</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="J102" t="n">
+        <v>20.6</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
@@ -3787,8 +3791,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3817,11 +3827,19 @@
         <v>-475155.1401597151</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="J104" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3850,11 +3868,19 @@
         <v>-487338.8699597151</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="J105" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3883,11 +3909,19 @@
         <v>-456734.0639597151</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="J106" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3916,11 +3950,19 @@
         <v>-456724.0639597151</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="J107" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3949,11 +3991,19 @@
         <v>-413213.9294025722</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="J108" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3985,8 +4035,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4015,11 +4071,19 @@
         <v>-483213.9294025722</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="J110" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4048,11 +4112,19 @@
         <v>-483243.9294025722</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="J111" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4081,11 +4153,19 @@
         <v>-483233.9294025722</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="J112" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4117,8 +4197,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4150,8 +4236,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4183,8 +4275,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4213,11 +4311,19 @@
         <v>-448769.5501025722</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="J116" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4246,11 +4352,17 @@
         <v>-482779.6382025722</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4279,11 +4391,19 @@
         <v>-482769.6382025722</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="J118" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4312,11 +4432,17 @@
         <v>-507769.6382025722</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4345,11 +4471,19 @@
         <v>-507769.6382025722</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="J120" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4381,8 +4515,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4414,8 +4554,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4447,8 +4593,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4480,8 +4632,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4513,8 +4671,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4546,8 +4710,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4579,8 +4749,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4612,8 +4788,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4645,8 +4827,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4678,8 +4866,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4711,8 +4905,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4741,11 +4941,19 @@
         <v>-559146.627502572</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="J132" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4777,8 +4985,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4810,8 +5024,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4843,8 +5063,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4876,8 +5102,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4909,8 +5141,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4942,8 +5180,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4975,8 +5219,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5008,8 +5258,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5038,11 +5294,17 @@
         <v>-595128.5586025721</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5074,8 +5336,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5107,8 +5375,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5140,8 +5414,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5173,8 +5453,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5206,8 +5492,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5239,8 +5531,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5272,8 +5570,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5305,8 +5609,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5335,11 +5645,17 @@
         <v>-566403.244102572</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5368,11 +5684,17 @@
         <v>-426045.214002572</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5401,11 +5723,17 @@
         <v>-426045.214002572</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5434,11 +5762,17 @@
         <v>-426045.214002572</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5470,8 +5804,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5503,8 +5843,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5536,8 +5882,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5569,8 +5921,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5602,8 +5960,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5635,8 +5999,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5668,8 +6038,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5698,11 +6074,17 @@
         <v>-420938.450802572</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5734,8 +6116,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5767,8 +6155,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5800,8 +6194,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5833,8 +6233,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5863,13 +6269,19 @@
         <v>-420878.450802572</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L166" t="n">
-        <v>1</v>
+        <v>1.028980582524272</v>
       </c>
       <c r="M166" t="inlineStr"/>
     </row>
@@ -5896,7 +6308,7 @@
         <v>-420878.450802572</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +6341,7 @@
         <v>-420888.450802572</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +6374,7 @@
         <v>-420888.450802572</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +6407,7 @@
         <v>-420878.450802572</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6440,7 @@
         <v>-420878.450802572</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6473,7 @@
         <v>-555929.768702572</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6506,7 @@
         <v>-555539.302202572</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6539,7 @@
         <v>-555549.302202572</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6572,7 @@
         <v>-555539.302202572</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6605,7 @@
         <v>-555539.302202572</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6638,7 @@
         <v>-555549.302202572</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6391,7 +6803,7 @@
         <v>-519419.342602572</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6836,7 @@
         <v>-602676.693702572</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6853,14 +7265,10 @@
         <v>-805666.2400025721</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="J196" t="n">
-        <v>20.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
@@ -6890,19 +7298,11 @@
         <v>-815672.0806025721</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="J197" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6931,19 +7331,11 @@
         <v>-815282.0806025721</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="J198" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6972,19 +7364,11 @@
         <v>-815282.0806025721</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="J199" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-17 BackTest CMT.xlsx
+++ b/BackTest/2019-10-17 BackTest CMT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M199"/>
+  <dimension ref="A1:L199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>11</v>
       </c>
       <c r="G2" t="n">
-        <v>-121259.8017326894</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>307.0283</v>
       </c>
       <c r="G3" t="n">
-        <v>-121259.8017326894</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>213.915</v>
       </c>
       <c r="G4" t="n">
-        <v>-121259.8017326894</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>2796.2303</v>
       </c>
       <c r="G5" t="n">
-        <v>-124056.0320326894</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>10000</v>
       </c>
       <c r="G6" t="n">
-        <v>-124056.0320326894</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>41.92</v>
       </c>
       <c r="G7" t="n">
-        <v>-124014.1120326894</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>10702.5177</v>
       </c>
       <c r="G8" t="n">
-        <v>-134716.6297326894</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>10342.4</v>
       </c>
       <c r="G9" t="n">
-        <v>-134716.6297326894</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>10</v>
       </c>
       <c r="G10" t="n">
-        <v>-134726.6297326894</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>8200</v>
       </c>
       <c r="G11" t="n">
-        <v>-134726.6297326894</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>9127.816699999999</v>
       </c>
       <c r="G12" t="n">
-        <v>-134726.6297326894</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>-134716.6297326894</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>-134706.6297326894</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>1744.4844</v>
       </c>
       <c r="G15" t="n">
-        <v>-136451.1141326894</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>17745.3242</v>
       </c>
       <c r="G16" t="n">
-        <v>-136451.1141326894</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>3682.5118</v>
       </c>
       <c r="G17" t="n">
-        <v>-132768.6023326894</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>699.7751</v>
       </c>
       <c r="G18" t="n">
-        <v>-133468.3774326894</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>165.7726</v>
       </c>
       <c r="G19" t="n">
-        <v>-133468.3774326894</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>6176</v>
       </c>
       <c r="G20" t="n">
-        <v>-133468.3774326894</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>10</v>
       </c>
       <c r="G21" t="n">
-        <v>-133458.3774326894</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>4500.9287</v>
       </c>
       <c r="G22" t="n">
-        <v>-137959.3061326894</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>26886.8732</v>
       </c>
       <c r="G23" t="n">
-        <v>-137959.3061326894</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>3330.6826</v>
       </c>
       <c r="G24" t="n">
-        <v>-134628.6235326894</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>17102.8405</v>
       </c>
       <c r="G25" t="n">
-        <v>-134628.6235326894</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>32704.1418</v>
       </c>
       <c r="G26" t="n">
-        <v>-101924.4817326894</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>35926.3756</v>
       </c>
       <c r="G27" t="n">
-        <v>-137850.8573326893</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>3697.6329</v>
       </c>
       <c r="G28" t="n">
-        <v>-141548.4902326893</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>10</v>
       </c>
       <c r="G29" t="n">
-        <v>-141538.4902326893</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>826.9871000000001</v>
       </c>
       <c r="G30" t="n">
-        <v>-142365.4773326893</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>500</v>
       </c>
       <c r="G31" t="n">
-        <v>-142365.4773326893</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>3100</v>
       </c>
       <c r="G32" t="n">
-        <v>-142365.4773326893</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>24</v>
       </c>
       <c r="G33" t="n">
-        <v>-142341.4773326893</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>30000</v>
       </c>
       <c r="G34" t="n">
-        <v>-172341.4773326893</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>9357.329299999999</v>
       </c>
       <c r="G35" t="n">
-        <v>-172341.4773326893</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>18501.999</v>
       </c>
       <c r="G36" t="n">
-        <v>-172341.4773326893</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>4404.5448</v>
       </c>
       <c r="G37" t="n">
-        <v>-167936.9325326893</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>8522.952300000001</v>
       </c>
       <c r="G38" t="n">
-        <v>-176459.8848326893</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>1477.0477</v>
       </c>
       <c r="G39" t="n">
-        <v>-176459.8848326893</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>19765.8915</v>
       </c>
       <c r="G40" t="n">
-        <v>-196225.7763326893</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>10</v>
       </c>
       <c r="G41" t="n">
-        <v>-196225.7763326893</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>9980.481400000001</v>
       </c>
       <c r="G42" t="n">
-        <v>-186245.2949326893</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>21403.2664</v>
       </c>
       <c r="G43" t="n">
-        <v>-186245.2949326893</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>16320.7812</v>
       </c>
       <c r="G44" t="n">
-        <v>-186245.2949326893</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>990</v>
       </c>
       <c r="G45" t="n">
-        <v>-187235.2949326893</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>44224.4108</v>
       </c>
       <c r="G46" t="n">
-        <v>-231459.7057326894</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>40970.9846</v>
       </c>
       <c r="G47" t="n">
-        <v>-272430.6903326894</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>19589.0652</v>
       </c>
       <c r="G48" t="n">
-        <v>-272430.6903326894</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>210</v>
       </c>
       <c r="G49" t="n">
-        <v>-272220.6903326894</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>300</v>
       </c>
       <c r="G50" t="n">
-        <v>-272220.6903326894</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>12145.3421</v>
       </c>
       <c r="G51" t="n">
-        <v>-284366.0324326894</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>19.2762</v>
       </c>
       <c r="G52" t="n">
-        <v>-284346.7562326894</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>30000</v>
       </c>
       <c r="G53" t="n">
-        <v>-314346.7562326894</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>10674.3867</v>
       </c>
       <c r="G54" t="n">
-        <v>-314346.7562326894</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>13627.4011</v>
       </c>
       <c r="G55" t="n">
-        <v>-314346.7562326894</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>27606.9458</v>
       </c>
       <c r="G56" t="n">
-        <v>-314346.7562326894</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>23197.6744</v>
       </c>
       <c r="G57" t="n">
-        <v>-314346.7562326894</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>52346.4553</v>
       </c>
       <c r="G58" t="n">
-        <v>-366693.2115326894</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>2623.863</v>
       </c>
       <c r="G59" t="n">
-        <v>-366693.2115326894</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>725.4589</v>
       </c>
       <c r="G60" t="n">
-        <v>-365967.7526326894</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>31.3942</v>
       </c>
       <c r="G61" t="n">
-        <v>-365999.1468326894</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>487.6442307692308</v>
       </c>
       <c r="G62" t="n">
-        <v>-365511.5026019201</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>10010</v>
       </c>
       <c r="G63" t="n">
-        <v>-375521.5026019201</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>30958.1902</v>
       </c>
       <c r="G64" t="n">
-        <v>-406479.6928019201</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>19.0439</v>
       </c>
       <c r="G65" t="n">
-        <v>-406479.6928019201</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>490</v>
       </c>
       <c r="G66" t="n">
-        <v>-406479.6928019201</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>1000.0001</v>
       </c>
       <c r="G67" t="n">
-        <v>-405479.6927019201</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,21 @@
         <v>36934.7297</v>
       </c>
       <c r="G68" t="n">
-        <v>-442414.4224019201</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>20.7</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2459,21 @@
         <v>344.9652</v>
       </c>
       <c r="G69" t="n">
-        <v>-442414.4224019201</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2495,21 @@
         <v>10030.91787439613</v>
       </c>
       <c r="G70" t="n">
-        <v>-432383.504527524</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2531,21 @@
         <v>16999.9999</v>
       </c>
       <c r="G71" t="n">
-        <v>-449383.504427524</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>20.7</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2567,21 @@
         <v>924.6917692307692</v>
       </c>
       <c r="G72" t="n">
-        <v>-448458.8126582932</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2603,21 @@
         <v>16075.5857</v>
       </c>
       <c r="G73" t="n">
-        <v>-432383.2269582932</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2639,19 @@
         <v>118.2211</v>
       </c>
       <c r="G74" t="n">
-        <v>-432501.4480582933</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2673,19 @@
         <v>21392.4124</v>
       </c>
       <c r="G75" t="n">
-        <v>-411109.0356582933</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2707,19 @@
         <v>26539.9523</v>
       </c>
       <c r="G76" t="n">
-        <v>-437648.9879582933</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2741,19 @@
         <v>6810</v>
       </c>
       <c r="G77" t="n">
-        <v>-444458.9879582933</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2775,19 @@
         <v>4135.452</v>
       </c>
       <c r="G78" t="n">
-        <v>-448594.4399582933</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2809,19 @@
         <v>37759.548</v>
       </c>
       <c r="G79" t="n">
-        <v>-486353.9879582933</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2843,19 @@
         <v>907.65</v>
       </c>
       <c r="G80" t="n">
-        <v>-485446.3379582933</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2877,19 @@
         <v>7000</v>
       </c>
       <c r="G81" t="n">
-        <v>-478446.3379582933</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2911,19 @@
         <v>117.9255</v>
       </c>
       <c r="G82" t="n">
-        <v>-478564.2634582933</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2945,19 @@
         <v>3745.9336</v>
       </c>
       <c r="G83" t="n">
-        <v>-482310.1970582933</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2979,19 @@
         <v>74.0664</v>
       </c>
       <c r="G84" t="n">
-        <v>-482310.1970582933</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3013,19 @@
         <v>947.8672985781991</v>
       </c>
       <c r="G85" t="n">
-        <v>-481362.3297597151</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3047,19 @@
         <v>6432.132701421801</v>
       </c>
       <c r="G86" t="n">
-        <v>-481362.3297597151</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3081,19 @@
         <v>14877.5952</v>
       </c>
       <c r="G87" t="n">
-        <v>-466484.7345597151</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3115,19 @@
         <v>7230.0001</v>
       </c>
       <c r="G88" t="n">
-        <v>-473714.7346597151</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3149,19 @@
         <v>3620.0001</v>
       </c>
       <c r="G89" t="n">
-        <v>-473714.7346597151</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3183,19 @@
         <v>10</v>
       </c>
       <c r="G90" t="n">
-        <v>-473704.7346597151</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3217,19 @@
         <v>2518.7328</v>
       </c>
       <c r="G91" t="n">
-        <v>-476223.4674597151</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3251,19 @@
         <v>1810</v>
       </c>
       <c r="G92" t="n">
-        <v>-474413.4674597151</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3285,19 @@
         <v>4625.812</v>
       </c>
       <c r="G93" t="n">
-        <v>-474413.4674597151</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3319,19 @@
         <v>17.486</v>
       </c>
       <c r="G94" t="n">
-        <v>-474413.4674597151</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3353,19 @@
         <v>356.2851</v>
       </c>
       <c r="G95" t="n">
-        <v>-474413.4674597151</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3387,19 @@
         <v>362.4479</v>
       </c>
       <c r="G96" t="n">
-        <v>-474413.4674597151</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3421,19 @@
         <v>4637.969</v>
       </c>
       <c r="G97" t="n">
-        <v>-474413.4674597151</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3455,19 @@
         <v>731.6727</v>
       </c>
       <c r="G98" t="n">
-        <v>-475145.1401597151</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3489,19 @@
         <v>10</v>
       </c>
       <c r="G99" t="n">
-        <v>-475155.1401597151</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3523,19 @@
         <v>6966.1147</v>
       </c>
       <c r="G100" t="n">
-        <v>-475155.1401597151</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3557,19 @@
         <v>80</v>
       </c>
       <c r="G101" t="n">
-        <v>-475155.1401597151</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,22 +3591,19 @@
         <v>4973.3055</v>
       </c>
       <c r="G102" t="n">
-        <v>-475155.1401597151</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="J102" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3785,24 +3625,19 @@
         <v>12894.6046</v>
       </c>
       <c r="G103" t="n">
-        <v>-475155.1401597151</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3824,26 +3659,19 @@
         <v>17014.7092</v>
       </c>
       <c r="G104" t="n">
-        <v>-475155.1401597151</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="J104" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3865,26 +3693,19 @@
         <v>12183.7298</v>
       </c>
       <c r="G105" t="n">
-        <v>-487338.8699597151</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="J105" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3906,26 +3727,19 @@
         <v>30604.806</v>
       </c>
       <c r="G106" t="n">
-        <v>-456734.0639597151</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="J106" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3947,26 +3761,19 @@
         <v>10</v>
       </c>
       <c r="G107" t="n">
-        <v>-456724.0639597151</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="J107" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3988,26 +3795,19 @@
         <v>43510.13455714285</v>
       </c>
       <c r="G108" t="n">
-        <v>-413213.9294025722</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="J108" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4029,24 +3829,19 @@
         <v>20000</v>
       </c>
       <c r="G109" t="n">
-        <v>-433213.9294025722</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4068,26 +3863,19 @@
         <v>50000</v>
       </c>
       <c r="G110" t="n">
-        <v>-483213.9294025722</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="J110" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4109,26 +3897,21 @@
         <v>30</v>
       </c>
       <c r="G111" t="n">
-        <v>-483243.9294025722</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
         <v>20.5</v>
       </c>
-      <c r="J111" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4150,26 +3933,21 @@
         <v>10</v>
       </c>
       <c r="G112" t="n">
-        <v>-483233.9294025722</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
         <v>20.4</v>
       </c>
-      <c r="J112" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4191,24 +3969,19 @@
         <v>110</v>
       </c>
       <c r="G113" t="n">
-        <v>-483343.9294025722</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4230,24 +4003,19 @@
         <v>10</v>
       </c>
       <c r="G114" t="n">
-        <v>-483333.9294025722</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4269,24 +4037,19 @@
         <v>1755.1456</v>
       </c>
       <c r="G115" t="n">
-        <v>-485089.0750025722</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4308,26 +4071,19 @@
         <v>36319.5249</v>
       </c>
       <c r="G116" t="n">
-        <v>-448769.5501025722</v>
-      </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="J116" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4349,24 +4105,19 @@
         <v>34010.0881</v>
       </c>
       <c r="G117" t="n">
-        <v>-482779.6382025722</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4388,26 +4139,19 @@
         <v>10</v>
       </c>
       <c r="G118" t="n">
-        <v>-482769.6382025722</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="J118" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4429,24 +4173,19 @@
         <v>25000</v>
       </c>
       <c r="G119" t="n">
-        <v>-507769.6382025722</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4468,26 +4207,19 @@
         <v>429.665</v>
       </c>
       <c r="G120" t="n">
-        <v>-507769.6382025722</v>
-      </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="J120" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4509,24 +4241,19 @@
         <v>10</v>
       </c>
       <c r="G121" t="n">
-        <v>-507779.6382025722</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4548,24 +4275,19 @@
         <v>10</v>
       </c>
       <c r="G122" t="n">
-        <v>-507769.6382025722</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4587,24 +4309,19 @@
         <v>20</v>
       </c>
       <c r="G123" t="n">
-        <v>-507789.6382025722</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4626,24 +4343,19 @@
         <v>50</v>
       </c>
       <c r="G124" t="n">
-        <v>-507789.6382025722</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4665,24 +4377,19 @@
         <v>745.5389</v>
       </c>
       <c r="G125" t="n">
-        <v>-507789.6382025722</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4704,24 +4411,19 @@
         <v>16998.4107</v>
       </c>
       <c r="G126" t="n">
-        <v>-524788.0489025721</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4743,24 +4445,19 @@
         <v>3001.5893</v>
       </c>
       <c r="G127" t="n">
-        <v>-524788.0489025721</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4782,24 +4479,19 @@
         <v>50</v>
       </c>
       <c r="G128" t="n">
-        <v>-524788.0489025721</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4821,24 +4513,19 @@
         <v>19000</v>
       </c>
       <c r="G129" t="n">
-        <v>-505788.0489025721</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4860,24 +4547,19 @@
         <v>52736.3914</v>
       </c>
       <c r="G130" t="n">
-        <v>-558524.4403025721</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4899,24 +4581,19 @@
         <v>748.3150000000001</v>
       </c>
       <c r="G131" t="n">
-        <v>-559272.755302572</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4938,26 +4615,19 @@
         <v>126.1278</v>
       </c>
       <c r="G132" t="n">
-        <v>-559146.627502572</v>
-      </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="J132" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4979,24 +4649,19 @@
         <v>10</v>
       </c>
       <c r="G133" t="n">
-        <v>-559156.627502572</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5018,24 +4683,19 @@
         <v>271.5745</v>
       </c>
       <c r="G134" t="n">
-        <v>-558885.053002572</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5057,24 +4717,19 @@
         <v>34817.6564</v>
       </c>
       <c r="G135" t="n">
-        <v>-524067.3966025721</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5096,24 +4751,19 @@
         <v>6819.4848</v>
       </c>
       <c r="G136" t="n">
-        <v>-517247.9118025721</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5135,24 +4785,19 @@
         <v>48.0769</v>
       </c>
       <c r="G137" t="n">
-        <v>-517295.9887025721</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5174,24 +4819,19 @@
         <v>77843.5699</v>
       </c>
       <c r="G138" t="n">
-        <v>-595139.5586025721</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5213,24 +4853,19 @@
         <v>31198.4722</v>
       </c>
       <c r="G139" t="n">
-        <v>-595139.5586025721</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5252,24 +4887,19 @@
         <v>203705.6889</v>
       </c>
       <c r="G140" t="n">
-        <v>-595139.5586025721</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5291,24 +4921,19 @@
         <v>11</v>
       </c>
       <c r="G141" t="n">
-        <v>-595128.5586025721</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5330,24 +4955,19 @@
         <v>90</v>
       </c>
       <c r="G142" t="n">
-        <v>-595218.5586025721</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5369,24 +4989,19 @@
         <v>10947.0664</v>
       </c>
       <c r="G143" t="n">
-        <v>-584271.4922025721</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5408,24 +5023,19 @@
         <v>14085.9362</v>
       </c>
       <c r="G144" t="n">
-        <v>-598357.4284025721</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5447,24 +5057,19 @@
         <v>33200</v>
       </c>
       <c r="G145" t="n">
-        <v>-565157.4284025721</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5486,24 +5091,19 @@
         <v>11</v>
       </c>
       <c r="G146" t="n">
-        <v>-565146.4284025721</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5525,24 +5125,19 @@
         <v>12537.8215</v>
       </c>
       <c r="G147" t="n">
-        <v>-577684.249902572</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5564,24 +5159,19 @@
         <v>2022</v>
       </c>
       <c r="G148" t="n">
-        <v>-577684.249902572</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5603,24 +5193,19 @@
         <v>19349.0887</v>
       </c>
       <c r="G149" t="n">
-        <v>-597033.338602572</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5642,24 +5227,19 @@
         <v>30630.0945</v>
       </c>
       <c r="G150" t="n">
-        <v>-566403.244102572</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5681,24 +5261,19 @@
         <v>140358.0301</v>
       </c>
       <c r="G151" t="n">
-        <v>-426045.214002572</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5720,24 +5295,19 @@
         <v>15542.8309</v>
       </c>
       <c r="G152" t="n">
-        <v>-426045.214002572</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5759,24 +5329,19 @@
         <v>12473.3359</v>
       </c>
       <c r="G153" t="n">
-        <v>-426045.214002572</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5798,24 +5363,19 @@
         <v>18693.5039</v>
       </c>
       <c r="G154" t="n">
-        <v>-426045.214002572</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5837,24 +5397,17 @@
         <v>158.9252</v>
       </c>
       <c r="G155" t="n">
-        <v>-426045.214002572</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5876,24 +5429,15 @@
         <v>768.2145</v>
       </c>
       <c r="G156" t="n">
-        <v>-426813.428502572</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5915,24 +5459,15 @@
         <v>2000</v>
       </c>
       <c r="G157" t="n">
-        <v>-428813.428502572</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5954,24 +5489,15 @@
         <v>43086.7135</v>
       </c>
       <c r="G158" t="n">
-        <v>-428813.428502572</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5993,24 +5519,15 @@
         <v>7874.9777</v>
       </c>
       <c r="G159" t="n">
-        <v>-420938.450802572</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6032,24 +5549,15 @@
         <v>400</v>
       </c>
       <c r="G160" t="n">
-        <v>-420938.450802572</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6071,24 +5579,15 @@
         <v>1000</v>
       </c>
       <c r="G161" t="n">
-        <v>-420938.450802572</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6110,24 +5609,15 @@
         <v>8000</v>
       </c>
       <c r="G162" t="n">
-        <v>-420938.450802572</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6149,24 +5639,15 @@
         <v>3600</v>
       </c>
       <c r="G163" t="n">
-        <v>-420938.450802572</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6188,24 +5669,15 @@
         <v>33000</v>
       </c>
       <c r="G164" t="n">
-        <v>-420938.450802572</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6227,24 +5699,15 @@
         <v>60</v>
       </c>
       <c r="G165" t="n">
-        <v>-420878.450802572</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6266,24 +5729,15 @@
         <v>60</v>
       </c>
       <c r="G166" t="n">
-        <v>-420878.450802572</v>
-      </c>
-      <c r="H166" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1.028980582524272</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6305,18 +5759,15 @@
         <v>193.3802</v>
       </c>
       <c r="G167" t="n">
-        <v>-420878.450802572</v>
-      </c>
-      <c r="H167" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6338,18 +5789,15 @@
         <v>10</v>
       </c>
       <c r="G168" t="n">
-        <v>-420888.450802572</v>
-      </c>
-      <c r="H168" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6371,18 +5819,15 @@
         <v>8.181800000000001</v>
       </c>
       <c r="G169" t="n">
-        <v>-420888.450802572</v>
-      </c>
-      <c r="H169" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6404,18 +5849,15 @@
         <v>10</v>
       </c>
       <c r="G170" t="n">
-        <v>-420878.450802572</v>
-      </c>
-      <c r="H170" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6437,18 +5879,15 @@
         <v>60383.8045</v>
       </c>
       <c r="G171" t="n">
-        <v>-420878.450802572</v>
-      </c>
-      <c r="H171" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6470,18 +5909,15 @@
         <v>135051.3179</v>
       </c>
       <c r="G172" t="n">
-        <v>-555929.768702572</v>
-      </c>
-      <c r="H172" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6503,18 +5939,15 @@
         <v>390.4665</v>
       </c>
       <c r="G173" t="n">
-        <v>-555539.302202572</v>
-      </c>
-      <c r="H173" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6536,18 +5969,15 @@
         <v>10</v>
       </c>
       <c r="G174" t="n">
-        <v>-555549.302202572</v>
-      </c>
-      <c r="H174" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6569,18 +5999,15 @@
         <v>10</v>
       </c>
       <c r="G175" t="n">
-        <v>-555539.302202572</v>
-      </c>
-      <c r="H175" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6602,18 +6029,15 @@
         <v>27641.872</v>
       </c>
       <c r="G176" t="n">
-        <v>-555539.302202572</v>
-      </c>
-      <c r="H176" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6635,18 +6059,15 @@
         <v>10</v>
       </c>
       <c r="G177" t="n">
-        <v>-555549.302202572</v>
-      </c>
-      <c r="H177" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6668,18 +6089,15 @@
         <v>100</v>
       </c>
       <c r="G178" t="n">
-        <v>-555449.302202572</v>
-      </c>
-      <c r="H178" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6701,18 +6119,15 @@
         <v>1134.7094</v>
       </c>
       <c r="G179" t="n">
-        <v>-556584.011602572</v>
-      </c>
-      <c r="H179" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6734,18 +6149,15 @@
         <v>36781.5443</v>
       </c>
       <c r="G180" t="n">
-        <v>-593365.555902572</v>
-      </c>
-      <c r="H180" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6767,18 +6179,15 @@
         <v>79023.4433</v>
       </c>
       <c r="G181" t="n">
-        <v>-514342.112602572</v>
-      </c>
-      <c r="H181" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6800,18 +6209,15 @@
         <v>5077.23</v>
       </c>
       <c r="G182" t="n">
-        <v>-519419.342602572</v>
-      </c>
-      <c r="H182" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6833,18 +6239,15 @@
         <v>83257.3511</v>
       </c>
       <c r="G183" t="n">
-        <v>-602676.693702572</v>
-      </c>
-      <c r="H183" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6866,18 +6269,15 @@
         <v>40302.9266</v>
       </c>
       <c r="G184" t="n">
-        <v>-602676.693702572</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6899,18 +6299,15 @@
         <v>86174.71400000001</v>
       </c>
       <c r="G185" t="n">
-        <v>-602676.693702572</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6932,18 +6329,15 @@
         <v>203689.5463</v>
       </c>
       <c r="G186" t="n">
-        <v>-806366.2400025721</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6965,18 +6359,15 @@
         <v>10</v>
       </c>
       <c r="G187" t="n">
-        <v>-806356.2400025721</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6998,18 +6389,15 @@
         <v>42629.007</v>
       </c>
       <c r="G188" t="n">
-        <v>-806356.2400025721</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7031,18 +6419,15 @@
         <v>10</v>
       </c>
       <c r="G189" t="n">
-        <v>-806366.2400025721</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7064,18 +6449,15 @@
         <v>8470.769</v>
       </c>
       <c r="G190" t="n">
-        <v>-806366.2400025721</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7097,18 +6479,15 @@
         <v>95043.4617</v>
       </c>
       <c r="G191" t="n">
-        <v>-806366.2400025721</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7130,18 +6509,15 @@
         <v>10</v>
       </c>
       <c r="G192" t="n">
-        <v>-806376.2400025721</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7163,18 +6539,15 @@
         <v>10</v>
       </c>
       <c r="G193" t="n">
-        <v>-806366.2400025721</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7196,18 +6569,15 @@
         <v>10</v>
       </c>
       <c r="G194" t="n">
-        <v>-806376.2400025721</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7229,18 +6599,15 @@
         <v>10</v>
       </c>
       <c r="G195" t="n">
-        <v>-806386.2400025721</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7262,18 +6629,15 @@
         <v>720</v>
       </c>
       <c r="G196" t="n">
-        <v>-805666.2400025721</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7295,18 +6659,15 @@
         <v>10005.8406</v>
       </c>
       <c r="G197" t="n">
-        <v>-815672.0806025721</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7328,18 +6689,15 @@
         <v>390</v>
       </c>
       <c r="G198" t="n">
-        <v>-815282.0806025721</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7361,18 +6719,15 @@
         <v>30</v>
       </c>
       <c r="G199" t="n">
-        <v>-815282.0806025721</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
